--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W459"/>
+  <dimension ref="A1:W469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27899,6 +27899,752 @@
         </is>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>396.2178947368421</v>
+      </c>
+      <c r="C460" t="n">
+        <v>373.5266666666667</v>
+      </c>
+      <c r="D460" t="n">
+        <v>369.82</v>
+      </c>
+      <c r="E460" t="n">
+        <v>365.8178947368421</v>
+      </c>
+      <c r="F460" t="n">
+        <v>369.5744444444445</v>
+      </c>
+      <c r="G460" t="n">
+        <v>377.6133333333333</v>
+      </c>
+      <c r="H460" t="n">
+        <v>381.84</v>
+      </c>
+      <c r="I460" t="n">
+        <v>383.6333333333334</v>
+      </c>
+      <c r="J460" t="n">
+        <v>374.205</v>
+      </c>
+      <c r="K460" t="n">
+        <v>374.4244444444445</v>
+      </c>
+      <c r="L460" t="n">
+        <v>368.195</v>
+      </c>
+      <c r="M460" t="n">
+        <v>363.6047058823529</v>
+      </c>
+      <c r="N460" t="n">
+        <v>357.14</v>
+      </c>
+      <c r="O460" t="n">
+        <v>349.1933333333334</v>
+      </c>
+      <c r="P460" t="n">
+        <v>345.2333333333333</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>327.9547058823529</v>
+      </c>
+      <c r="R460" t="n">
+        <v>325.0784615384616</v>
+      </c>
+      <c r="S460" t="n">
+        <v>311.5862264150944</v>
+      </c>
+      <c r="T460" t="n">
+        <v>320.2592592592592</v>
+      </c>
+      <c r="U460" t="n">
+        <v>323.5672727272727</v>
+      </c>
+      <c r="V460" t="n">
+        <v>337.17</v>
+      </c>
+      <c r="W460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>416.2621052631579</v>
+      </c>
+      <c r="C461" t="n">
+        <v>379.2447619047619</v>
+      </c>
+      <c r="D461" t="n">
+        <v>364.97</v>
+      </c>
+      <c r="E461" t="n">
+        <v>353.392105263158</v>
+      </c>
+      <c r="F461" t="n">
+        <v>351.6222222222222</v>
+      </c>
+      <c r="G461" t="n">
+        <v>371.8966666666666</v>
+      </c>
+      <c r="H461" t="n">
+        <v>375.6171428571428</v>
+      </c>
+      <c r="I461" t="n">
+        <v>377.0466666666667</v>
+      </c>
+      <c r="J461" t="n">
+        <v>371.98</v>
+      </c>
+      <c r="K461" t="n">
+        <v>358.3922222222222</v>
+      </c>
+      <c r="L461" t="n">
+        <v>344.54</v>
+      </c>
+      <c r="M461" t="n">
+        <v>348.8594117647058</v>
+      </c>
+      <c r="N461" t="n">
+        <v>347.9771428571428</v>
+      </c>
+      <c r="O461" t="n">
+        <v>356.7566666666667</v>
+      </c>
+      <c r="P461" t="n">
+        <v>346.3966666666666</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>336.1694117647058</v>
+      </c>
+      <c r="R461" t="n">
+        <v>323.7123076923077</v>
+      </c>
+      <c r="S461" t="n">
+        <v>317.32</v>
+      </c>
+      <c r="T461" t="n">
+        <v>321.1062962962963</v>
+      </c>
+      <c r="U461" t="n">
+        <v>322.7218181818181</v>
+      </c>
+      <c r="V461" t="n">
+        <v>326.8271428571429</v>
+      </c>
+      <c r="W461" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>408.2531578947368</v>
+      </c>
+      <c r="C462" t="n">
+        <v>377.92</v>
+      </c>
+      <c r="D462" t="n">
+        <v>374.35</v>
+      </c>
+      <c r="E462" t="n">
+        <v>372.2031578947368</v>
+      </c>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="n">
+        <v>396.68</v>
+      </c>
+      <c r="H462" t="n">
+        <v>400.71</v>
+      </c>
+      <c r="I462" t="n">
+        <v>400.49</v>
+      </c>
+      <c r="J462" t="n">
+        <v>384.17</v>
+      </c>
+      <c r="K462" t="n">
+        <v>377.43</v>
+      </c>
+      <c r="L462" t="n">
+        <v>376.1</v>
+      </c>
+      <c r="M462" t="n">
+        <v>365.8635294117647</v>
+      </c>
+      <c r="N462" t="n">
+        <v>374.84</v>
+      </c>
+      <c r="O462" t="n">
+        <v>369.83</v>
+      </c>
+      <c r="P462" t="n">
+        <v>368.6</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>358.5035294117647</v>
+      </c>
+      <c r="R462" t="n">
+        <v>360.7346153846154</v>
+      </c>
+      <c r="S462" t="n">
+        <v>348.4788679245283</v>
+      </c>
+      <c r="T462" t="n">
+        <v>340.2066666666667</v>
+      </c>
+      <c r="U462" t="n">
+        <v>332.1372727272727</v>
+      </c>
+      <c r="V462" t="n">
+        <v>346.58</v>
+      </c>
+      <c r="W462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>413.9847368421053</v>
+      </c>
+      <c r="C463" t="n">
+        <v>360.5266666666667</v>
+      </c>
+      <c r="D463" t="n">
+        <v>361.38</v>
+      </c>
+      <c r="E463" t="n">
+        <v>356.0347368421052</v>
+      </c>
+      <c r="F463" t="n">
+        <v>358.9044444444444</v>
+      </c>
+      <c r="G463" t="n">
+        <v>369.1633333333334</v>
+      </c>
+      <c r="H463" t="n">
+        <v>371.38</v>
+      </c>
+      <c r="I463" t="n">
+        <v>376.7833333333334</v>
+      </c>
+      <c r="J463" t="n">
+        <v>373.915</v>
+      </c>
+      <c r="K463" t="n">
+        <v>360.2244444444444</v>
+      </c>
+      <c r="L463" t="n">
+        <v>351.065</v>
+      </c>
+      <c r="M463" t="n">
+        <v>345.2511764705882</v>
+      </c>
+      <c r="N463" t="n">
+        <v>349.91</v>
+      </c>
+      <c r="O463" t="n">
+        <v>356.9833333333333</v>
+      </c>
+      <c r="P463" t="n">
+        <v>352.3533333333333</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>343.2611764705882</v>
+      </c>
+      <c r="R463" t="n">
+        <v>332.4738461538461</v>
+      </c>
+      <c r="S463" t="n">
+        <v>328.257358490566</v>
+      </c>
+      <c r="T463" t="n">
+        <v>330.0125925925926</v>
+      </c>
+      <c r="U463" t="n">
+        <v>329.37</v>
+      </c>
+      <c r="V463" t="n">
+        <v>335.05</v>
+      </c>
+      <c r="W463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>425.34</v>
+      </c>
+      <c r="C464" t="n">
+        <v>367.7919047619047</v>
+      </c>
+      <c r="D464" t="n">
+        <v>366.02</v>
+      </c>
+      <c r="E464" t="n">
+        <v>361.62</v>
+      </c>
+      <c r="F464" t="n">
+        <v>366.8655555555556</v>
+      </c>
+      <c r="G464" t="n">
+        <v>370.2966666666667</v>
+      </c>
+      <c r="H464" t="n">
+        <v>374.2628571428572</v>
+      </c>
+      <c r="I464" t="n">
+        <v>378.4466666666667</v>
+      </c>
+      <c r="J464" t="n">
+        <v>376.09</v>
+      </c>
+      <c r="K464" t="n">
+        <v>369.4755555555556</v>
+      </c>
+      <c r="L464" t="n">
+        <v>357.79</v>
+      </c>
+      <c r="M464" t="n">
+        <v>351.3088235294118</v>
+      </c>
+      <c r="N464" t="n">
+        <v>360.8328571428572</v>
+      </c>
+      <c r="O464" t="n">
+        <v>360.9866666666667</v>
+      </c>
+      <c r="P464" t="n">
+        <v>355.9566666666666</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>349.6788235294118</v>
+      </c>
+      <c r="R464" t="n">
+        <v>340.1476923076923</v>
+      </c>
+      <c r="S464" t="n">
+        <v>333.7783018867925</v>
+      </c>
+      <c r="T464" t="n">
+        <v>333.3607407407408</v>
+      </c>
+      <c r="U464" t="n">
+        <v>331.8554545454546</v>
+      </c>
+      <c r="V464" t="n">
+        <v>337.4228571428571</v>
+      </c>
+      <c r="W464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>411.078947368421</v>
+      </c>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="n">
+        <v>359.22</v>
+      </c>
+      <c r="E465" t="n">
+        <v>352.4289473684211</v>
+      </c>
+      <c r="F465" t="n">
+        <v>361.08</v>
+      </c>
+      <c r="G465" t="n">
+        <v>353.44</v>
+      </c>
+      <c r="H465" t="n">
+        <v>361.1771428571428</v>
+      </c>
+      <c r="I465" t="n">
+        <v>370.89</v>
+      </c>
+      <c r="J465" t="n">
+        <v>375.195</v>
+      </c>
+      <c r="K465" t="n">
+        <v>371.74</v>
+      </c>
+      <c r="L465" t="n">
+        <v>358.865</v>
+      </c>
+      <c r="M465" t="n">
+        <v>346.1129411764706</v>
+      </c>
+      <c r="N465" t="n">
+        <v>333.8971428571429</v>
+      </c>
+      <c r="O465" t="n">
+        <v>341.65</v>
+      </c>
+      <c r="P465" t="n">
+        <v>351.13</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>359.4429411764706</v>
+      </c>
+      <c r="R465" t="n">
+        <v>352.5792307692308</v>
+      </c>
+      <c r="S465" t="n">
+        <v>339.0266037735849</v>
+      </c>
+      <c r="T465" t="n">
+        <v>332.5133333333333</v>
+      </c>
+      <c r="U465" t="n">
+        <v>336.34</v>
+      </c>
+      <c r="V465" t="n">
+        <v>342.4171428571428</v>
+      </c>
+      <c r="W465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>407.4852631578947</v>
+      </c>
+      <c r="C466" t="n">
+        <v>376.172380952381</v>
+      </c>
+      <c r="D466" t="n">
+        <v>377.88</v>
+      </c>
+      <c r="E466" t="n">
+        <v>376.7652631578948</v>
+      </c>
+      <c r="F466" t="n">
+        <v>378.2477777777778</v>
+      </c>
+      <c r="G466" t="n">
+        <v>378.5933333333333</v>
+      </c>
+      <c r="H466" t="n">
+        <v>386.1285714285714</v>
+      </c>
+      <c r="I466" t="n">
+        <v>400.7533333333333</v>
+      </c>
+      <c r="J466" t="n">
+        <v>398.375</v>
+      </c>
+      <c r="K466" t="n">
+        <v>390.2977777777778</v>
+      </c>
+      <c r="L466" t="n">
+        <v>383.885</v>
+      </c>
+      <c r="M466" t="n">
+        <v>372.2194117647059</v>
+      </c>
+      <c r="N466" t="n">
+        <v>370.2685714285714</v>
+      </c>
+      <c r="O466" t="n">
+        <v>367.3833333333333</v>
+      </c>
+      <c r="P466" t="n">
+        <v>370.4433333333333</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>368.7494117647059</v>
+      </c>
+      <c r="R466" t="n">
+        <v>374.9723076923077</v>
+      </c>
+      <c r="S466" t="n">
+        <v>365.5784905660378</v>
+      </c>
+      <c r="T466" t="n">
+        <v>359.867037037037</v>
+      </c>
+      <c r="U466" t="n">
+        <v>352.7872727272728</v>
+      </c>
+      <c r="V466" t="n">
+        <v>357.3285714285714</v>
+      </c>
+      <c r="W466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>408.9289473684211</v>
+      </c>
+      <c r="C467" t="n">
+        <v>374.1871428571428</v>
+      </c>
+      <c r="D467" t="n">
+        <v>371.84</v>
+      </c>
+      <c r="E467" t="n">
+        <v>376.1789473684211</v>
+      </c>
+      <c r="F467" t="n">
+        <v>377.05</v>
+      </c>
+      <c r="G467" t="n">
+        <v>374.87</v>
+      </c>
+      <c r="H467" t="n">
+        <v>384.5957142857143</v>
+      </c>
+      <c r="I467" t="n">
+        <v>393.71</v>
+      </c>
+      <c r="J467" t="n">
+        <v>394.4</v>
+      </c>
+      <c r="K467" t="n">
+        <v>385.97</v>
+      </c>
+      <c r="L467" t="n">
+        <v>379.45</v>
+      </c>
+      <c r="M467" t="n">
+        <v>366.3505882352941</v>
+      </c>
+      <c r="N467" t="n">
+        <v>363.3657142857143</v>
+      </c>
+      <c r="O467" t="n">
+        <v>370.05</v>
+      </c>
+      <c r="P467" t="n">
+        <v>368.25</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>381.5005882352941</v>
+      </c>
+      <c r="R467" t="n">
+        <v>377.8769230769231</v>
+      </c>
+      <c r="S467" t="n">
+        <v>361.7079245283019</v>
+      </c>
+      <c r="T467" t="n">
+        <v>359.5966666666667</v>
+      </c>
+      <c r="U467" t="n">
+        <v>357.8727272727273</v>
+      </c>
+      <c r="V467" t="n">
+        <v>370.1857142857143</v>
+      </c>
+      <c r="W467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>414.6036842105263</v>
+      </c>
+      <c r="C468" t="n">
+        <v>364.4942857142857</v>
+      </c>
+      <c r="D468" t="n">
+        <v>355.62</v>
+      </c>
+      <c r="E468" t="n">
+        <v>363.2636842105263</v>
+      </c>
+      <c r="F468" t="n">
+        <v>373.6933333333333</v>
+      </c>
+      <c r="G468" t="n">
+        <v>358.9</v>
+      </c>
+      <c r="H468" t="n">
+        <v>358.9114285714285</v>
+      </c>
+      <c r="I468" t="n">
+        <v>369.99</v>
+      </c>
+      <c r="J468" t="n">
+        <v>369.08</v>
+      </c>
+      <c r="K468" t="n">
+        <v>370.9533333333333</v>
+      </c>
+      <c r="L468" t="n">
+        <v>367.76</v>
+      </c>
+      <c r="M468" t="n">
+        <v>360.6864705882353</v>
+      </c>
+      <c r="N468" t="n">
+        <v>346.0614285714286</v>
+      </c>
+      <c r="O468" t="n">
+        <v>341.78</v>
+      </c>
+      <c r="P468" t="n">
+        <v>351.54</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>357.8864705882353</v>
+      </c>
+      <c r="R468" t="n">
+        <v>355.7376923076923</v>
+      </c>
+      <c r="S468" t="n">
+        <v>339.8773584905661</v>
+      </c>
+      <c r="T468" t="n">
+        <v>331.5744444444445</v>
+      </c>
+      <c r="U468" t="n">
+        <v>335.2090909090909</v>
+      </c>
+      <c r="V468" t="n">
+        <v>344.5714285714286</v>
+      </c>
+      <c r="W468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>388.9373684210527</v>
+      </c>
+      <c r="C469" t="n">
+        <v>363.0742857142857</v>
+      </c>
+      <c r="D469" t="n">
+        <v>359.09</v>
+      </c>
+      <c r="E469" t="n">
+        <v>363.8373684210526</v>
+      </c>
+      <c r="F469" t="n">
+        <v>367.9366666666667</v>
+      </c>
+      <c r="G469" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="H469" t="n">
+        <v>378.2614285714286</v>
+      </c>
+      <c r="I469" t="n">
+        <v>379.76</v>
+      </c>
+      <c r="J469" t="n">
+        <v>377.725</v>
+      </c>
+      <c r="K469" t="n">
+        <v>373.7966666666667</v>
+      </c>
+      <c r="L469" t="n">
+        <v>373.485</v>
+      </c>
+      <c r="M469" t="n">
+        <v>369.7105882352942</v>
+      </c>
+      <c r="N469" t="n">
+        <v>364.3514285714285</v>
+      </c>
+      <c r="O469" t="n">
+        <v>357.83</v>
+      </c>
+      <c r="P469" t="n">
+        <v>354.47</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>360.3005882352941</v>
+      </c>
+      <c r="R469" t="n">
+        <v>360.7030769230769</v>
+      </c>
+      <c r="S469" t="n">
+        <v>359.2760377358491</v>
+      </c>
+      <c r="T469" t="n">
+        <v>354.2422222222222</v>
+      </c>
+      <c r="U469" t="n">
+        <v>352.2509090909091</v>
+      </c>
+      <c r="V469" t="n">
+        <v>356.1714285714286</v>
+      </c>
+      <c r="W469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27910,7 +28656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B480"/>
+  <dimension ref="A1:B490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32718,6 +33464,106 @@
       </c>
       <c r="B480" t="n">
         <v>0.38</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
@@ -32886,28 +33732,28 @@
         <v>0.1148</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5417065189964495</v>
+        <v>-0.5812777301408993</v>
       </c>
       <c r="J2" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K2" t="n">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01975160291539846</v>
+        <v>0.02382794173233749</v>
       </c>
       <c r="M2" t="n">
-        <v>24.54471169315866</v>
+        <v>24.09178667325077</v>
       </c>
       <c r="N2" t="n">
-        <v>865.7150561834513</v>
+        <v>844.2131643473095</v>
       </c>
       <c r="O2" t="n">
-        <v>29.42303614828781</v>
+        <v>29.05534657076576</v>
       </c>
       <c r="P2" t="n">
-        <v>430.6381041330439</v>
+        <v>431.0026297269548</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32963,28 +33809,28 @@
         <v>0.1347</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01387847548245816</v>
+        <v>-0.04880464509532881</v>
       </c>
       <c r="J3" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K3" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="L3" t="n">
-        <v>4.793357813448473e-05</v>
+        <v>0.0006104465563592232</v>
       </c>
       <c r="M3" t="n">
-        <v>12.37195089374606</v>
+        <v>12.27609314641609</v>
       </c>
       <c r="N3" t="n">
-        <v>243.897730931004</v>
+        <v>241.0148434264768</v>
       </c>
       <c r="O3" t="n">
-        <v>15.61722545559883</v>
+        <v>15.52465276347516</v>
       </c>
       <c r="P3" t="n">
-        <v>380.1686628215482</v>
+        <v>380.4887124476498</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -33034,28 +33880,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.2378827802908869</v>
+        <v>0.2035351920256967</v>
       </c>
       <c r="J4" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K4" t="n">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01404291889493536</v>
+        <v>0.01066715282078756</v>
       </c>
       <c r="M4" t="n">
-        <v>12.30075990401932</v>
+        <v>12.21611366563027</v>
       </c>
       <c r="N4" t="n">
-        <v>241.9343954955176</v>
+        <v>238.4505717784978</v>
       </c>
       <c r="O4" t="n">
-        <v>15.55424043454124</v>
+        <v>15.44184483079978</v>
       </c>
       <c r="P4" t="n">
-        <v>368.000972106151</v>
+        <v>368.3170280444655</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -33105,28 +33951,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.284981688435703</v>
+        <v>0.2553637400491059</v>
       </c>
       <c r="J5" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K5" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01973478466108258</v>
+        <v>0.0164483577960518</v>
       </c>
       <c r="M5" t="n">
-        <v>12.66850424967681</v>
+        <v>12.57982918549642</v>
       </c>
       <c r="N5" t="n">
-        <v>243.9687983228535</v>
+        <v>240.5755757708731</v>
       </c>
       <c r="O5" t="n">
-        <v>15.61950057853495</v>
+        <v>15.510498888523</v>
       </c>
       <c r="P5" t="n">
-        <v>363.7756263793557</v>
+        <v>364.047709929749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33182,28 +34028,28 @@
         <v>0.126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.217723291410001</v>
+        <v>0.2073826357905895</v>
       </c>
       <c r="J6" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K6" t="n">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01320699887558829</v>
+        <v>0.01241746808809296</v>
       </c>
       <c r="M6" t="n">
-        <v>12.00674538410227</v>
+        <v>11.87771257153469</v>
       </c>
       <c r="N6" t="n">
-        <v>211.16871824809</v>
+        <v>207.7570386409029</v>
       </c>
       <c r="O6" t="n">
-        <v>14.53164540745782</v>
+        <v>14.41377947107916</v>
       </c>
       <c r="P6" t="n">
-        <v>364.1971871188642</v>
+        <v>364.2932320696026</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33259,28 +34105,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1251743017579501</v>
+        <v>0.1312823956826975</v>
       </c>
       <c r="J7" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K7" t="n">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004379565295153931</v>
+        <v>0.00497279901639025</v>
       </c>
       <c r="M7" t="n">
-        <v>11.43677169785982</v>
+        <v>11.34031751315746</v>
       </c>
       <c r="N7" t="n">
-        <v>210.0975394912983</v>
+        <v>207.6631317985597</v>
       </c>
       <c r="O7" t="n">
-        <v>14.49474178767246</v>
+        <v>14.410521565806</v>
       </c>
       <c r="P7" t="n">
-        <v>368.0102707756306</v>
+        <v>367.9532617274402</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33336,28 +34182,28 @@
         <v>0.0893</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06515859062201078</v>
+        <v>0.08231474464759031</v>
       </c>
       <c r="J8" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K8" t="n">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001165258816343662</v>
+        <v>0.001915255582345954</v>
       </c>
       <c r="M8" t="n">
-        <v>11.46699778211397</v>
+        <v>11.41738015822778</v>
       </c>
       <c r="N8" t="n">
-        <v>215.011611751647</v>
+        <v>213.0503144905905</v>
       </c>
       <c r="O8" t="n">
-        <v>14.66327425071382</v>
+        <v>14.59624316358803</v>
       </c>
       <c r="P8" t="n">
-        <v>372.0054206169555</v>
+        <v>371.8443028920762</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33413,28 +34259,28 @@
         <v>0.0872</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1193176286930731</v>
+        <v>0.1575121291177238</v>
       </c>
       <c r="J9" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K9" t="n">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004050765780010401</v>
+        <v>0.007214747065873661</v>
       </c>
       <c r="M9" t="n">
-        <v>10.99466675103184</v>
+        <v>10.96373548833065</v>
       </c>
       <c r="N9" t="n">
-        <v>203.1886853670463</v>
+        <v>202.3706226949849</v>
       </c>
       <c r="O9" t="n">
-        <v>14.25442686911846</v>
+        <v>14.22570288931218</v>
       </c>
       <c r="P9" t="n">
-        <v>372.1285432452685</v>
+        <v>371.763272358294</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33490,28 +34336,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08545615321844977</v>
+        <v>0.1016516604219988</v>
       </c>
       <c r="J10" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K10" t="n">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002342253875704525</v>
+        <v>0.003430280563269439</v>
       </c>
       <c r="M10" t="n">
-        <v>10.15251093457019</v>
+        <v>10.04900819643686</v>
       </c>
       <c r="N10" t="n">
-        <v>178.5729226029973</v>
+        <v>176.1139581545148</v>
       </c>
       <c r="O10" t="n">
-        <v>13.36311799704685</v>
+        <v>13.27079342596044</v>
       </c>
       <c r="P10" t="n">
-        <v>374.0914085928679</v>
+        <v>373.9346755062397</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33567,28 +34413,28 @@
         <v>0.102</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2292931044213699</v>
+        <v>0.2312692775794102</v>
       </c>
       <c r="J11" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K11" t="n">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01559638866706115</v>
+        <v>0.01647409242505038</v>
       </c>
       <c r="M11" t="n">
-        <v>10.78391647174405</v>
+        <v>10.67452280540691</v>
       </c>
       <c r="N11" t="n">
-        <v>189.7844341929687</v>
+        <v>186.7671523441711</v>
       </c>
       <c r="O11" t="n">
-        <v>13.7762271392776</v>
+        <v>13.66627792576205</v>
       </c>
       <c r="P11" t="n">
-        <v>367.063467667202</v>
+        <v>367.0437365395237</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -33644,28 +34490,28 @@
         <v>0.0958</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2010524112407798</v>
+        <v>0.1884245377407223</v>
       </c>
       <c r="J12" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K12" t="n">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01304472866853823</v>
+        <v>0.01181466962300182</v>
       </c>
       <c r="M12" t="n">
-        <v>10.22300975649807</v>
+        <v>10.22505204587683</v>
       </c>
       <c r="N12" t="n">
-        <v>175.5803678478322</v>
+        <v>174.855273763739</v>
       </c>
       <c r="O12" t="n">
-        <v>13.250674241254</v>
+        <v>13.22328528633255</v>
       </c>
       <c r="P12" t="n">
-        <v>363.4149743265763</v>
+        <v>363.5343057190218</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33721,28 +34567,28 @@
         <v>0.0956</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2725735738569407</v>
+        <v>0.2463805742814713</v>
       </c>
       <c r="J13" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K13" t="n">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02518175994106198</v>
+        <v>0.02140401220417065</v>
       </c>
       <c r="M13" t="n">
-        <v>10.42484759914841</v>
+        <v>10.37598838721123</v>
       </c>
       <c r="N13" t="n">
-        <v>169.2537608498073</v>
+        <v>167.5873961024404</v>
       </c>
       <c r="O13" t="n">
-        <v>13.00975637165459</v>
+        <v>12.9455550712374</v>
       </c>
       <c r="P13" t="n">
-        <v>357.0389539363559</v>
+        <v>357.28242663563</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -33798,28 +34644,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3233327420265832</v>
+        <v>0.3076210307913544</v>
       </c>
       <c r="J14" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K14" t="n">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02855003994230298</v>
+        <v>0.02689238210121137</v>
       </c>
       <c r="M14" t="n">
-        <v>11.98289991744355</v>
+        <v>11.91722006433448</v>
       </c>
       <c r="N14" t="n">
-        <v>214.4125704344821</v>
+        <v>212.1441889861965</v>
       </c>
       <c r="O14" t="n">
-        <v>14.64283341551362</v>
+        <v>14.56517040704284</v>
       </c>
       <c r="P14" t="n">
-        <v>351.4662126467921</v>
+        <v>351.6094423398562</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -33875,28 +34721,28 @@
         <v>0.0883</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3953751753993902</v>
+        <v>0.4053895122667863</v>
       </c>
       <c r="J15" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K15" t="n">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03871739933515372</v>
+        <v>0.04254284069837144</v>
       </c>
       <c r="M15" t="n">
-        <v>11.9612801452356</v>
+        <v>11.83037588762032</v>
       </c>
       <c r="N15" t="n">
-        <v>225.5283125955178</v>
+        <v>221.0398701683813</v>
       </c>
       <c r="O15" t="n">
-        <v>15.01760009440649</v>
+        <v>14.86740966572124</v>
       </c>
       <c r="P15" t="n">
-        <v>345.5220765378104</v>
+        <v>345.4272718734983</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -33952,28 +34798,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3204252772189</v>
+        <v>0.3640364700823353</v>
       </c>
       <c r="J16" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K16" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02592607455060847</v>
+        <v>0.03468419984044324</v>
       </c>
       <c r="M16" t="n">
-        <v>11.76700473214655</v>
+        <v>11.60352268355544</v>
       </c>
       <c r="N16" t="n">
-        <v>222.1608823015276</v>
+        <v>218.3448795080143</v>
       </c>
       <c r="O16" t="n">
-        <v>14.9050623045168</v>
+        <v>14.77649753859196</v>
       </c>
       <c r="P16" t="n">
-        <v>341.3508539506192</v>
+        <v>340.9311033459327</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -34029,28 +34875,28 @@
         <v>0.1112</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03679131941020503</v>
+        <v>0.1121047464169326</v>
       </c>
       <c r="J17" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K17" t="n">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003122598549970546</v>
+        <v>0.002930679257425184</v>
       </c>
       <c r="M17" t="n">
-        <v>12.00971495154968</v>
+        <v>12.08813589229162</v>
       </c>
       <c r="N17" t="n">
-        <v>247.0059021777858</v>
+        <v>250.5125783967555</v>
       </c>
       <c r="O17" t="n">
-        <v>15.71642141766966</v>
+        <v>15.82758915301871</v>
       </c>
       <c r="P17" t="n">
-        <v>342.2070823157936</v>
+        <v>341.4698268666584</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -34106,28 +34952,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1042877472918828</v>
+        <v>0.1934135775266914</v>
       </c>
       <c r="J18" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K18" t="n">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001938052102882226</v>
+        <v>0.006703724695999336</v>
       </c>
       <c r="M18" t="n">
-        <v>13.77865869997384</v>
+        <v>13.93329855533625</v>
       </c>
       <c r="N18" t="n">
-        <v>311.6001325375577</v>
+        <v>318.3680831600086</v>
       </c>
       <c r="O18" t="n">
-        <v>17.65219908503067</v>
+        <v>17.8428720546892</v>
       </c>
       <c r="P18" t="n">
-        <v>335.8553976877287</v>
+        <v>334.9712832360703</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -34177,28 +35023,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.1165681380433114</v>
+        <v>0.1768871010878792</v>
       </c>
       <c r="J19" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K19" t="n">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002126284041407134</v>
+        <v>0.005055758626000051</v>
       </c>
       <c r="M19" t="n">
-        <v>14.90091664804803</v>
+        <v>14.88410317542713</v>
       </c>
       <c r="N19" t="n">
-        <v>339.1426948155712</v>
+        <v>339.5661521968402</v>
       </c>
       <c r="O19" t="n">
-        <v>18.41582729109858</v>
+        <v>18.42732080897384</v>
       </c>
       <c r="P19" t="n">
-        <v>330.6415314233018</v>
+        <v>330.0209144125323</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -34248,28 +35094,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.7023856355456047</v>
+        <v>0.7115900070808658</v>
       </c>
       <c r="J20" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K20" t="n">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0524986421954986</v>
+        <v>0.05732281119581006</v>
       </c>
       <c r="M20" t="n">
-        <v>15.27519849468022</v>
+        <v>15.10104537307058</v>
       </c>
       <c r="N20" t="n">
-        <v>480.1799885654243</v>
+        <v>465.5841040958129</v>
       </c>
       <c r="O20" t="n">
-        <v>21.91300957343432</v>
+        <v>21.57739799178328</v>
       </c>
       <c r="P20" t="n">
-        <v>319.3882513325522</v>
+        <v>319.2920261134495</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -34319,28 +35165,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0.00295203598506334</v>
+        <v>0.03353555885939501</v>
       </c>
       <c r="J21" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K21" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L21" t="n">
-        <v>1.684746517516267e-06</v>
+        <v>0.0002310404678587119</v>
       </c>
       <c r="M21" t="n">
-        <v>13.58893951867022</v>
+        <v>13.37942396388443</v>
       </c>
       <c r="N21" t="n">
-        <v>288.2430768449325</v>
+        <v>281.1006769658491</v>
       </c>
       <c r="O21" t="n">
-        <v>16.97772295818649</v>
+        <v>16.76605728744385</v>
       </c>
       <c r="P21" t="n">
-        <v>333.8298352193654</v>
+        <v>333.5245230657992</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -34396,28 +35242,28 @@
         <v>0.0843</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7107707944389737</v>
+        <v>0.7739497953359277</v>
       </c>
       <c r="J22" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K22" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01323734429977419</v>
+        <v>0.01701781344982733</v>
       </c>
       <c r="M22" t="n">
-        <v>26.58957489966928</v>
+        <v>25.69407913558986</v>
       </c>
       <c r="N22" t="n">
-        <v>2243.720973294392</v>
+        <v>2147.396807824324</v>
       </c>
       <c r="O22" t="n">
-        <v>47.36793190856439</v>
+        <v>46.34001303219847</v>
       </c>
       <c r="P22" t="n">
-        <v>319.287905490469</v>
+        <v>318.7101433715667</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -34454,7 +35300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W459"/>
+  <dimension ref="A1:W469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74157,6 +75003,1168 @@
         </is>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-41.09620963308133,172.10326842579966</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-41.095529016907506,172.10351543600737</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-41.094851623549054,172.10353643853918</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-41.09417417293608,172.10356095718285</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-41.09349803548229,172.10349311367168</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-41.09282261962761,172.10337429344892</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-41.09214654814621,172.10330085600702</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-41.09147005569215,172.10325638577993</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>-41.09080227661456,172.10334588211725</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>-41.09014500162093,172.10323137419488</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>-41.08947026922988,172.1031695304303</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>-41.088795026157996,172.1030879619238</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>-41.0881173358127,172.10302847447562</t>
+        </is>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>-41.08743771512267,172.10298670597683</t>
+        </is>
+      </c>
+      <c r="P460" t="inlineStr">
+        <is>
+          <t>-41.086763176742544,172.10289907625065</t>
+        </is>
+      </c>
+      <c r="Q460" t="inlineStr">
+        <is>
+          <t>-41.08607152069812,172.10296837991373</t>
+        </is>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>-41.08539835216139,172.1028679712075</t>
+        </is>
+      </c>
+      <c r="S460" t="inlineStr">
+        <is>
+          <t>-41.08471775284433,172.1028938624813</t>
+        </is>
+      </c>
+      <c r="T460" t="inlineStr">
+        <is>
+          <t>-41.084060953060195,172.1026898632651</t>
+        </is>
+      </c>
+      <c r="U460" t="inlineStr">
+        <is>
+          <t>-41.08339175052627,172.10255583916745</t>
+        </is>
+      </c>
+      <c r="V460" t="inlineStr">
+        <is>
+          <t>-41.08273054691894,172.10229968475525</t>
+        </is>
+      </c>
+      <c r="W460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-41.096213042676226,172.1030298041403</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-41.09552998978388,172.10344736412054</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-41.09485079831925,172.10359417546692</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-41.09417205856961,172.1037088787344</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-41.09349498077213,172.1037068218885</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-41.09282164699498,172.103442345534</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-41.092145489424155,172.1033749331024</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-41.09146893509013,172.10333479287127</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>-41.09080088963204,172.10337230926345</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>-41.090125974703426,172.10342058648854</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>-41.08943957250533,172.1034482210827</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>-41.08877589153724,172.1032616814071</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>-41.08810545700707,172.1031364264402</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>-41.087447468945996,172.10289758982222</t>
+        </is>
+      </c>
+      <c r="P461" t="inlineStr">
+        <is>
+          <t>-41.0867646705834,172.10288536801116</t>
+        </is>
+      </c>
+      <c r="Q461" t="inlineStr">
+        <is>
+          <t>-41.08608206930467,172.10287158223386</t>
+        </is>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>-41.08539659786445,172.10288406906412</t>
+        </is>
+      </c>
+      <c r="S461" t="inlineStr">
+        <is>
+          <t>-41.08472420592186,172.10282613787956</t>
+        </is>
+      </c>
+      <c r="T461" t="inlineStr">
+        <is>
+          <t>-41.08406173941542,172.1026798332467</t>
+        </is>
+      </c>
+      <c r="U461" t="inlineStr">
+        <is>
+          <t>-41.08339099781055,172.10256585465956</t>
+        </is>
+      </c>
+      <c r="V461" t="inlineStr">
+        <is>
+          <t>-41.082721338748826,172.10242220792955</t>
+        </is>
+      </c>
+      <c r="W461" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-41.09621168038375,172.1031251487959</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-41.09552976439254,172.1034631349392</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-41.094852394304546,172.10348251105734</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-41.09417525937554,172.1034849444623</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-41.09282586333609,172.1031473208876</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-41.092149758290965,172.10307622689933</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-41.09147292330546,172.10305572551871</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>-41.090808488351655,172.10322752412205</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>-41.09014856855633,172.10319590261537</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>-41.08948052727417,172.1030763978616</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>-41.08879795735683,172.1030613499228</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>-41.08814028195505,172.1028199422781</t>
+        </is>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>-41.08746432841039,172.10274355117392</t>
+        </is>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>-41.08679318165639,172.10262373298835</t>
+        </is>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>-41.08611074841161,172.10260840884357</t>
+        </is>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>-41.085444137919964,172.1024478222996</t>
+        </is>
+      </c>
+      <c r="S462" t="inlineStr">
+        <is>
+          <t>-41.084759272982424,172.1024581039578</t>
+        </is>
+      </c>
+      <c r="T462" t="inlineStr">
+        <is>
+          <t>-41.08407947120109,172.10245365999978</t>
+        </is>
+      </c>
+      <c r="U462" t="inlineStr">
+        <is>
+          <t>-41.08339938042433,172.10245431652726</t>
+        </is>
+      </c>
+      <c r="V462" t="inlineStr">
+        <is>
+          <t>-41.08273892445963,172.10218821233124</t>
+        </is>
+      </c>
+      <c r="W462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-41.09621265531227,172.1030569156819</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-41.095526804938544,172.10367019637152</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-41.09485018746041,172.1036369126974</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-41.09417250825446,172.10367741979513</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-41.09349621994666,172.1036201323033</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-41.09282118193192,172.10347488355677</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-41.09214476851313,172.10342537218895</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-41.09146889028763,172.1033379275677</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>-41.09080209583966,172.10334932655434</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>-41.09012814918638,172.10339896260632</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>-41.08944803996367,172.10337134702132</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>-41.08877120917524,172.10330419127837</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>-41.0881079627879,172.1031136545368</t>
+        </is>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>-41.08744776125872,172.10289491908645</t>
+        </is>
+      </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>-41.086772319536635,172.10281517710217</t>
+        </is>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>-41.08609117586274,172.1027880166656</t>
+        </is>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>-41.08540784863724,172.10278082885466</t>
+        </is>
+      </c>
+      <c r="S463" t="inlineStr">
+        <is>
+          <t>-41.0847365152651,172.10269695097733</t>
+        </is>
+      </c>
+      <c r="T463" t="inlineStr">
+        <is>
+          <t>-41.084070007610876,172.10257437111994</t>
+        </is>
+      </c>
+      <c r="U463" t="inlineStr">
+        <is>
+          <t>-41.08339691672249,172.10248709842386</t>
+        </is>
+      </c>
+      <c r="V463" t="inlineStr">
+        <is>
+          <t>-41.08272865950909,172.10232479862395</t>
+        </is>
+      </c>
+      <c r="W463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-41.09621458669724,172.1029217339119</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-41.095528041155035,172.10358370630362</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-41.0948509769797,172.10358167571974</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-41.09417345864555,172.103610930596</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-41.09349757456919,172.1035253610348</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-41.092821374764064,172.10346139218152</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-41.09214525900725,172.10339105456373</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>-41.091469173279236,172.10331812739653</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>-41.090803451648945,172.10332349327575</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>-41.09013912835109,172.10328978099474</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>-41.08945676690706,172.10329211664714</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>-41.088779070099385,172.1032328240344</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>-41.08812212323528,172.10298496716416</t>
+        </is>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>-41.08745292400695,172.1028477491765</t>
+        </is>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>-41.086776946554664,172.10277271689733</t>
+        </is>
+      </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>-41.08609941673169,172.10271239452075</t>
+        </is>
+      </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>-41.08541770261792,172.10269040526876</t>
+        </is>
+      </c>
+      <c r="S464" t="inlineStr">
+        <is>
+          <t>-41.08474272870167,172.10263174018945</t>
+        </is>
+      </c>
+      <c r="T464" t="inlineStr">
+        <is>
+          <t>-41.084073115852426,172.10253472468673</t>
+        </is>
+      </c>
+      <c r="U464" t="inlineStr">
+        <is>
+          <t>-41.08339912952215,172.10245765502538</t>
+        </is>
+      </c>
+      <c r="V464" t="inlineStr">
+        <is>
+          <t>-41.08273077203416,172.10229668936785</t>
+        </is>
+      </c>
+      <c r="W464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-41.09621216104916,172.10309150842974</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-41.094849819916526,172.10366262646258</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-41.094171894671184,172.1037203445497</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-41.09349659013597,172.1035942338885</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-41.0928185065065,172.10366205654282</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-41.09214303249984,172.10354682732972</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-41.091467887596544,172.10340808127947</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-41.090802893741916,172.10333412352153</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>-41.09014181576473,172.1032630560166</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>-41.08945816191523,172.10327945156692</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>-41.08877232747799,172.10329403853007</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>-41.088087203377825,172.10330230952388</t>
+        </is>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>-41.08742798702281,172.1030755864533</t>
+        </is>
+      </c>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t>-41.08677074865831,172.10282959236008</t>
+        </is>
+      </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t>-41.08611195469143,172.10259733930909</t>
+        </is>
+      </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>-41.08543366579687,172.10254392009256</t>
+        </is>
+      </c>
+      <c r="S465" t="inlineStr">
+        <is>
+          <t>-41.084748635264916,172.10256974970412</t>
+        </is>
+      </c>
+      <c r="T465" t="inlineStr">
+        <is>
+          <t>-41.08407232916604,172.10254475909406</t>
+        </is>
+      </c>
+      <c r="U465" t="inlineStr">
+        <is>
+          <t>-41.083403122092925,172.10240452982512</t>
+        </is>
+      </c>
+      <c r="V465" t="inlineStr">
+        <is>
+          <t>-41.0827352183619,172.1022375262321</t>
+        </is>
+      </c>
+      <c r="W465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-41.096211549763545,172.103134290404</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-41.09552946705416,172.10348393972146</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-41.09485299489783,172.10344048809634</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-41.094176035577675,172.10343063533986</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-41.09349951117527,172.10338986390911</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-41.0928227863606,172.10336262737707</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-41.092147277752005,172.10324980471134</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>-41.09147296810029,172.10305259082205</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-41.09081734290526,172.10305880604193</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>-41.090163839663035,172.10304403700576</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>-41.08949062952474,172.102984679043</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>-41.08880620513714,172.10298646900685</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>-41.08813435562689,172.10287380048604</t>
+        </is>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>-41.08746117318725,172.1027723794223</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>-41.08679554863503,172.10260201189055</t>
+        </is>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>-41.086123904885916,172.10248767673008</t>
+        </is>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>-41.08546241998761,172.1022800544455</t>
+        </is>
+      </c>
+      <c r="S466" t="inlineStr">
+        <is>
+          <t>-41.08477851687409,172.10225613108432</t>
+        </is>
+      </c>
+      <c r="T466" t="inlineStr">
+        <is>
+          <t>-41.084097722396436,172.10222085550524</t>
+        </is>
+      </c>
+      <c r="U466" t="inlineStr">
+        <is>
+          <t>-41.08341776481606,172.10220969070568</t>
+        </is>
+      </c>
+      <c r="V466" t="inlineStr">
+        <is>
+          <t>-41.0827484935722,172.10206088293532</t>
+        </is>
+      </c>
+      <c r="W466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-41.0962117953361,172.1031171036795</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-41.09552912928294,172.10350757327367</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-41.094851967244466,172.10351239140607</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-41.09417593582262,172.10343761507713</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-41.093499307389216,172.1034041225877</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-41.09282215288239,172.10340695051386</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-41.09214701697278,172.10326805189337</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-41.09147176995112,172.10313643403722</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>-41.09081486515122,172.10310601860277</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>-41.09015870360389,172.10309511347893</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>-41.089484874430156,172.10303692990826</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>-41.088798589395786,172.10305561170978</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>-41.088125406823494,172.10295512636253</t>
+        </is>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>-41.0874646121222,172.10274095898794</t>
+        </is>
+      </c>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>-41.0867927322296,172.10262785724723</t>
+        </is>
+      </c>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>-41.086140278166575,172.10233742347816</t>
+        </is>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>-41.08546614966127,172.10224582830585</t>
+        </is>
+      </c>
+      <c r="S467" t="inlineStr">
+        <is>
+          <t>-41.08477416097553,172.1023018484389</t>
+        </is>
+      </c>
+      <c r="T467" t="inlineStr">
+        <is>
+          <t>-41.08409747140831,172.10222405704477</t>
+        </is>
+      </c>
+      <c r="U467" t="inlineStr">
+        <is>
+          <t>-41.08342229224163,172.10214944693334</t>
+        </is>
+      </c>
+      <c r="V467" t="inlineStr">
+        <is>
+          <t>-41.082759939693766,172.10190857500024</t>
+        </is>
+      </c>
+      <c r="W467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-41.09621276059138,172.1030495472574</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-41.09552748005676,172.10362296328233</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-41.094849207330626,172.10370548273744</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-41.09417373832835,172.10359136352372</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-41.09349873628732,172.10344408127773</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-41.0928194355948,172.10359705986144</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-41.092142646971794,172.1035737984652</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-41.091467734466896,172.1034187947987</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>-41.09079908187042,172.1034067536323</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>-41.09014088215952,172.1032723402585</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>-41.08946970474328,172.10317465537162</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>-41.088791239253695,172.10312234268525</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>-41.088102973446006,172.10315899637385</t>
+        </is>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>-41.08742815467512,172.10307405470866</t>
+        </is>
+      </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>-41.08677127513816,172.1028247610884</t>
+        </is>
+      </c>
+      <c r="Q468" t="inlineStr">
+        <is>
+          <t>-41.08610995605818,172.10261567994021</t>
+        </is>
+      </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>-41.08543772150698,172.10250670282213</t>
+        </is>
+      </c>
+      <c r="S468" t="inlineStr">
+        <is>
+          <t>-41.08474959272127,172.10255970098663</t>
+        </is>
+      </c>
+      <c r="T468" t="inlineStr">
+        <is>
+          <t>-41.08407145755225,172.102555876761</t>
+        </is>
+      </c>
+      <c r="U468" t="inlineStr">
+        <is>
+          <t>-41.08340211525193,172.10241792689624</t>
+        </is>
+      </c>
+      <c r="V468" t="inlineStr">
+        <is>
+          <t>-41.08273713627648,172.10221200620444</t>
+        </is>
+      </c>
+      <c r="W468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-41.09620839451426,172.1033550987664</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-41.09552723843603,172.10363986787576</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-41.09484979779565,172.10366417405027</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-41.0941738359434,172.10358453415807</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-41.09349775681812,172.1035126102317</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-41.09282197083224,172.1034196879595</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-41.09214593931394,172.1033434554388</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>-41.09146939672111,172.103302493594</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>-41.090804470839686,172.10330407377603</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>-41.090144256584985,172.10323878323044</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>-41.08947713388776,172.1031072064247</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>-41.08880294954066,172.1030160263534</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>-41.088126684698366,172.1029435131902</t>
+        </is>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>-41.087448853132145,172.10288494310277</t>
+        </is>
+      </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>-41.0867750375371,172.1027902351694</t>
+        </is>
+      </c>
+      <c r="Q469" t="inlineStr">
+        <is>
+          <t>-41.08611305597787,172.10258723324654</t>
+        </is>
+      </c>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>-41.08544409742237,172.10244819392855</t>
+        </is>
+      </c>
+      <c r="S469" t="inlineStr">
+        <is>
+          <t>-41.08477142414374,172.10233057276977</t>
+        </is>
+      </c>
+      <c r="T469" t="inlineStr">
+        <is>
+          <t>-41.08409250079355,172.10228746068037</t>
+        </is>
+      </c>
+      <c r="U469" t="inlineStr">
+        <is>
+          <t>-41.08341728730598,172.10221604462475</t>
+        </is>
+      </c>
+      <c r="V469" t="inlineStr">
+        <is>
+          <t>-41.08274746341136,172.10207459064705</t>
+        </is>
+      </c>
+      <c r="W469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -33577,7 +33577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33668,35 +33668,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33755,27 +33760,28 @@
       <c r="P2" t="n">
         <v>431.0026297269548</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.10798530432947 -41.09614213344303, 172.0972499551775 -41.09629547812364)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.1079853043295</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.09614213344303</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.0972499551775</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.09629547812364</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.1026176297535</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.09621880578334</v>
       </c>
     </row>
@@ -33832,27 +33838,28 @@
       <c r="P3" t="n">
         <v>380.4887124476498</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.10796213511486 -41.09546537792887, 172.0972268592973 -41.095618722657555)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.1079621351149</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.09546537792887</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.0972268592973</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.09561872265756</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.1025944972061</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.09554205029321</v>
       </c>
     </row>
@@ -33903,27 +33910,28 @@
       <c r="P4" t="n">
         <v>368.3170280444655</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.1079389659008 -41.0947886154425, 172.09720376341596 -41.0949419602192)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.1079389659008</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.0947886154425</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.097203763416</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.0949419602192</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.1025713646584</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.09486528783086</v>
       </c>
     </row>
@@ -33974,27 +33982,28 @@
       <c r="P5" t="n">
         <v>364.047709929749</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.10791579668737 -41.09411184598409, 172.0971806675334 -41.09426519080849)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.1079157966874</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.09411184598409</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.0971806675334</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.09426519080849</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.1025482321104</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.09418851839629</v>
       </c>
     </row>
@@ -34051,27 +34060,28 @@
       <c r="P6" t="n">
         <v>364.2932320696026</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.1078926274745 -41.093435069553415, 172.09715757164972 -41.09358841442575)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.1078926274745</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.09343506955341</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.0971575716497</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.09358841442575</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.1025250995621</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.09351174198959</v>
       </c>
     </row>
@@ -34128,27 +34138,28 @@
       <c r="P7" t="n">
         <v>367.9532617274402</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.1078694582623 -41.09275828615057, 172.0971344757648 -41.09291163107089)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.1078694582623</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.09275828615057</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.0971344757648</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.09291163107089</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.1025019670136</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.09283495861073</v>
       </c>
     </row>
@@ -34205,27 +34216,28 @@
       <c r="P8" t="n">
         <v>371.8443028920762</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.1078462890506 -41.092081495775616, 172.09711137987875 -41.09223484074398)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.1078462890506</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-41.09208149577562</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.0971113798788</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-41.09223484074398</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.1024788344647</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-41.0921581682598</v>
       </c>
     </row>
@@ -34282,27 +34294,28 @@
       <c r="P9" t="n">
         <v>371.763272358294</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.1078231198395 -41.09140469842853, 172.09708828399158 -41.091558043445)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.1078231198395</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-41.09140469842853</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>172.0970882839916</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-41.091558043445</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>172.1024557019155</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-41.09148137093676</v>
       </c>
     </row>
@@ -34359,27 +34372,28 @@
       <c r="P10" t="n">
         <v>373.9346755062397</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.10779043890082 -41.09056892570229, 172.097079554865 -41.09113098088319)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.1077904389008</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-41.09056892570229</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>172.097079554865</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-41.09113098088319</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>172.1024349968829</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-41.09084995329275</v>
       </c>
     </row>
@@ -34436,27 +34450,28 @@
       <c r="P11" t="n">
         <v>367.0437365395237</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.1076503045739 -41.089700556156586, 172.09700751111205 -41.09077068469172)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.1076503045739</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-41.08970055615659</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>172.0970075111121</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-41.09077068469172</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>172.102328907843</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-41.09023562042415</v>
       </c>
     </row>
@@ -34513,27 +34528,28 @@
       <c r="P12" t="n">
         <v>363.5343057190218</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.10750738038513 -41.088992391583695, 172.09688310570476 -41.09016250810269)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.1075073803851</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-41.08899239158369</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>172.0968831057048</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-41.09016250810269</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>172.1021952430449</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-41.08957744984319</v>
       </c>
     </row>
@@ -34590,27 +34606,28 @@
       <c r="P13" t="n">
         <v>357.28242663563</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.10737168846333 -41.08832310816901, 172.0967474842811 -41.08949322133725)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.1073716884633</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-41.08832310816901</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>172.0967474842811</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-41.08949322133725</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>172.1020595863722</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-41.08890816475313</v>
       </c>
     </row>
@@ -34667,27 +34684,28 @@
       <c r="P14" t="n">
         <v>351.6094423398562</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.10723608268168 -41.087654261315826, 172.09661172919914 -41.08882323108367)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.1072360826817</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-41.08765426131583</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>172.0966117291991</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-41.08882323108367</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>172.1019239059404</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-41.08823874619975</v>
       </c>
     </row>
@@ -34744,27 +34762,28 @@
       <c r="P15" t="n">
         <v>345.4272718734983</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (172.10710110350092 -41.08698731316661, 172.096475645526 -41.08815016562141)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>172.1071011035009</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-41.08698731316661</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>172.096475645526</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-41.08815016562141</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>172.1017883745135</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-41.08756873939401</v>
       </c>
     </row>
@@ -34821,27 +34840,28 @@
       <c r="P16" t="n">
         <v>340.9311033459327</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (172.10696713708344 -41.08631978891155, 172.09634079832549 -41.08747766371465)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>172.1069671370834</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-41.08631978891155</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>172.0963407983255</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-41.08747766371465</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>172.1016539677045</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-41.0868987263131</v>
       </c>
     </row>
@@ -34898,27 +34918,28 @@
       <c r="P17" t="n">
         <v>341.4698268666584</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (172.1068327978098 -41.085650323250206, 172.09620652960496 -41.086808194743895)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>172.1068327978098</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-41.08565032325021</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>172.096206529605</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-41.0868081947439</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>172.1015196637074</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-41.08622925899705</v>
       </c>
     </row>
@@ -34975,27 +34996,28 @@
       <c r="P18" t="n">
         <v>334.9712832360703</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (172.10669845853673 -41.084980850768375, 172.0960722608834 -41.086138718952526)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>172.1066984585367</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-41.08498085076837</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>172.0960722608834</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-41.08613871895253</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>172.1013853597101</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-41.08555978486045</v>
       </c>
     </row>
@@ -35046,27 +35068,28 @@
       <c r="P19" t="n">
         <v>330.0209144125323</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (172.10657415166057 -41.08436701793665, 172.09592244008306 -41.08538180264105)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>172.1065741516606</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-41.08436701793665</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>172.0959224400831</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-41.08538180264105</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>172.1012482958718</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-41.08487441028885</v>
       </c>
     </row>
@@ -35117,27 +35140,28 @@
       <c r="P20" t="n">
         <v>319.2920261134495</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (172.10648213272844 -41.08376357444102, 172.09580347374765 -41.08460063699337)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>172.1064821327284</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-41.08376357444102</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>172.0958034737477</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-41.08460063699337</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>172.101142803238</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-41.0841821057172</v>
       </c>
     </row>
@@ -35188,27 +35212,28 @@
       <c r="P21" t="n">
         <v>333.5245230657992</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (172.10638889243276 -41.08310361192714, 172.09570569388836 -41.08390636589218)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>172.1063888924328</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-41.08310361192714</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>172.0957056938884</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-41.08390636589218</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>172.1010472931605</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-41.08350498890967</v>
       </c>
     </row>
@@ -35265,27 +35290,28 @@
       <c r="P22" t="n">
         <v>318.7101433715667</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (172.10629383919255 -41.08243029963445, 172.0956107126831 -41.08323305147122)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>172.1062938391925</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-41.08243029963445</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>172.0956107126831</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-41.08323305147122</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>172.1009522759378</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-41.08283167555284</v>
       </c>
     </row>

--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W469"/>
+  <dimension ref="A1:W474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28645,6 +28645,371 @@
         </is>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>384.7768421052632</v>
+      </c>
+      <c r="C470" t="n">
+        <v>364.0161904761905</v>
+      </c>
+      <c r="D470" t="n">
+        <v>361.56</v>
+      </c>
+      <c r="E470" t="n">
+        <v>354.0568421052632</v>
+      </c>
+      <c r="F470" t="n">
+        <v>362.4188888888889</v>
+      </c>
+      <c r="G470" t="n">
+        <v>365.7966666666666</v>
+      </c>
+      <c r="H470" t="n">
+        <v>361.8642857142857</v>
+      </c>
+      <c r="I470" t="n">
+        <v>361.4166666666666</v>
+      </c>
+      <c r="J470" t="n">
+        <v>361.95</v>
+      </c>
+      <c r="K470" t="n">
+        <v>357.8488888888889</v>
+      </c>
+      <c r="L470" t="n">
+        <v>358.15</v>
+      </c>
+      <c r="M470" t="n">
+        <v>356.9888235294118</v>
+      </c>
+      <c r="N470" t="n">
+        <v>355.6042857142857</v>
+      </c>
+      <c r="O470" t="n">
+        <v>347.2566666666667</v>
+      </c>
+      <c r="P470" t="n">
+        <v>335.6866666666667</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>341.9388235294118</v>
+      </c>
+      <c r="R470" t="n">
+        <v>354.53</v>
+      </c>
+      <c r="S470" t="n">
+        <v>345.6245283018868</v>
+      </c>
+      <c r="T470" t="n">
+        <v>340.2818518518519</v>
+      </c>
+      <c r="U470" t="n">
+        <v>337.8518181818182</v>
+      </c>
+      <c r="V470" t="n">
+        <v>338.4342857142857</v>
+      </c>
+      <c r="W470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:13:06+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>358.6852631578947</v>
+      </c>
+      <c r="C471" t="n">
+        <v>347.2152380952381</v>
+      </c>
+      <c r="D471" t="n">
+        <v>333.51</v>
+      </c>
+      <c r="E471" t="n">
+        <v>336.1952631578947</v>
+      </c>
+      <c r="F471" t="n">
+        <v>349.3911111111111</v>
+      </c>
+      <c r="G471" t="n">
+        <v>356.3433333333333</v>
+      </c>
+      <c r="H471" t="n">
+        <v>357.8928571428572</v>
+      </c>
+      <c r="I471" t="n">
+        <v>355.5133333333333</v>
+      </c>
+      <c r="J471" t="n">
+        <v>354.275</v>
+      </c>
+      <c r="K471" t="n">
+        <v>349.5611111111111</v>
+      </c>
+      <c r="L471" t="n">
+        <v>353.735</v>
+      </c>
+      <c r="M471" t="n">
+        <v>353.8576470588235</v>
+      </c>
+      <c r="N471" t="n">
+        <v>350.4628571428572</v>
+      </c>
+      <c r="O471" t="n">
+        <v>349.9833333333333</v>
+      </c>
+      <c r="P471" t="n">
+        <v>341.0733333333333</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>336.1376470588235</v>
+      </c>
+      <c r="R471" t="n">
+        <v>336.4238461538461</v>
+      </c>
+      <c r="S471" t="n">
+        <v>318.3609433962264</v>
+      </c>
+      <c r="T471" t="inlineStr"/>
+      <c r="U471" t="inlineStr"/>
+      <c r="V471" t="inlineStr"/>
+      <c r="W471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>377.8731578947368</v>
+      </c>
+      <c r="C472" t="n">
+        <v>356.7923809523809</v>
+      </c>
+      <c r="D472" t="n">
+        <v>349.56</v>
+      </c>
+      <c r="E472" t="n">
+        <v>346.3231578947368</v>
+      </c>
+      <c r="F472" t="n">
+        <v>346.4144444444445</v>
+      </c>
+      <c r="G472" t="n">
+        <v>358.0933333333333</v>
+      </c>
+      <c r="H472" t="n">
+        <v>368.1385714285714</v>
+      </c>
+      <c r="I472" t="n">
+        <v>368.0533333333333</v>
+      </c>
+      <c r="J472" t="n">
+        <v>369.165</v>
+      </c>
+      <c r="K472" t="n">
+        <v>364.9444444444445</v>
+      </c>
+      <c r="L472" t="n">
+        <v>365.845</v>
+      </c>
+      <c r="M472" t="n">
+        <v>372.9970588235294</v>
+      </c>
+      <c r="N472" t="n">
+        <v>373.4385714285714</v>
+      </c>
+      <c r="O472" t="n">
+        <v>368.0633333333333</v>
+      </c>
+      <c r="P472" t="n">
+        <v>359.4933333333333</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>344.3870588235294</v>
+      </c>
+      <c r="R472" t="n">
+        <v>345.4592307692308</v>
+      </c>
+      <c r="S472" t="n">
+        <v>342.4192452830189</v>
+      </c>
+      <c r="T472" t="n">
+        <v>343.0225925925926</v>
+      </c>
+      <c r="U472" t="n">
+        <v>342.2690909090909</v>
+      </c>
+      <c r="V472" t="n">
+        <v>344.5485714285714</v>
+      </c>
+      <c r="W472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>397.5357894736842</v>
+      </c>
+      <c r="C473" t="n">
+        <v>376.6333333333333</v>
+      </c>
+      <c r="D473" t="n">
+        <v>368.65</v>
+      </c>
+      <c r="E473" t="n">
+        <v>368.2657894736842</v>
+      </c>
+      <c r="F473" t="n">
+        <v>367.4188888888889</v>
+      </c>
+      <c r="G473" t="n">
+        <v>363.5966666666666</v>
+      </c>
+      <c r="H473" t="n">
+        <v>357.27</v>
+      </c>
+      <c r="I473" t="n">
+        <v>356.4566666666666</v>
+      </c>
+      <c r="J473" t="n">
+        <v>350.88</v>
+      </c>
+      <c r="K473" t="n">
+        <v>357.0788888888889</v>
+      </c>
+      <c r="L473" t="n">
+        <v>379.01</v>
+      </c>
+      <c r="M473" t="n">
+        <v>396.1194117647058</v>
+      </c>
+      <c r="N473" t="n">
+        <v>391.86</v>
+      </c>
+      <c r="O473" t="n">
+        <v>371.0366666666667</v>
+      </c>
+      <c r="P473" t="n">
+        <v>349.8566666666667</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>343.3494117647058</v>
+      </c>
+      <c r="R473" t="n">
+        <v>359.1069230769231</v>
+      </c>
+      <c r="S473" t="n">
+        <v>355.2524528301886</v>
+      </c>
+      <c r="T473" t="n">
+        <v>363.0285185185185</v>
+      </c>
+      <c r="U473" t="n">
+        <v>351.0745454545454</v>
+      </c>
+      <c r="V473" t="n">
+        <v>352.85</v>
+      </c>
+      <c r="W473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>414.0010526315789</v>
+      </c>
+      <c r="C474" t="n">
+        <v>369.4980952380952</v>
+      </c>
+      <c r="D474" t="n">
+        <v>365.59</v>
+      </c>
+      <c r="E474" t="n">
+        <v>364.481052631579</v>
+      </c>
+      <c r="F474" t="n">
+        <v>363.4711111111111</v>
+      </c>
+      <c r="G474" t="n">
+        <v>367.3733333333333</v>
+      </c>
+      <c r="H474" t="n">
+        <v>376.1971428571428</v>
+      </c>
+      <c r="I474" t="n">
+        <v>382.4333333333333</v>
+      </c>
+      <c r="J474" t="n">
+        <v>381.86</v>
+      </c>
+      <c r="K474" t="n">
+        <v>377.2011111111111</v>
+      </c>
+      <c r="L474" t="n">
+        <v>376.18</v>
+      </c>
+      <c r="M474" t="n">
+        <v>364.0323529411765</v>
+      </c>
+      <c r="N474" t="n">
+        <v>370.0571428571428</v>
+      </c>
+      <c r="O474" t="n">
+        <v>363.1033333333334</v>
+      </c>
+      <c r="P474" t="n">
+        <v>366.1533333333334</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>352.0123529411765</v>
+      </c>
+      <c r="R474" t="n">
+        <v>347.5538461538461</v>
+      </c>
+      <c r="S474" t="n">
+        <v>333.391320754717</v>
+      </c>
+      <c r="T474" t="n">
+        <v>333.0914814814815</v>
+      </c>
+      <c r="U474" t="inlineStr"/>
+      <c r="V474" t="inlineStr"/>
+      <c r="W474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28656,7 +29021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:B495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33564,6 +33929,56 @@
       </c>
       <c r="B490" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
@@ -33737,28 +34152,28 @@
         <v>0.1148</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5812777301408993</v>
+        <v>-0.6545812186558784</v>
       </c>
       <c r="J2" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K2" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02382794173233749</v>
+        <v>0.03018916235938507</v>
       </c>
       <c r="M2" t="n">
-        <v>24.09178667325077</v>
+        <v>24.16505875192986</v>
       </c>
       <c r="N2" t="n">
-        <v>844.2131643473095</v>
+        <v>849.2387795087667</v>
       </c>
       <c r="O2" t="n">
-        <v>29.05534657076576</v>
+        <v>29.14170172637087</v>
       </c>
       <c r="P2" t="n">
-        <v>431.0026297269548</v>
+        <v>431.6827863840044</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33815,28 +34230,28 @@
         <v>0.1347</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04880464509532881</v>
+        <v>-0.08320281175695858</v>
       </c>
       <c r="J3" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K3" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006104465563592232</v>
+        <v>0.001777387371876382</v>
       </c>
       <c r="M3" t="n">
-        <v>12.27609314641609</v>
+        <v>12.30792779963676</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0148434264768</v>
+        <v>242.5672211867254</v>
       </c>
       <c r="O3" t="n">
-        <v>15.52465276347516</v>
+        <v>15.57456969507426</v>
       </c>
       <c r="P3" t="n">
-        <v>380.4887124476498</v>
+        <v>380.8063504789046</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33887,28 +34302,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.2035351920256967</v>
+        <v>0.166444725764433</v>
       </c>
       <c r="J4" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K4" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01066715282078756</v>
+        <v>0.007132805627031114</v>
       </c>
       <c r="M4" t="n">
-        <v>12.21611366563027</v>
+        <v>12.28882586539663</v>
       </c>
       <c r="N4" t="n">
-        <v>238.4505717784978</v>
+        <v>241.4393873496883</v>
       </c>
       <c r="O4" t="n">
-        <v>15.44184483079978</v>
+        <v>15.53831996548173</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3170280444655</v>
+        <v>368.6610600622728</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33959,28 +34374,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2553637400491059</v>
+        <v>0.2200673524470355</v>
       </c>
       <c r="J5" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K5" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0164483577960518</v>
+        <v>0.01227150107076058</v>
       </c>
       <c r="M5" t="n">
-        <v>12.57982918549642</v>
+        <v>12.63042659935224</v>
       </c>
       <c r="N5" t="n">
-        <v>240.5755757708731</v>
+        <v>242.7239287614357</v>
       </c>
       <c r="O5" t="n">
-        <v>15.510498888523</v>
+        <v>15.57959976255602</v>
       </c>
       <c r="P5" t="n">
-        <v>364.047709929749</v>
+        <v>364.3751166480133</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34037,28 +34452,28 @@
         <v>0.126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2073826357905895</v>
+        <v>0.1809002599692308</v>
       </c>
       <c r="J6" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K6" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01241746808809296</v>
+        <v>0.009569610133504547</v>
       </c>
       <c r="M6" t="n">
-        <v>11.87771257153469</v>
+        <v>11.86871031534474</v>
       </c>
       <c r="N6" t="n">
-        <v>207.7570386409029</v>
+        <v>207.6915934694764</v>
       </c>
       <c r="O6" t="n">
-        <v>14.41377947107916</v>
+        <v>14.41150906288014</v>
       </c>
       <c r="P6" t="n">
-        <v>364.2932320696026</v>
+        <v>364.5429389473719</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34115,28 +34530,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1312823956826975</v>
+        <v>0.1105622149186062</v>
       </c>
       <c r="J7" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K7" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00497279901639025</v>
+        <v>0.003591774732236375</v>
       </c>
       <c r="M7" t="n">
-        <v>11.34031751315746</v>
+        <v>11.29732020487507</v>
       </c>
       <c r="N7" t="n">
-        <v>207.6631317985597</v>
+        <v>206.1380716296623</v>
       </c>
       <c r="O7" t="n">
-        <v>14.410521565806</v>
+        <v>14.35750924184492</v>
       </c>
       <c r="P7" t="n">
-        <v>367.9532617274402</v>
+        <v>368.1505251928871</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34193,28 +34608,28 @@
         <v>0.0893</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08231474464759031</v>
+        <v>0.05985369854462203</v>
       </c>
       <c r="J8" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K8" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001915255582345954</v>
+        <v>0.001028239338825232</v>
       </c>
       <c r="M8" t="n">
-        <v>11.41738015822778</v>
+        <v>11.39507513681226</v>
       </c>
       <c r="N8" t="n">
-        <v>213.0503144905905</v>
+        <v>212.025513502082</v>
       </c>
       <c r="O8" t="n">
-        <v>14.59624316358803</v>
+        <v>14.56109588946114</v>
       </c>
       <c r="P8" t="n">
-        <v>371.8443028920762</v>
+        <v>372.0577236035484</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34271,28 +34686,28 @@
         <v>0.0872</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1575121291177238</v>
+        <v>0.1317969231507075</v>
       </c>
       <c r="J9" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K9" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007214747065873661</v>
+        <v>0.005106211956372841</v>
       </c>
       <c r="M9" t="n">
-        <v>10.96373548833065</v>
+        <v>10.99709131215346</v>
       </c>
       <c r="N9" t="n">
-        <v>202.3706226949849</v>
+        <v>202.5439524402492</v>
       </c>
       <c r="O9" t="n">
-        <v>14.22570288931218</v>
+        <v>14.23179371830021</v>
       </c>
       <c r="P9" t="n">
-        <v>371.763272358294</v>
+        <v>372.0112173739616</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34349,28 +34764,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1016516604219988</v>
+        <v>0.07042148779190166</v>
       </c>
       <c r="J10" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K10" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003430280563269439</v>
+        <v>0.001650861463967424</v>
       </c>
       <c r="M10" t="n">
-        <v>10.04900819643686</v>
+        <v>10.11994226865386</v>
       </c>
       <c r="N10" t="n">
-        <v>176.1139581545148</v>
+        <v>177.6783974314405</v>
       </c>
       <c r="O10" t="n">
-        <v>13.27079342596044</v>
+        <v>13.32960604937147</v>
       </c>
       <c r="P10" t="n">
-        <v>373.9346755062397</v>
+        <v>374.238485103826</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34427,28 +34842,28 @@
         <v>0.102</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2312692775794102</v>
+        <v>0.2027606841642935</v>
       </c>
       <c r="J11" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K11" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01647409242505038</v>
+        <v>0.01280979828731543</v>
       </c>
       <c r="M11" t="n">
-        <v>10.67452280540691</v>
+        <v>10.71523341958729</v>
       </c>
       <c r="N11" t="n">
-        <v>186.7671523441711</v>
+        <v>187.2075911249996</v>
       </c>
       <c r="O11" t="n">
-        <v>13.66627792576205</v>
+        <v>13.68238250908809</v>
       </c>
       <c r="P11" t="n">
-        <v>367.0437365395237</v>
+        <v>367.3209990457526</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34505,28 +34920,28 @@
         <v>0.0958</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1884245377407223</v>
+        <v>0.1839142228262129</v>
       </c>
       <c r="J12" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K12" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01181466962300182</v>
+        <v>0.01146370952211206</v>
       </c>
       <c r="M12" t="n">
-        <v>10.22505204587683</v>
+        <v>10.2101339154896</v>
       </c>
       <c r="N12" t="n">
-        <v>174.855273763739</v>
+        <v>173.7114600092223</v>
       </c>
       <c r="O12" t="n">
-        <v>13.22328528633255</v>
+        <v>13.17996434021057</v>
       </c>
       <c r="P12" t="n">
-        <v>363.5343057190218</v>
+        <v>363.5773341089221</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34583,28 +34998,28 @@
         <v>0.0956</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2463805742814713</v>
+        <v>0.2597848215844786</v>
       </c>
       <c r="J13" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K13" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02140401220417065</v>
+        <v>0.02382105200241169</v>
       </c>
       <c r="M13" t="n">
-        <v>10.37598838721123</v>
+        <v>10.39222197840703</v>
       </c>
       <c r="N13" t="n">
-        <v>167.5873961024404</v>
+        <v>168.9408246075142</v>
       </c>
       <c r="O13" t="n">
-        <v>12.9455550712374</v>
+        <v>12.99772382409759</v>
       </c>
       <c r="P13" t="n">
-        <v>357.28242663563</v>
+        <v>357.1561893447237</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34661,28 +35076,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3076210307913544</v>
+        <v>0.3313484735223728</v>
       </c>
       <c r="J14" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K14" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02689238210121137</v>
+        <v>0.03126171217444018</v>
       </c>
       <c r="M14" t="n">
-        <v>11.91722006433448</v>
+        <v>11.94219270664431</v>
       </c>
       <c r="N14" t="n">
-        <v>212.1441889861965</v>
+        <v>213.3618121483472</v>
       </c>
       <c r="O14" t="n">
-        <v>14.56517040704284</v>
+        <v>14.60690973985761</v>
       </c>
       <c r="P14" t="n">
-        <v>351.6094423398562</v>
+        <v>351.39076926883</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34739,28 +35154,28 @@
         <v>0.0883</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4053895122667863</v>
+        <v>0.4173804600861807</v>
       </c>
       <c r="J15" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K15" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04254284069837144</v>
+        <v>0.0459101882138272</v>
       </c>
       <c r="M15" t="n">
-        <v>11.83037588762032</v>
+        <v>11.78873347069326</v>
       </c>
       <c r="N15" t="n">
-        <v>221.0398701683813</v>
+        <v>219.0278229637365</v>
       </c>
       <c r="O15" t="n">
-        <v>14.86740966572124</v>
+        <v>14.79958860792206</v>
       </c>
       <c r="P15" t="n">
-        <v>345.4272718734983</v>
+        <v>345.3123086378552</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34817,28 +35232,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3640364700823353</v>
+        <v>0.3647421786072305</v>
       </c>
       <c r="J16" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K16" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03468419984044324</v>
+        <v>0.03548287482701473</v>
       </c>
       <c r="M16" t="n">
-        <v>11.60352268355544</v>
+        <v>11.57044051862968</v>
       </c>
       <c r="N16" t="n">
-        <v>218.3448795080143</v>
+        <v>216.6421772539311</v>
       </c>
       <c r="O16" t="n">
-        <v>14.77649753859196</v>
+        <v>14.71876955638382</v>
       </c>
       <c r="P16" t="n">
-        <v>340.9311033459327</v>
+        <v>340.9236840253905</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34895,28 +35310,28 @@
         <v>0.1112</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1121047464169326</v>
+        <v>0.1096485621550744</v>
       </c>
       <c r="J17" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K17" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002930679257425184</v>
+        <v>0.002888367085528531</v>
       </c>
       <c r="M17" t="n">
-        <v>12.08813589229162</v>
+        <v>11.92487796481974</v>
       </c>
       <c r="N17" t="n">
-        <v>250.5125783967555</v>
+        <v>246.0327720788914</v>
       </c>
       <c r="O17" t="n">
-        <v>15.82758915301871</v>
+        <v>15.68543184228255</v>
       </c>
       <c r="P17" t="n">
-        <v>341.4698268666584</v>
+        <v>341.4937642430626</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34973,28 +35388,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1934135775266914</v>
+        <v>0.2244269794310636</v>
       </c>
       <c r="J18" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K18" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006703724695999336</v>
+        <v>0.009240829125600536</v>
       </c>
       <c r="M18" t="n">
-        <v>13.93329855533625</v>
+        <v>13.8275239974906</v>
       </c>
       <c r="N18" t="n">
-        <v>318.3680831600086</v>
+        <v>314.3053335389961</v>
       </c>
       <c r="O18" t="n">
-        <v>17.8428720546892</v>
+        <v>17.72865853749223</v>
       </c>
       <c r="P18" t="n">
-        <v>334.9712832360703</v>
+        <v>334.6620982375634</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35045,28 +35460,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.1768871010878792</v>
+        <v>0.1952661022743515</v>
       </c>
       <c r="J19" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K19" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005055758626000051</v>
+        <v>0.006319837311610232</v>
       </c>
       <c r="M19" t="n">
-        <v>14.88410317542713</v>
+        <v>14.78942432465859</v>
       </c>
       <c r="N19" t="n">
-        <v>339.5661521968402</v>
+        <v>335.4289140149816</v>
       </c>
       <c r="O19" t="n">
-        <v>18.42732080897384</v>
+        <v>18.31471850766431</v>
       </c>
       <c r="P19" t="n">
-        <v>330.0209144125323</v>
+        <v>329.8314697388275</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35117,28 +35532,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.7115900070808658</v>
+        <v>0.736006423831106</v>
       </c>
       <c r="J20" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K20" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05732281119581006</v>
+        <v>0.06249817535365232</v>
       </c>
       <c r="M20" t="n">
-        <v>15.10104537307058</v>
+        <v>14.98088581069319</v>
       </c>
       <c r="N20" t="n">
-        <v>465.5841040958129</v>
+        <v>459.7035980387022</v>
       </c>
       <c r="O20" t="n">
-        <v>21.57739799178328</v>
+        <v>21.44069956971326</v>
       </c>
       <c r="P20" t="n">
-        <v>319.2920261134495</v>
+        <v>319.0427554687676</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35189,28 +35604,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0.03353555885939501</v>
+        <v>0.05702255727047541</v>
       </c>
       <c r="J21" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K21" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002310404678587119</v>
+        <v>0.0006798463566356494</v>
       </c>
       <c r="M21" t="n">
-        <v>13.37942396388443</v>
+        <v>13.31692094618833</v>
       </c>
       <c r="N21" t="n">
-        <v>281.1006769658491</v>
+        <v>278.5194121904586</v>
       </c>
       <c r="O21" t="n">
-        <v>16.76605728744385</v>
+        <v>16.68890086825548</v>
       </c>
       <c r="P21" t="n">
-        <v>333.5245230657992</v>
+        <v>333.290164140291</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35267,28 +35682,28 @@
         <v>0.0843</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7739497953359277</v>
+        <v>0.7895189342187715</v>
       </c>
       <c r="J22" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K22" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01701781344982733</v>
+        <v>0.01811686903235454</v>
       </c>
       <c r="M22" t="n">
-        <v>25.69407913558986</v>
+        <v>25.39836991978432</v>
       </c>
       <c r="N22" t="n">
-        <v>2147.396807824324</v>
+        <v>2118.531655742127</v>
       </c>
       <c r="O22" t="n">
-        <v>46.34001303219847</v>
+        <v>46.0275097712458</v>
       </c>
       <c r="P22" t="n">
-        <v>318.7101433715667</v>
+        <v>318.5669342310405</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35326,7 +35741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W469"/>
+  <dimension ref="A1:W474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76191,6 +76606,571 @@
         </is>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-41.09620768669399,172.1034046288603</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-41.09552739870654,172.1036286548356</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-41.09485021808881,172.10363476988366</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-41.09417217168572,172.10370096544221</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-41.09349681795643,172.10357829538492</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-41.09282060909772,172.10351496087705</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-41.09214314942103,172.10353864755913</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>-41.09146627571511,172.10352085098754</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>-41.09079463722644,172.10349143926288</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>-41.09012532987414,172.10342699890694</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>-41.089457234072746,172.10328787531802</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>-41.088786440915875,172.10316590596682</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>-41.08811534490677,172.10304656745637</t>
+        </is>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>-41.08743521754815,172.10300952504986</t>
+        </is>
+      </c>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t>-41.086750917768775,172.1030115702052</t>
+        </is>
+      </c>
+      <c r="Q470" t="inlineStr">
+        <is>
+          <t>-41.08608947782965,172.1028035985682</t>
+        </is>
+      </c>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t>-41.08543617073762,172.10252093348862</t>
+        </is>
+      </c>
+      <c r="S470" t="inlineStr">
+        <is>
+          <t>-41.08475606067795,172.10249181809297</t>
+        </is>
+      </c>
+      <c r="T470" t="inlineStr">
+        <is>
+          <t>-41.08407954099822,172.10245276970912</t>
+        </is>
+      </c>
+      <c r="U470" t="inlineStr">
+        <is>
+          <t>-41.08340446805236,172.1023866203958</t>
+        </is>
+      </c>
+      <c r="V470" t="inlineStr">
+        <is>
+          <t>-41.082731672494305,172.1022847078181</t>
+        </is>
+      </c>
+      <c r="W470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:13:06+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-41.09620324731101,172.10371524299725</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-41.09552453976404,172.10382866417487</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-41.09484544468243,172.10396869168102</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-41.0941691320496,172.10391359678852</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-41.093494601103515,172.10373338165113</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-41.09281900055007,172.10362749481558</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-41.09214247365228,172.10358592357204</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>-41.091465271210964,172.10359112373484</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>-41.09078985277488,172.10358259804727</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>-41.090115493875714,172.10352481122143</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>-41.08945150479384,172.1033398905034</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>-41.08878237765888,172.10320279545428</t>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>-41.08810867951817,172.10310714106527</t>
+        </is>
+      </c>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>-41.08743873392544,172.1029773976798</t>
+        </is>
+      </c>
+      <c r="P471" t="inlineStr">
+        <is>
+          <t>-41.086757834856904,172.1029480959676</t>
+        </is>
+      </c>
+      <c r="Q471" t="inlineStr">
+        <is>
+          <t>-41.08608202851537,172.10287195653214</t>
+        </is>
+      </c>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t>-41.08541292083847,172.1027342846404</t>
+        </is>
+      </c>
+      <c r="S471" t="inlineStr">
+        <is>
+          <t>-41.08472537744769,172.10281384275078</t>
+        </is>
+      </c>
+      <c r="T471" t="inlineStr"/>
+      <c r="U471" t="inlineStr"/>
+      <c r="V471" t="inlineStr"/>
+      <c r="W471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-41.09620651213987,172.10348681560666</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-41.09552616950593,172.10371465171008</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-41.09484817610834,172.10377762413228</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-41.09417085563606,172.1037930302993</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-41.09349409455403,172.10376881671266</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-41.09281929833253,172.10360666254584</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-41.092144216998854,172.10346395825977</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>-41.09146740495116,172.10344184870476</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>-41.09079913485668,172.10340574405598</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>-41.09013375086783,172.10334325717156</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>-41.089467219701824,172.10319721689385</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>-41.088807214255986,172.10297730726836</t>
+        </is>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>-41.08813846516775,172.10283645318597</t>
+        </is>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>-41.08746205011648,172.10276436721185</t>
+        </is>
+      </c>
+      <c r="P472" t="inlineStr">
+        <is>
+          <t>-41.086781487951136,172.10273104225965</t>
+        </is>
+      </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>-41.08609262160632,172.10277474986714</t>
+        </is>
+      </c>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t>-41.085424523119144,172.1026278175571</t>
+        </is>
+      </c>
+      <c r="S472" t="inlineStr">
+        <is>
+          <t>-41.084752453406196,172.10252967740502</t>
+        </is>
+      </c>
+      <c r="T472" t="inlineStr">
+        <is>
+          <t>-41.0840820853219,172.10242031576192</t>
+        </is>
+      </c>
+      <c r="U472" t="inlineStr">
+        <is>
+          <t>-41.08340840069835,172.10233429211956</t>
+        </is>
+      </c>
+      <c r="V472" t="inlineStr">
+        <is>
+          <t>-41.08273711592729,172.10221227697397</t>
+        </is>
+      </c>
+      <c r="W472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-41.09620985727533,172.10325273657017</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-41.09552954548058,172.10347845224757</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-41.094851424475664,172.10355036682904</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-41.09417458944629,172.10353181646732</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-41.093497668718705,172.10351877400166</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-41.09282023476289,172.1035411500168</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-41.09214236766665,172.10359333808336</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>-41.09146543173032,172.10357989438006</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>-41.09078773637228,172.1036229217012</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>-41.090124416035735,172.1034360864445</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>-41.0894843034612,172.10304211375913</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>-41.088837218796236,172.1027048944262</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>-41.08816234619321,172.10261942135642</t>
+        </is>
+      </c>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>-41.08746588452595,172.10272933342642</t>
+        </is>
+      </c>
+      <c r="P473" t="inlineStr">
+        <is>
+          <t>-41.08676911357321,172.10284459679676</t>
+        </is>
+      </c>
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>-41.08609128916559,172.1027869769479</t>
+        </is>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>-41.08544204784786,172.1024670019784</t>
+        </is>
+      </c>
+      <c r="S473" t="inlineStr">
+        <is>
+          <t>-41.084766896008,172.10237809750342</t>
+        </is>
+      </c>
+      <c r="T473" t="inlineStr">
+        <is>
+          <t>-41.084100657231794,172.10218341941905</t>
+        </is>
+      </c>
+      <c r="U473" t="inlineStr">
+        <is>
+          <t>-41.08341624001994,172.10222998016894</t>
+        </is>
+      </c>
+      <c r="V473" t="inlineStr">
+        <is>
+          <t>-41.08274450645912,172.1021139368545</t>
+        </is>
+      </c>
+      <c r="W473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-41.09621265808749,172.10305672144625</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-41.09552833146244,172.10356339471434</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-41.09485090381416,172.10358679466384</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-41.094173945468775,172.10357687148453</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-41.09349699699718,172.10356576944056</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-41.09282087736736,172.10349619199343</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-41.09214558810411,172.10336802876344</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>-41.09146985153785,172.10327067047282</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>-41.090807048411406,172.10325496084928</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>-41.09014829691579,172.1031986039631</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>-41.089480631087014,172.10307545534337</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>-41.08879558110159,172.10308292366233</t>
+        </is>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>-41.08813408153361,172.10287629142795</t>
+        </is>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>-41.08745565367866,172.10282280921294</t>
+        </is>
+      </c>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t>-41.086790039946024,172.10265256352088</t>
+        </is>
+      </c>
+      <c r="Q474" t="inlineStr">
+        <is>
+          <t>-41.08610241319295,172.1026848974449</t>
+        </is>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>-41.08542721278752,172.10260313596953</t>
+        </is>
+      </c>
+      <c r="S474" t="inlineStr">
+        <is>
+          <t>-41.08474229318262,172.10263631102904</t>
+        </is>
+      </c>
+      <c r="T474" t="inlineStr">
+        <is>
+          <t>-41.08407286588705,172.10253791306707</t>
+        </is>
+      </c>
+      <c r="U474" t="inlineStr"/>
+      <c r="V474" t="inlineStr"/>
+      <c r="W474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W474"/>
+  <dimension ref="A1:W477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29010,6 +29010,183 @@
         </is>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:19:00+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>410.93</v>
+      </c>
+      <c r="C475" t="n">
+        <v>375.0657142857143</v>
+      </c>
+      <c r="D475" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="E475" t="n">
+        <v>376.07</v>
+      </c>
+      <c r="F475" t="n">
+        <v>373.54</v>
+      </c>
+      <c r="G475" t="n">
+        <v>376.26</v>
+      </c>
+      <c r="H475" t="n">
+        <v>375.2885714285715</v>
+      </c>
+      <c r="I475" t="n">
+        <v>381.24</v>
+      </c>
+      <c r="J475" t="n">
+        <v>379.095</v>
+      </c>
+      <c r="K475" t="n">
+        <v>372.46</v>
+      </c>
+      <c r="L475" t="n">
+        <v>369.845</v>
+      </c>
+      <c r="M475" t="n">
+        <v>365.6476470588235</v>
+      </c>
+      <c r="N475" t="n">
+        <v>372.5785714285714</v>
+      </c>
+      <c r="O475" t="n">
+        <v>363.72</v>
+      </c>
+      <c r="P475" t="n">
+        <v>357.97</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>351.7776470588236</v>
+      </c>
+      <c r="R475" t="inlineStr"/>
+      <c r="S475" t="inlineStr"/>
+      <c r="T475" t="inlineStr"/>
+      <c r="U475" t="inlineStr"/>
+      <c r="V475" t="inlineStr"/>
+      <c r="W475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:34+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>423.3184210526316</v>
+      </c>
+      <c r="C476" t="n">
+        <v>368.7057142857143</v>
+      </c>
+      <c r="D476" t="n">
+        <v>354.23</v>
+      </c>
+      <c r="E476" t="n">
+        <v>361.8684210526316</v>
+      </c>
+      <c r="F476" t="n">
+        <v>372.27</v>
+      </c>
+      <c r="G476" t="n">
+        <v>374.36</v>
+      </c>
+      <c r="H476" t="n">
+        <v>364.3485714285715</v>
+      </c>
+      <c r="I476" t="n">
+        <v>362.19</v>
+      </c>
+      <c r="J476" t="n">
+        <v>368.71</v>
+      </c>
+      <c r="K476" t="n">
+        <v>374</v>
+      </c>
+      <c r="L476" t="n">
+        <v>374.01</v>
+      </c>
+      <c r="M476" t="n">
+        <v>368.4658823529412</v>
+      </c>
+      <c r="N476" t="n">
+        <v>346.0185714285714</v>
+      </c>
+      <c r="O476" t="n">
+        <v>339.25</v>
+      </c>
+      <c r="P476" t="n">
+        <v>339.46</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>346.9558823529412</v>
+      </c>
+      <c r="R476" t="inlineStr"/>
+      <c r="S476" t="inlineStr"/>
+      <c r="T476" t="inlineStr"/>
+      <c r="U476" t="inlineStr"/>
+      <c r="V476" t="inlineStr"/>
+      <c r="W476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:06+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="n">
+        <v>343.8257894736842</v>
+      </c>
+      <c r="F477" t="n">
+        <v>361.8877777777778</v>
+      </c>
+      <c r="G477" t="n">
+        <v>366.3133333333333</v>
+      </c>
+      <c r="H477" t="n">
+        <v>356.8571428571428</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>412.6777777777777</v>
+      </c>
+      <c r="L477" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="M477" t="n">
+        <v>364.2164705882353</v>
+      </c>
+      <c r="N477" t="inlineStr"/>
+      <c r="O477" t="inlineStr"/>
+      <c r="P477" t="inlineStr"/>
+      <c r="Q477" t="inlineStr"/>
+      <c r="R477" t="inlineStr"/>
+      <c r="S477" t="inlineStr"/>
+      <c r="T477" t="inlineStr"/>
+      <c r="U477" t="inlineStr"/>
+      <c r="V477" t="inlineStr"/>
+      <c r="W477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29021,7 +29198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B495"/>
+  <dimension ref="A1:B498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33979,6 +34156,36 @@
       </c>
       <c r="B495" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.92</v>
       </c>
     </row>
   </sheetData>
@@ -34152,28 +34359,28 @@
         <v>0.1148</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6545812186558784</v>
+        <v>-0.6523200217552002</v>
       </c>
       <c r="J2" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K2" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03018916235938507</v>
+        <v>0.03028241298588208</v>
       </c>
       <c r="M2" t="n">
-        <v>24.16505875192986</v>
+        <v>24.05949544252771</v>
       </c>
       <c r="N2" t="n">
-        <v>849.2387795087667</v>
+        <v>844.4999906281756</v>
       </c>
       <c r="O2" t="n">
-        <v>29.14170172637087</v>
+        <v>29.06028201219279</v>
       </c>
       <c r="P2" t="n">
-        <v>431.6827863840044</v>
+        <v>431.6615608577969</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34230,28 +34437,28 @@
         <v>0.1347</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08320281175695858</v>
+        <v>-0.08888296464344042</v>
       </c>
       <c r="J3" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K3" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001777387371876382</v>
+        <v>0.002043289538849358</v>
       </c>
       <c r="M3" t="n">
-        <v>12.30792779963676</v>
+        <v>12.27661791801602</v>
       </c>
       <c r="N3" t="n">
-        <v>242.5672211867254</v>
+        <v>241.6221872730833</v>
       </c>
       <c r="O3" t="n">
-        <v>15.57456969507426</v>
+        <v>15.54420108185311</v>
       </c>
       <c r="P3" t="n">
-        <v>380.8063504789046</v>
+        <v>380.8592375626337</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34302,28 +34509,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.166444725764433</v>
+        <v>0.1569001358027684</v>
       </c>
       <c r="J4" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K4" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007132805627031114</v>
+        <v>0.006373128655651317</v>
       </c>
       <c r="M4" t="n">
-        <v>12.28882586539663</v>
+        <v>12.28461379301168</v>
       </c>
       <c r="N4" t="n">
-        <v>241.4393873496883</v>
+        <v>241.1340613116518</v>
       </c>
       <c r="O4" t="n">
-        <v>15.53831996548173</v>
+        <v>15.52849192006911</v>
       </c>
       <c r="P4" t="n">
-        <v>368.6610600622728</v>
+        <v>368.750371435262</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34374,28 +34581,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2200673524470355</v>
+        <v>0.2081447755194568</v>
       </c>
       <c r="J5" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K5" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01227150107076058</v>
+        <v>0.01104477202166343</v>
       </c>
       <c r="M5" t="n">
-        <v>12.63042659935224</v>
+        <v>12.63635245581393</v>
       </c>
       <c r="N5" t="n">
-        <v>242.7239287614357</v>
+        <v>242.8691245728489</v>
       </c>
       <c r="O5" t="n">
-        <v>15.57959976255602</v>
+        <v>15.58425887146543</v>
       </c>
       <c r="P5" t="n">
-        <v>364.3751166480133</v>
+        <v>364.4869367365484</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34452,28 +34659,28 @@
         <v>0.126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1809002599692308</v>
+        <v>0.1809323011658818</v>
       </c>
       <c r="J6" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K6" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009569610133504547</v>
+        <v>0.009694004553266522</v>
       </c>
       <c r="M6" t="n">
-        <v>11.86871031534474</v>
+        <v>11.81215422642993</v>
       </c>
       <c r="N6" t="n">
-        <v>207.6915934694764</v>
+        <v>206.2248680676195</v>
       </c>
       <c r="O6" t="n">
-        <v>14.41150906288014</v>
+        <v>14.36053160811324</v>
       </c>
       <c r="P6" t="n">
-        <v>364.5429389473719</v>
+        <v>364.5427256136606</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34530,28 +34737,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1105622149186062</v>
+        <v>0.1123355661532762</v>
       </c>
       <c r="J7" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K7" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003591774732236375</v>
+        <v>0.003755916342580434</v>
       </c>
       <c r="M7" t="n">
-        <v>11.29732020487507</v>
+        <v>11.24149808897215</v>
       </c>
       <c r="N7" t="n">
-        <v>206.1380716296623</v>
+        <v>204.6022557441751</v>
       </c>
       <c r="O7" t="n">
-        <v>14.35750924184492</v>
+        <v>14.30392448750255</v>
       </c>
       <c r="P7" t="n">
-        <v>368.1505251928871</v>
+        <v>368.1335832654999</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34608,28 +34815,28 @@
         <v>0.0893</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05985369854462203</v>
+        <v>0.04864064503840761</v>
       </c>
       <c r="J8" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K8" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001028239338825232</v>
+        <v>0.0006855909879085464</v>
       </c>
       <c r="M8" t="n">
-        <v>11.39507513681226</v>
+        <v>11.37226200879639</v>
       </c>
       <c r="N8" t="n">
-        <v>212.025513502082</v>
+        <v>211.2621709445532</v>
       </c>
       <c r="O8" t="n">
-        <v>14.56109588946114</v>
+        <v>14.53486054093927</v>
       </c>
       <c r="P8" t="n">
-        <v>372.0577236035484</v>
+        <v>372.165411376467</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34686,28 +34893,28 @@
         <v>0.0872</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1317969231507075</v>
+        <v>0.1283420036894605</v>
       </c>
       <c r="J9" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K9" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005106211956372841</v>
+        <v>0.004874622748650359</v>
       </c>
       <c r="M9" t="n">
-        <v>10.99709131215346</v>
+        <v>10.9884458262115</v>
       </c>
       <c r="N9" t="n">
-        <v>202.5439524402492</v>
+        <v>201.9912469496147</v>
       </c>
       <c r="O9" t="n">
-        <v>14.23179371830021</v>
+        <v>14.21236246897801</v>
       </c>
       <c r="P9" t="n">
-        <v>372.0112173739616</v>
+        <v>372.044933603991</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34764,28 +34971,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07042148779190166</v>
+        <v>0.06833735664608323</v>
       </c>
       <c r="J10" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K10" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001650861463967424</v>
+        <v>0.001568192950016312</v>
       </c>
       <c r="M10" t="n">
-        <v>10.11994226865386</v>
+        <v>10.09175020097857</v>
       </c>
       <c r="N10" t="n">
-        <v>177.6783974314405</v>
+        <v>176.831084651661</v>
       </c>
       <c r="O10" t="n">
-        <v>13.32960604937147</v>
+        <v>13.29778495282808</v>
       </c>
       <c r="P10" t="n">
-        <v>374.238485103826</v>
+        <v>374.2589942638986</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34842,28 +35049,28 @@
         <v>0.102</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2027606841642935</v>
+        <v>0.2229844651698456</v>
       </c>
       <c r="J11" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K11" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01280979828731543</v>
+        <v>0.0152991109151166</v>
       </c>
       <c r="M11" t="n">
-        <v>10.71523341958729</v>
+        <v>10.73985816854813</v>
       </c>
       <c r="N11" t="n">
-        <v>187.2075911249996</v>
+        <v>190.2247059148845</v>
       </c>
       <c r="O11" t="n">
-        <v>13.68238250908809</v>
+        <v>13.79219728378638</v>
       </c>
       <c r="P11" t="n">
-        <v>367.3209990457526</v>
+        <v>367.1222034436943</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34920,28 +35127,28 @@
         <v>0.0958</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1839142228262129</v>
+        <v>0.1845036808154283</v>
       </c>
       <c r="J12" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K12" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01146370952211206</v>
+        <v>0.01170234066596643</v>
       </c>
       <c r="M12" t="n">
-        <v>10.2101339154896</v>
+        <v>10.15775919118428</v>
       </c>
       <c r="N12" t="n">
-        <v>173.7114600092223</v>
+        <v>172.3575173713141</v>
       </c>
       <c r="O12" t="n">
-        <v>13.17996434021057</v>
+        <v>13.12850019504567</v>
       </c>
       <c r="P12" t="n">
-        <v>363.5773341089221</v>
+        <v>363.5716775735598</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34998,28 +35205,28 @@
         <v>0.0956</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2597848215844786</v>
+        <v>0.2632360089206748</v>
       </c>
       <c r="J13" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K13" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02382105200241169</v>
+        <v>0.0248131251778626</v>
       </c>
       <c r="M13" t="n">
-        <v>10.39222197840703</v>
+        <v>10.31665218933513</v>
       </c>
       <c r="N13" t="n">
-        <v>168.9408246075142</v>
+        <v>167.4745859386729</v>
       </c>
       <c r="O13" t="n">
-        <v>12.99772382409759</v>
+        <v>12.94119723745345</v>
       </c>
       <c r="P13" t="n">
-        <v>357.1561893447237</v>
+        <v>357.1234876607761</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35076,28 +35283,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3313484735223728</v>
+        <v>0.3306614818250407</v>
       </c>
       <c r="J14" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K14" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03126171217444018</v>
+        <v>0.03131216842905549</v>
       </c>
       <c r="M14" t="n">
-        <v>11.94219270664431</v>
+        <v>11.95115520046553</v>
       </c>
       <c r="N14" t="n">
-        <v>213.3618121483472</v>
+        <v>213.1252543176745</v>
       </c>
       <c r="O14" t="n">
-        <v>14.60690973985761</v>
+        <v>14.59881003087835</v>
       </c>
       <c r="P14" t="n">
-        <v>351.39076926883</v>
+        <v>351.3973303377664</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35154,28 +35361,28 @@
         <v>0.0883</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4173804600861807</v>
+        <v>0.4120538759628692</v>
       </c>
       <c r="J15" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K15" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0459101882138272</v>
+        <v>0.04506758193194527</v>
       </c>
       <c r="M15" t="n">
-        <v>11.78873347069326</v>
+        <v>11.79457808186066</v>
       </c>
       <c r="N15" t="n">
-        <v>219.0278229637365</v>
+        <v>218.6849404173685</v>
       </c>
       <c r="O15" t="n">
-        <v>14.79958860792206</v>
+        <v>14.78799987886694</v>
       </c>
       <c r="P15" t="n">
-        <v>345.3123086378552</v>
+        <v>345.3637989063159</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35232,28 +35439,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3647421786072305</v>
+        <v>0.362804614372756</v>
       </c>
       <c r="J16" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K16" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03548287482701473</v>
+        <v>0.03542440591200879</v>
       </c>
       <c r="M16" t="n">
-        <v>11.57044051862968</v>
+        <v>11.55478678392081</v>
       </c>
       <c r="N16" t="n">
-        <v>216.6421772539311</v>
+        <v>215.6948927585271</v>
       </c>
       <c r="O16" t="n">
-        <v>14.71876955638382</v>
+        <v>14.68655482945293</v>
       </c>
       <c r="P16" t="n">
-        <v>340.9236840253905</v>
+        <v>340.9427750681696</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35310,28 +35517,28 @@
         <v>0.1112</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1096485621550744</v>
+        <v>0.1160966067719277</v>
       </c>
       <c r="J17" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K17" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002888367085528531</v>
+        <v>0.00327397498669646</v>
       </c>
       <c r="M17" t="n">
-        <v>11.92487796481974</v>
+        <v>11.86629565955186</v>
       </c>
       <c r="N17" t="n">
-        <v>246.0327720788914</v>
+        <v>244.3249445270379</v>
       </c>
       <c r="O17" t="n">
-        <v>15.68543184228255</v>
+        <v>15.63089711203544</v>
       </c>
       <c r="P17" t="n">
-        <v>341.4937642430626</v>
+        <v>341.4298557109265</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35391,7 +35598,7 @@
         <v>0.2244269794310636</v>
       </c>
       <c r="J18" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K18" t="n">
         <v>229</v>
@@ -35463,7 +35670,7 @@
         <v>0.1952661022743515</v>
       </c>
       <c r="J19" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K19" t="n">
         <v>200</v>
@@ -35535,7 +35742,7 @@
         <v>0.736006423831106</v>
       </c>
       <c r="J20" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K20" t="n">
         <v>198</v>
@@ -35607,7 +35814,7 @@
         <v>0.05702255727047541</v>
       </c>
       <c r="J21" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K21" t="n">
         <v>194</v>
@@ -35685,7 +35892,7 @@
         <v>0.7895189342187715</v>
       </c>
       <c r="J22" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K22" t="n">
         <v>215</v>
@@ -35741,7 +35948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W474"/>
+  <dimension ref="A1:W477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77171,6 +77378,261 @@
         </is>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:19:00+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-41.09621213571353,172.1030932816135</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-41.09552927876492,172.10349711419383</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-41.09485144999797,172.10354858115087</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-41.094175917286414,172.1034389120301</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-41.093498710198915,172.1034459066002</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-41.092822389375364,172.10339040373856</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-41.09214543352152,172.1033788444274</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>-41.091469648516,172.10328487580625</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>-41.09080532483796,172.10328780177892</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>-41.0901426702502,172.10325455857463</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>-41.08947241038389,172.103150090997</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>-41.08879767721389,172.10306389330944</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>-41.08813735027774,172.1028465852615</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>-41.08745644893633,172.10281554323893</t>
+        </is>
+      </c>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>-41.08677953185666,172.10274899259906</t>
+        </is>
+      </c>
+      <c r="Q475" t="inlineStr">
+        <is>
+          <t>-41.08610211180982,172.10268766309497</t>
+        </is>
+      </c>
+      <c r="R475" t="inlineStr"/>
+      <c r="S475" t="inlineStr"/>
+      <c r="T475" t="inlineStr"/>
+      <c r="U475" t="inlineStr"/>
+      <c r="V475" t="inlineStr"/>
+      <c r="W475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:34+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-41.096214242864136,172.10294580034002</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-41.0955281966397,172.10357282772708</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-41.09484897080014,172.1037220300212</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-41.094173500916106,172.10360797329275</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-41.093498494117775,172.10346102503195</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-41.092822066111,172.1034130216328</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-41.092143572131235,172.1035090745421</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>-41.09146640730141,172.1035116452972</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>-41.09079885122423,172.10341114825854</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>-41.090144497897555,172.10323638348973</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>-41.089477815161025,172.10310102114937</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>-41.088801334334526,172.10303069067717</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>-41.0881029178853,172.10315950129402</t>
+        </is>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>-41.08742489189926,172.10310386481441</t>
+        </is>
+      </c>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t>-41.086755763158465,172.10296710681735</t>
+        </is>
+      </c>
+      <c r="Q476" t="inlineStr">
+        <is>
+          <t>-41.086095920222434,172.10274448021576</t>
+        </is>
+      </c>
+      <c r="R476" t="inlineStr"/>
+      <c r="S476" t="inlineStr"/>
+      <c r="T476" t="inlineStr"/>
+      <c r="U476" t="inlineStr"/>
+      <c r="V476" t="inlineStr"/>
+      <c r="W476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:06+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-41.094170430640354,172.10382275996716</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-41.09349672758476,172.10358461787845</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-41.092820697008825,172.10350881039722</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-41.092142297414455,172.10359825274796</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>-41.09019039912143,172.10277990791923</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>-41.08946255455979,172.10323957128762</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>-41.08879582002496,172.1030807545071</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr"/>
+      <c r="O477" t="inlineStr"/>
+      <c r="P477" t="inlineStr"/>
+      <c r="Q477" t="inlineStr"/>
+      <c r="R477" t="inlineStr"/>
+      <c r="S477" t="inlineStr"/>
+      <c r="T477" t="inlineStr"/>
+      <c r="U477" t="inlineStr"/>
+      <c r="V477" t="inlineStr"/>
+      <c r="W477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W477"/>
+  <dimension ref="A1:W479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29161,7 +29161,9 @@
       <c r="H477" t="n">
         <v>356.8571428571428</v>
       </c>
-      <c r="I477" t="inlineStr"/>
+      <c r="I477" t="n">
+        <v>419.1833333333333</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="n">
         <v>412.6777777777777</v>
@@ -29182,6 +29184,96 @@
       <c r="U477" t="inlineStr"/>
       <c r="V477" t="inlineStr"/>
       <c r="W477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:00+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>443.1547368421053</v>
+      </c>
+      <c r="C478" t="n">
+        <v>386.9152380952381</v>
+      </c>
+      <c r="D478" t="n">
+        <v>357.09</v>
+      </c>
+      <c r="E478" t="n">
+        <v>339.2247368421052</v>
+      </c>
+      <c r="F478" t="n">
+        <v>346.7877777777778</v>
+      </c>
+      <c r="G478" t="n">
+        <v>363.2233333333333</v>
+      </c>
+      <c r="H478" t="n">
+        <v>380.3728571428572</v>
+      </c>
+      <c r="I478" t="n">
+        <v>380.4333333333333</v>
+      </c>
+      <c r="J478" t="n">
+        <v>375.12</v>
+      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
+      <c r="M478" t="inlineStr"/>
+      <c r="N478" t="inlineStr"/>
+      <c r="O478" t="inlineStr"/>
+      <c r="P478" t="inlineStr"/>
+      <c r="Q478" t="inlineStr"/>
+      <c r="R478" t="inlineStr"/>
+      <c r="S478" t="inlineStr"/>
+      <c r="T478" t="inlineStr"/>
+      <c r="U478" t="inlineStr"/>
+      <c r="V478" t="inlineStr"/>
+      <c r="W478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="n">
+        <v>406.9304761904762</v>
+      </c>
+      <c r="D479" t="n">
+        <v>391.38</v>
+      </c>
+      <c r="E479" t="n">
+        <v>370.911052631579</v>
+      </c>
+      <c r="F479" t="inlineStr"/>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
+      <c r="M479" t="inlineStr"/>
+      <c r="N479" t="inlineStr"/>
+      <c r="O479" t="inlineStr"/>
+      <c r="P479" t="inlineStr"/>
+      <c r="Q479" t="inlineStr"/>
+      <c r="R479" t="inlineStr"/>
+      <c r="S479" t="inlineStr"/>
+      <c r="T479" t="inlineStr"/>
+      <c r="U479" t="inlineStr"/>
+      <c r="V479" t="inlineStr"/>
+      <c r="W479" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -29198,7 +29290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B498"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34186,6 +34278,26 @@
       </c>
       <c r="B498" t="n">
         <v>-0.92</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -34359,28 +34471,28 @@
         <v>0.1148</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6523200217552002</v>
+        <v>-0.6383225675729495</v>
       </c>
       <c r="J2" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K2" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03028241298588208</v>
+        <v>0.02910279000698979</v>
       </c>
       <c r="M2" t="n">
-        <v>24.05949544252771</v>
+        <v>24.07224653913271</v>
       </c>
       <c r="N2" t="n">
-        <v>844.4999906281756</v>
+        <v>844.3570201778488</v>
       </c>
       <c r="O2" t="n">
-        <v>29.06028201219279</v>
+        <v>29.05782201366525</v>
       </c>
       <c r="P2" t="n">
-        <v>431.6615608577969</v>
+        <v>431.5299897405713</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34437,28 +34549,28 @@
         <v>0.1347</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08888296464344042</v>
+        <v>-0.07357827424057298</v>
       </c>
       <c r="J3" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K3" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002043289538849358</v>
+        <v>0.001400776063553155</v>
       </c>
       <c r="M3" t="n">
-        <v>12.27661791801602</v>
+        <v>12.31558487870527</v>
       </c>
       <c r="N3" t="n">
-        <v>241.6221872730833</v>
+        <v>242.5817151184547</v>
       </c>
       <c r="O3" t="n">
-        <v>15.54420108185311</v>
+        <v>15.57503499573772</v>
       </c>
       <c r="P3" t="n">
-        <v>380.8592375626337</v>
+        <v>380.7159060459005</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34509,28 +34621,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1569001358027684</v>
+        <v>0.1581087831395771</v>
       </c>
       <c r="J4" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K4" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006373128655651317</v>
+        <v>0.006486079321240013</v>
       </c>
       <c r="M4" t="n">
-        <v>12.28461379301168</v>
+        <v>12.30937088385682</v>
       </c>
       <c r="N4" t="n">
-        <v>241.1340613116518</v>
+        <v>241.4135497767166</v>
       </c>
       <c r="O4" t="n">
-        <v>15.52849192006911</v>
+        <v>15.53748852861094</v>
       </c>
       <c r="P4" t="n">
-        <v>368.750371435262</v>
+        <v>368.738896598529</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34581,28 +34693,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2081447755194568</v>
+        <v>0.1958314761330102</v>
       </c>
       <c r="J5" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K5" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01104477202166343</v>
+        <v>0.009778646581337869</v>
       </c>
       <c r="M5" t="n">
-        <v>12.63635245581393</v>
+        <v>12.65274797806537</v>
       </c>
       <c r="N5" t="n">
-        <v>242.8691245728489</v>
+        <v>244.0055346190385</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58425887146543</v>
+        <v>15.62067650964703</v>
       </c>
       <c r="P5" t="n">
-        <v>364.4869367365484</v>
+        <v>364.602668505561</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34659,28 +34771,28 @@
         <v>0.126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1809323011658818</v>
+        <v>0.1709412648721127</v>
       </c>
       <c r="J6" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K6" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009694004553266522</v>
+        <v>0.008645017119036869</v>
       </c>
       <c r="M6" t="n">
-        <v>11.81215422642993</v>
+        <v>11.83928394569422</v>
       </c>
       <c r="N6" t="n">
-        <v>206.2248680676195</v>
+        <v>207.016591423085</v>
       </c>
       <c r="O6" t="n">
-        <v>14.36053160811324</v>
+        <v>14.38807115019539</v>
       </c>
       <c r="P6" t="n">
-        <v>364.5427256136606</v>
+        <v>364.6381472006229</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34737,28 +34849,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1123355661532762</v>
+        <v>0.108801785847443</v>
       </c>
       <c r="J7" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K7" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003755916342580434</v>
+        <v>0.003537426763331797</v>
       </c>
       <c r="M7" t="n">
-        <v>11.24149808897215</v>
+        <v>11.23023865852968</v>
       </c>
       <c r="N7" t="n">
-        <v>204.6022557441751</v>
+        <v>204.2064516306031</v>
       </c>
       <c r="O7" t="n">
-        <v>14.30392448750255</v>
+        <v>14.2900822821495</v>
       </c>
       <c r="P7" t="n">
-        <v>368.1335832654999</v>
+        <v>368.1676603879733</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34815,28 +34927,28 @@
         <v>0.0893</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04864064503840761</v>
+        <v>0.05183979470285419</v>
       </c>
       <c r="J8" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K8" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006855909879085464</v>
+        <v>0.0007818067859453048</v>
       </c>
       <c r="M8" t="n">
-        <v>11.37226200879639</v>
+        <v>11.36090725291068</v>
       </c>
       <c r="N8" t="n">
-        <v>211.2621709445532</v>
+        <v>210.8047890391028</v>
       </c>
       <c r="O8" t="n">
-        <v>14.53486054093927</v>
+        <v>14.51911805307412</v>
       </c>
       <c r="P8" t="n">
-        <v>372.165411376467</v>
+        <v>372.1345978203356</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34893,28 +35005,28 @@
         <v>0.0872</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1283420036894605</v>
+        <v>0.1508981367547883</v>
       </c>
       <c r="J9" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K9" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004874622748650359</v>
+        <v>0.006612348243102972</v>
       </c>
       <c r="M9" t="n">
-        <v>10.9884458262115</v>
+        <v>11.06536560667103</v>
       </c>
       <c r="N9" t="n">
-        <v>201.9912469496147</v>
+        <v>206.2522150107693</v>
       </c>
       <c r="O9" t="n">
-        <v>14.21236246897801</v>
+        <v>14.36148373291455</v>
       </c>
       <c r="P9" t="n">
-        <v>372.044933603991</v>
+        <v>371.8249919703035</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34971,28 +35083,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06833735664608323</v>
+        <v>0.06790150986514293</v>
       </c>
       <c r="J10" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K10" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001568192950016312</v>
+        <v>0.00155575970844446</v>
       </c>
       <c r="M10" t="n">
-        <v>10.09175020097857</v>
+        <v>10.06524623826215</v>
       </c>
       <c r="N10" t="n">
-        <v>176.831084651661</v>
+        <v>176.3223465384133</v>
       </c>
       <c r="O10" t="n">
-        <v>13.29778495282808</v>
+        <v>13.27864249606914</v>
       </c>
       <c r="P10" t="n">
-        <v>374.2589942638986</v>
+        <v>374.2632910709068</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35052,7 +35164,7 @@
         <v>0.2229844651698456</v>
       </c>
       <c r="J11" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K11" t="n">
         <v>344</v>
@@ -35130,7 +35242,7 @@
         <v>0.1845036808154283</v>
       </c>
       <c r="J12" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K12" t="n">
         <v>332</v>
@@ -35208,7 +35320,7 @@
         <v>0.2632360089206748</v>
       </c>
       <c r="J13" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K13" t="n">
         <v>329</v>
@@ -35286,7 +35398,7 @@
         <v>0.3306614818250407</v>
       </c>
       <c r="J14" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K14" t="n">
         <v>308</v>
@@ -35364,7 +35476,7 @@
         <v>0.4120538759628692</v>
       </c>
       <c r="J15" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K15" t="n">
         <v>284</v>
@@ -35442,7 +35554,7 @@
         <v>0.362804614372756</v>
       </c>
       <c r="J16" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K16" t="n">
         <v>271</v>
@@ -35520,7 +35632,7 @@
         <v>0.1160966067719277</v>
       </c>
       <c r="J17" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K17" t="n">
         <v>252</v>
@@ -35598,7 +35710,7 @@
         <v>0.2244269794310636</v>
       </c>
       <c r="J18" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K18" t="n">
         <v>229</v>
@@ -35670,7 +35782,7 @@
         <v>0.1952661022743515</v>
       </c>
       <c r="J19" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K19" t="n">
         <v>200</v>
@@ -35742,7 +35854,7 @@
         <v>0.736006423831106</v>
       </c>
       <c r="J20" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K20" t="n">
         <v>198</v>
@@ -35814,7 +35926,7 @@
         <v>0.05702255727047541</v>
       </c>
       <c r="J21" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K21" t="n">
         <v>194</v>
@@ -35892,7 +36004,7 @@
         <v>0.7895189342187715</v>
       </c>
       <c r="J22" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K22" t="n">
         <v>215</v>
@@ -35948,7 +36060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W477"/>
+  <dimension ref="A1:W479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43214,7 +43326,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>-41.08607737323979,172.1029146750535</t>
+          <t>-41.08607737323978,172.1029146750535</t>
         </is>
       </c>
       <c r="R88" t="inlineStr"/>
@@ -49636,7 +49748,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>-41.09350284503848,172.10315657974976</t>
+          <t>-41.093502845038486,172.10315657974976</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -53528,7 +53640,7 @@
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>-41.086080893212745,172.1028823745008</t>
+          <t>-41.08608089321275,172.1028823745008</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -57447,7 +57559,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>-41.09080953246008,172.10320762952477</t>
+          <t>-41.090809532460085,172.10320762952477</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -65734,7 +65846,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>-41.09553188518924,172.10331473504755</t>
+          <t>-41.095531885189246,172.10331473504755</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -75475,7 +75587,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>-41.092145962646725,172.1033418228857</t>
+          <t>-41.09214596264672,172.1033418228857</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -77601,7 +77713,11 @@
           <t>-41.092142297414455,172.10359825274796</t>
         </is>
       </c>
-      <c r="I477" t="inlineStr"/>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-41.09147610295896,172.10283320172772</t>
+        </is>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -77633,6 +77749,120 @@
         </is>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:00+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-41.09621761643624,172.10270965359803</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-41.095531294775014,172.10335604983194</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-41.0948494574718,172.10368798309193</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-41.09416964762504,172.1038775327287</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-41.09349415808603,172.10376437244963</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-41.09282017123881,172.10354559423445</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-41.092146298539035,172.10331832092382</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>-41.091469511276784,172.10329447829415</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>-41.09080284698988,172.10333501432427</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
+      <c r="M478" t="inlineStr"/>
+      <c r="N478" t="inlineStr"/>
+      <c r="O478" t="inlineStr"/>
+      <c r="P478" t="inlineStr"/>
+      <c r="Q478" t="inlineStr"/>
+      <c r="R478" t="inlineStr"/>
+      <c r="S478" t="inlineStr"/>
+      <c r="T478" t="inlineStr"/>
+      <c r="U478" t="inlineStr"/>
+      <c r="V478" t="inlineStr"/>
+      <c r="W478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-41.09553469966049,172.10311777553636</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-41.09485529164285,172.10327977705114</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-41.094175039530526,172.10350032619905</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr"/>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
+      <c r="M479" t="inlineStr"/>
+      <c r="N479" t="inlineStr"/>
+      <c r="O479" t="inlineStr"/>
+      <c r="P479" t="inlineStr"/>
+      <c r="Q479" t="inlineStr"/>
+      <c r="R479" t="inlineStr"/>
+      <c r="S479" t="inlineStr"/>
+      <c r="T479" t="inlineStr"/>
+      <c r="U479" t="inlineStr"/>
+      <c r="V479" t="inlineStr"/>
+      <c r="W479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W479"/>
+  <dimension ref="A1:W480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29246,7 +29246,9 @@
           <t>2025-06-14 22:12:35+00:00</t>
         </is>
       </c>
-      <c r="B479" t="inlineStr"/>
+      <c r="B479" t="n">
+        <v>501.741052631579</v>
+      </c>
       <c r="C479" t="n">
         <v>406.9304761904762</v>
       </c>
@@ -29279,6 +29281,55 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>525.748947368421</v>
+      </c>
+      <c r="C480" t="n">
+        <v>418.5390476190476</v>
+      </c>
+      <c r="D480" t="n">
+        <v>390.38</v>
+      </c>
+      <c r="E480" t="n">
+        <v>372.028947368421</v>
+      </c>
+      <c r="F480" t="n">
+        <v>371.9555555555555</v>
+      </c>
+      <c r="G480" t="n">
+        <v>376.9266666666666</v>
+      </c>
+      <c r="H480" t="n">
+        <v>384.3685714285714</v>
+      </c>
+      <c r="I480" t="n">
+        <v>394.4366666666667</v>
+      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
+      <c r="M480" t="inlineStr"/>
+      <c r="N480" t="inlineStr"/>
+      <c r="O480" t="inlineStr"/>
+      <c r="P480" t="inlineStr"/>
+      <c r="Q480" t="inlineStr"/>
+      <c r="R480" t="inlineStr"/>
+      <c r="S480" t="inlineStr"/>
+      <c r="T480" t="inlineStr"/>
+      <c r="U480" t="inlineStr"/>
+      <c r="V480" t="inlineStr"/>
+      <c r="W480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29290,7 +29341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34298,6 +34349,16 @@
       </c>
       <c r="B500" t="n">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
@@ -34471,28 +34532,28 @@
         <v>0.1148</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6383225675729495</v>
+        <v>-0.5420010674449545</v>
       </c>
       <c r="J2" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K2" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02910279000698979</v>
+        <v>0.0200426541941825</v>
       </c>
       <c r="M2" t="n">
-        <v>24.07224653913271</v>
+        <v>24.50827334556683</v>
       </c>
       <c r="N2" t="n">
-        <v>844.3570201778488</v>
+        <v>896.1749648749666</v>
       </c>
       <c r="O2" t="n">
-        <v>29.05782201366525</v>
+        <v>29.93618153464076</v>
       </c>
       <c r="P2" t="n">
-        <v>431.5299897405713</v>
+        <v>430.6226748422485</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34549,28 +34610,28 @@
         <v>0.1347</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07357827424057298</v>
+        <v>-0.05709350675605968</v>
       </c>
       <c r="J3" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K3" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001400776063553155</v>
+        <v>0.0008340341377407468</v>
       </c>
       <c r="M3" t="n">
-        <v>12.31558487870527</v>
+        <v>12.39325296327226</v>
       </c>
       <c r="N3" t="n">
-        <v>242.5817151184547</v>
+        <v>245.9017524848694</v>
       </c>
       <c r="O3" t="n">
-        <v>15.57503499573772</v>
+        <v>15.68125481219119</v>
       </c>
       <c r="P3" t="n">
-        <v>380.7159060459005</v>
+        <v>380.5612874132965</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34621,28 +34682,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1581087831395771</v>
+        <v>0.1653726298846443</v>
       </c>
       <c r="J4" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K4" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006486079321240013</v>
+        <v>0.007098743421864562</v>
       </c>
       <c r="M4" t="n">
-        <v>12.30937088385682</v>
+        <v>12.32224151567475</v>
       </c>
       <c r="N4" t="n">
-        <v>241.4135497767166</v>
+        <v>241.5780825153615</v>
       </c>
       <c r="O4" t="n">
-        <v>15.53748852861094</v>
+        <v>15.54278232863606</v>
       </c>
       <c r="P4" t="n">
-        <v>368.738896598529</v>
+        <v>368.6704284958575</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34693,28 +34754,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1958314761330102</v>
+        <v>0.1968133300291858</v>
       </c>
       <c r="J5" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K5" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009778646581337869</v>
+        <v>0.00991760077651771</v>
       </c>
       <c r="M5" t="n">
-        <v>12.65274797806537</v>
+        <v>12.62660117480794</v>
       </c>
       <c r="N5" t="n">
-        <v>244.0055346190385</v>
+        <v>243.4018620667125</v>
       </c>
       <c r="O5" t="n">
-        <v>15.62067650964703</v>
+        <v>15.60134167521218</v>
       </c>
       <c r="P5" t="n">
-        <v>364.602668505561</v>
+        <v>364.5934142848255</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34771,28 +34832,28 @@
         <v>0.126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1709412648721127</v>
+        <v>0.1722293070873216</v>
       </c>
       <c r="J6" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K6" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008645017119036869</v>
+        <v>0.008813391084744659</v>
       </c>
       <c r="M6" t="n">
-        <v>11.83928394569422</v>
+        <v>11.81532322762757</v>
       </c>
       <c r="N6" t="n">
-        <v>207.016591423085</v>
+        <v>206.481090201026</v>
       </c>
       <c r="O6" t="n">
-        <v>14.38807115019539</v>
+        <v>14.36944989208098</v>
       </c>
       <c r="P6" t="n">
-        <v>364.6381472006229</v>
+        <v>364.6258120108313</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34849,28 +34910,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.108801785847443</v>
+        <v>0.1114850281666646</v>
       </c>
       <c r="J7" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K7" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003537426763331797</v>
+        <v>0.003728635133570468</v>
       </c>
       <c r="M7" t="n">
-        <v>11.23023865852968</v>
+        <v>11.21702281921664</v>
       </c>
       <c r="N7" t="n">
-        <v>204.2064516306031</v>
+        <v>203.743169768436</v>
       </c>
       <c r="O7" t="n">
-        <v>14.2900822821495</v>
+        <v>14.27386316903858</v>
       </c>
       <c r="P7" t="n">
-        <v>368.1676603879733</v>
+        <v>368.1417147849857</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34927,28 +34988,28 @@
         <v>0.0893</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05183979470285419</v>
+        <v>0.05683711027884923</v>
       </c>
       <c r="J8" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K8" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007818067859453048</v>
+        <v>0.0009425615245149954</v>
       </c>
       <c r="M8" t="n">
-        <v>11.36090725291068</v>
+        <v>11.36121585002883</v>
       </c>
       <c r="N8" t="n">
-        <v>210.8047890391028</v>
+        <v>210.5450030996192</v>
       </c>
       <c r="O8" t="n">
-        <v>14.51911805307412</v>
+        <v>14.51016895489571</v>
       </c>
       <c r="P8" t="n">
-        <v>372.1345978203356</v>
+        <v>372.0863330961503</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35005,28 +35066,28 @@
         <v>0.0872</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1508981367547883</v>
+        <v>0.1595351518117236</v>
       </c>
       <c r="J9" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K9" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006612348243102972</v>
+        <v>0.00738482919657979</v>
       </c>
       <c r="M9" t="n">
-        <v>11.06536560667103</v>
+        <v>11.08760715676738</v>
       </c>
       <c r="N9" t="n">
-        <v>206.2522150107693</v>
+        <v>206.6457560521018</v>
       </c>
       <c r="O9" t="n">
-        <v>14.36148373291455</v>
+        <v>14.37517847026957</v>
       </c>
       <c r="P9" t="n">
-        <v>371.8249919703035</v>
+        <v>371.7403407642416</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35086,7 +35147,7 @@
         <v>0.06790150986514293</v>
       </c>
       <c r="J10" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K10" t="n">
         <v>346</v>
@@ -35164,7 +35225,7 @@
         <v>0.2229844651698456</v>
       </c>
       <c r="J11" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K11" t="n">
         <v>344</v>
@@ -35242,7 +35303,7 @@
         <v>0.1845036808154283</v>
       </c>
       <c r="J12" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K12" t="n">
         <v>332</v>
@@ -35320,7 +35381,7 @@
         <v>0.2632360089206748</v>
       </c>
       <c r="J13" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K13" t="n">
         <v>329</v>
@@ -35398,7 +35459,7 @@
         <v>0.3306614818250407</v>
       </c>
       <c r="J14" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K14" t="n">
         <v>308</v>
@@ -35476,7 +35537,7 @@
         <v>0.4120538759628692</v>
       </c>
       <c r="J15" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K15" t="n">
         <v>284</v>
@@ -35554,7 +35615,7 @@
         <v>0.362804614372756</v>
       </c>
       <c r="J16" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K16" t="n">
         <v>271</v>
@@ -35632,7 +35693,7 @@
         <v>0.1160966067719277</v>
       </c>
       <c r="J17" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K17" t="n">
         <v>252</v>
@@ -35710,7 +35771,7 @@
         <v>0.2244269794310636</v>
       </c>
       <c r="J18" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K18" t="n">
         <v>229</v>
@@ -35782,7 +35843,7 @@
         <v>0.1952661022743515</v>
       </c>
       <c r="J19" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K19" t="n">
         <v>200</v>
@@ -35854,7 +35915,7 @@
         <v>0.736006423831106</v>
       </c>
       <c r="J20" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K20" t="n">
         <v>198</v>
@@ -35926,7 +35987,7 @@
         <v>0.05702255727047541</v>
       </c>
       <c r="J21" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K21" t="n">
         <v>194</v>
@@ -36004,7 +36065,7 @@
         <v>0.7895189342187715</v>
       </c>
       <c r="J22" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K22" t="n">
         <v>215</v>
@@ -36060,7 +36121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W479"/>
+  <dimension ref="A1:W480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77824,7 +77885,11 @@
           <t>2025-06-14 22:12:35+00:00</t>
         </is>
       </c>
-      <c r="B479" t="inlineStr"/>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-41.09622757741267,172.10201219699675</t>
+        </is>
+      </c>
       <c r="C479" t="inlineStr">
         <is>
           <t>-41.09553469966049,172.10311777553636</t>
@@ -77863,6 +77928,71 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-41.09623165806833,172.10172638849826</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-41.09553667422278,172.10297957961225</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-41.09485512152128,172.10329168157324</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-41.094175229734645,172.10348701833394</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-41.09349844061707,172.10346476826572</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-41.09282250280041,172.10338246763533</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-41.09214697832957,172.10327075580943</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-41.09147189356801,172.10312778386177</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
+      <c r="M480" t="inlineStr"/>
+      <c r="N480" t="inlineStr"/>
+      <c r="O480" t="inlineStr"/>
+      <c r="P480" t="inlineStr"/>
+      <c r="Q480" t="inlineStr"/>
+      <c r="R480" t="inlineStr"/>
+      <c r="S480" t="inlineStr"/>
+      <c r="T480" t="inlineStr"/>
+      <c r="U480" t="inlineStr"/>
+      <c r="V480" t="inlineStr"/>
+      <c r="W480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W480"/>
+  <dimension ref="A1:W483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29246,9 +29246,7 @@
           <t>2025-06-14 22:12:35+00:00</t>
         </is>
       </c>
-      <c r="B479" t="n">
-        <v>501.741052631579</v>
-      </c>
+      <c r="B479" t="inlineStr"/>
       <c r="C479" t="n">
         <v>406.9304761904762</v>
       </c>
@@ -29287,9 +29285,7 @@
           <t>2025-06-21 22:18:50+00:00</t>
         </is>
       </c>
-      <c r="B480" t="n">
-        <v>525.748947368421</v>
-      </c>
+      <c r="B480" t="inlineStr"/>
       <c r="C480" t="n">
         <v>418.5390476190476</v>
       </c>
@@ -29330,6 +29326,145 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:07+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>480.5852631578948</v>
+      </c>
+      <c r="C481" t="n">
+        <v>412.8671428571428</v>
+      </c>
+      <c r="D481" t="n">
+        <v>383.42</v>
+      </c>
+      <c r="E481" t="n">
+        <v>375.6352631578947</v>
+      </c>
+      <c r="F481" t="inlineStr"/>
+      <c r="G481" t="inlineStr"/>
+      <c r="H481" t="inlineStr"/>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr"/>
+      <c r="N481" t="inlineStr"/>
+      <c r="O481" t="inlineStr"/>
+      <c r="P481" t="inlineStr"/>
+      <c r="Q481" t="inlineStr"/>
+      <c r="R481" t="inlineStr"/>
+      <c r="S481" t="inlineStr"/>
+      <c r="T481" t="inlineStr"/>
+      <c r="U481" t="inlineStr"/>
+      <c r="V481" t="inlineStr"/>
+      <c r="W481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>494.2</v>
+      </c>
+      <c r="C482" t="n">
+        <v>415.4685714285715</v>
+      </c>
+      <c r="D482" t="n">
+        <v>403.35</v>
+      </c>
+      <c r="E482" t="n">
+        <v>400.37</v>
+      </c>
+      <c r="F482" t="n">
+        <v>393.6533333333333</v>
+      </c>
+      <c r="G482" t="n">
+        <v>395.16</v>
+      </c>
+      <c r="H482" t="n">
+        <v>395.1028571428572</v>
+      </c>
+      <c r="I482" t="n">
+        <v>387.13</v>
+      </c>
+      <c r="J482" t="n">
+        <v>371.515</v>
+      </c>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
+      <c r="M482" t="inlineStr"/>
+      <c r="N482" t="inlineStr"/>
+      <c r="O482" t="inlineStr"/>
+      <c r="P482" t="inlineStr"/>
+      <c r="Q482" t="inlineStr"/>
+      <c r="R482" t="inlineStr"/>
+      <c r="S482" t="inlineStr"/>
+      <c r="T482" t="inlineStr"/>
+      <c r="U482" t="inlineStr"/>
+      <c r="V482" t="inlineStr"/>
+      <c r="W482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:27+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>474.4257894736842</v>
+      </c>
+      <c r="C483" t="n">
+        <v>402.952380952381</v>
+      </c>
+      <c r="D483" t="n">
+        <v>397.11</v>
+      </c>
+      <c r="E483" t="n">
+        <v>405.0557894736842</v>
+      </c>
+      <c r="F483" t="n">
+        <v>404.8311111111111</v>
+      </c>
+      <c r="G483" t="n">
+        <v>405.7933333333334</v>
+      </c>
+      <c r="H483" t="n">
+        <v>408.7385714285714</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr"/>
+      <c r="N483" t="inlineStr"/>
+      <c r="O483" t="inlineStr"/>
+      <c r="P483" t="inlineStr"/>
+      <c r="Q483" t="inlineStr"/>
+      <c r="R483" t="inlineStr"/>
+      <c r="S483" t="inlineStr"/>
+      <c r="T483" t="inlineStr"/>
+      <c r="U483" t="inlineStr"/>
+      <c r="V483" t="inlineStr"/>
+      <c r="W483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29341,7 +29476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34359,6 +34494,36 @@
       </c>
       <c r="B501" t="n">
         <v>-0.04</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -34532,28 +34697,28 @@
         <v>0.1148</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5420010674449545</v>
+        <v>-0.5389390957684277</v>
       </c>
       <c r="J2" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K2" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0200426541941825</v>
+        <v>0.02029164983273501</v>
       </c>
       <c r="M2" t="n">
-        <v>24.50827334556683</v>
+        <v>24.45261552016051</v>
       </c>
       <c r="N2" t="n">
-        <v>896.1749648749666</v>
+        <v>877.0274515209703</v>
       </c>
       <c r="O2" t="n">
-        <v>29.93618153464076</v>
+        <v>29.61464927229378</v>
       </c>
       <c r="P2" t="n">
-        <v>430.6226748422485</v>
+        <v>430.5905621491497</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34610,28 +34775,28 @@
         <v>0.1347</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05709350675605968</v>
+        <v>-0.01868202861636723</v>
       </c>
       <c r="J3" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K3" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008340341377407468</v>
+        <v>8.786630177970434e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>12.39325296327226</v>
+        <v>12.55449816348646</v>
       </c>
       <c r="N3" t="n">
-        <v>245.9017524848694</v>
+        <v>251.4683664133166</v>
       </c>
       <c r="O3" t="n">
-        <v>15.68125481219119</v>
+        <v>15.8577541415333</v>
       </c>
       <c r="P3" t="n">
-        <v>380.5612874132965</v>
+        <v>380.1999453269641</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34682,28 +34847,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1653726298846443</v>
+        <v>0.1918826592717874</v>
       </c>
       <c r="J4" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K4" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007098743421864562</v>
+        <v>0.009496945085190944</v>
       </c>
       <c r="M4" t="n">
-        <v>12.32224151567475</v>
+        <v>12.38906500588995</v>
       </c>
       <c r="N4" t="n">
-        <v>241.5780825153615</v>
+        <v>243.7596365377674</v>
       </c>
       <c r="O4" t="n">
-        <v>15.54278232863606</v>
+        <v>15.61280360914616</v>
       </c>
       <c r="P4" t="n">
-        <v>368.6704284958575</v>
+        <v>368.4196470728098</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34754,28 +34919,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1968133300291858</v>
+        <v>0.2262796533498581</v>
       </c>
       <c r="J5" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K5" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00991760077651771</v>
+        <v>0.0129428660576747</v>
       </c>
       <c r="M5" t="n">
-        <v>12.62660117480794</v>
+        <v>12.70845730202117</v>
       </c>
       <c r="N5" t="n">
-        <v>243.4018620667125</v>
+        <v>247.0749068838996</v>
       </c>
       <c r="O5" t="n">
-        <v>15.60134167521218</v>
+        <v>15.71861657029331</v>
       </c>
       <c r="P5" t="n">
-        <v>364.5934142848255</v>
+        <v>364.3145799328154</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34832,28 +34997,28 @@
         <v>0.126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1722293070873216</v>
+        <v>0.1988166560561327</v>
       </c>
       <c r="J6" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K6" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008813391084744659</v>
+        <v>0.01153974457988483</v>
       </c>
       <c r="M6" t="n">
-        <v>11.81532322762757</v>
+        <v>11.91640776457305</v>
       </c>
       <c r="N6" t="n">
-        <v>206.481090201026</v>
+        <v>210.3464892345338</v>
       </c>
       <c r="O6" t="n">
-        <v>14.36944989208098</v>
+        <v>14.50332683333496</v>
       </c>
       <c r="P6" t="n">
-        <v>364.6258120108313</v>
+        <v>364.3700963878404</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34910,28 +35075,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1114850281666646</v>
+        <v>0.1378521875141499</v>
       </c>
       <c r="J7" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K7" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003728635133570468</v>
+        <v>0.005609251950874694</v>
       </c>
       <c r="M7" t="n">
-        <v>11.21702281921664</v>
+        <v>11.32715479238853</v>
       </c>
       <c r="N7" t="n">
-        <v>203.743169768436</v>
+        <v>207.4434378816176</v>
       </c>
       <c r="O7" t="n">
-        <v>14.27386316903858</v>
+        <v>14.40289685728595</v>
       </c>
       <c r="P7" t="n">
-        <v>368.1417147849857</v>
+        <v>367.8856603996859</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34988,28 +35153,28 @@
         <v>0.0893</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05683711027884923</v>
+        <v>0.08265341601224749</v>
       </c>
       <c r="J8" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K8" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009425615245149954</v>
+        <v>0.001966050460368685</v>
       </c>
       <c r="M8" t="n">
-        <v>11.36121585002883</v>
+        <v>11.46367612272435</v>
       </c>
       <c r="N8" t="n">
-        <v>210.5450030996192</v>
+        <v>214.0362962684313</v>
       </c>
       <c r="O8" t="n">
-        <v>14.51016895489571</v>
+        <v>14.62997936664407</v>
       </c>
       <c r="P8" t="n">
-        <v>372.0863330961503</v>
+        <v>371.8358974390314</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35066,28 +35231,28 @@
         <v>0.0872</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1595351518117236</v>
+        <v>0.1647164952641726</v>
       </c>
       <c r="J9" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K9" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00738482919657979</v>
+        <v>0.007891470912993026</v>
       </c>
       <c r="M9" t="n">
-        <v>11.08760715676738</v>
+        <v>11.08869300072528</v>
       </c>
       <c r="N9" t="n">
-        <v>206.6457560521018</v>
+        <v>206.4212896327026</v>
       </c>
       <c r="O9" t="n">
-        <v>14.37517847026957</v>
+        <v>14.3673689182363</v>
       </c>
       <c r="P9" t="n">
-        <v>371.7403407642416</v>
+        <v>371.6894222821429</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35144,28 +35309,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06790150986514293</v>
+        <v>0.06572241691189233</v>
       </c>
       <c r="J10" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K10" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00155575970844446</v>
+        <v>0.001464274328289439</v>
       </c>
       <c r="M10" t="n">
-        <v>10.06524623826215</v>
+        <v>10.04939864240242</v>
       </c>
       <c r="N10" t="n">
-        <v>176.3223465384133</v>
+        <v>175.8722791139896</v>
       </c>
       <c r="O10" t="n">
-        <v>13.27864249606914</v>
+        <v>13.26168462579282</v>
       </c>
       <c r="P10" t="n">
-        <v>374.2632910709068</v>
+        <v>374.2848873878898</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35225,7 +35390,7 @@
         <v>0.2229844651698456</v>
       </c>
       <c r="J11" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K11" t="n">
         <v>344</v>
@@ -35303,7 +35468,7 @@
         <v>0.1845036808154283</v>
       </c>
       <c r="J12" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K12" t="n">
         <v>332</v>
@@ -35381,7 +35546,7 @@
         <v>0.2632360089206748</v>
       </c>
       <c r="J13" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K13" t="n">
         <v>329</v>
@@ -35459,7 +35624,7 @@
         <v>0.3306614818250407</v>
       </c>
       <c r="J14" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K14" t="n">
         <v>308</v>
@@ -35537,7 +35702,7 @@
         <v>0.4120538759628692</v>
       </c>
       <c r="J15" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K15" t="n">
         <v>284</v>
@@ -35615,7 +35780,7 @@
         <v>0.362804614372756</v>
       </c>
       <c r="J16" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K16" t="n">
         <v>271</v>
@@ -35693,7 +35858,7 @@
         <v>0.1160966067719277</v>
       </c>
       <c r="J17" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K17" t="n">
         <v>252</v>
@@ -35771,7 +35936,7 @@
         <v>0.2244269794310636</v>
       </c>
       <c r="J18" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K18" t="n">
         <v>229</v>
@@ -35843,7 +36008,7 @@
         <v>0.1952661022743515</v>
       </c>
       <c r="J19" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K19" t="n">
         <v>200</v>
@@ -35915,7 +36080,7 @@
         <v>0.736006423831106</v>
       </c>
       <c r="J20" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K20" t="n">
         <v>198</v>
@@ -35987,7 +36152,7 @@
         <v>0.05702255727047541</v>
       </c>
       <c r="J21" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K21" t="n">
         <v>194</v>
@@ -36065,7 +36230,7 @@
         <v>0.7895189342187715</v>
       </c>
       <c r="J22" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K22" t="n">
         <v>215</v>
@@ -36121,7 +36286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W480"/>
+  <dimension ref="A1:W483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77885,11 +78050,7 @@
           <t>2025-06-14 22:12:35+00:00</t>
         </is>
       </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>-41.09622757741267,172.10201219699675</t>
-        </is>
-      </c>
+      <c r="B479" t="inlineStr"/>
       <c r="C479" t="inlineStr">
         <is>
           <t>-41.09553469966049,172.10311777553636</t>
@@ -77934,11 +78095,7 @@
           <t>2025-06-21 22:18:50+00:00</t>
         </is>
       </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>-41.09623165806833,172.10172638849826</t>
-        </is>
-      </c>
+      <c r="B480" t="inlineStr"/>
       <c r="C480" t="inlineStr">
         <is>
           <t>-41.09553667422278,172.10297957961225</t>
@@ -77993,6 +78150,185 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:07+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-41.09622398094535,172.10226405181535</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-41.09553570947973,172.10304710162671</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-41.09485393744108,172.10337453704605</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-41.09417584332049,172.10344408731106</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr"/>
+      <c r="G481" t="inlineStr"/>
+      <c r="H481" t="inlineStr"/>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr"/>
+      <c r="N481" t="inlineStr"/>
+      <c r="O481" t="inlineStr"/>
+      <c r="P481" t="inlineStr"/>
+      <c r="Q481" t="inlineStr"/>
+      <c r="R481" t="inlineStr"/>
+      <c r="S481" t="inlineStr"/>
+      <c r="T481" t="inlineStr"/>
+      <c r="U481" t="inlineStr"/>
+      <c r="V481" t="inlineStr"/>
+      <c r="W481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-41.09622629550292,172.10210197149976</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-41.09553615196566,172.10301613254242</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-41.094857327902496,172.10313727991837</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-41.09418005130717,172.10314963511527</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-41.09350213206966,172.103206471901</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-41.09282560476315,172.10316541520422</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-41.092148804455405,172.1031429745159</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>-41.09147065056494,172.10321476177177</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>-41.09080059976751,172.10337783223994</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
+      <c r="M482" t="inlineStr"/>
+      <c r="N482" t="inlineStr"/>
+      <c r="O482" t="inlineStr"/>
+      <c r="P482" t="inlineStr"/>
+      <c r="Q482" t="inlineStr"/>
+      <c r="R482" t="inlineStr"/>
+      <c r="S482" t="inlineStr"/>
+      <c r="T482" t="inlineStr"/>
+      <c r="U482" t="inlineStr"/>
+      <c r="V482" t="inlineStr"/>
+      <c r="W482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:27+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-41.0962229337362,172.1023373789327</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-41.09553402296743,172.10316513334752</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-41.09485626641571,172.1032115641387</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-41.09418084839031,172.10309385360137</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-41.093504033523836,172.10307340852685</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-41.09282741357998,172.10303883434713</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-41.09215112397029,172.10298065451371</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr"/>
+      <c r="N483" t="inlineStr"/>
+      <c r="O483" t="inlineStr"/>
+      <c r="P483" t="inlineStr"/>
+      <c r="Q483" t="inlineStr"/>
+      <c r="R483" t="inlineStr"/>
+      <c r="S483" t="inlineStr"/>
+      <c r="T483" t="inlineStr"/>
+      <c r="U483" t="inlineStr"/>
+      <c r="V483" t="inlineStr"/>
+      <c r="W483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W483"/>
+  <dimension ref="A1:W489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29222,7 +29222,9 @@
       <c r="J478" t="n">
         <v>375.12</v>
       </c>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>348.3577777777778</v>
+      </c>
       <c r="L478" t="inlineStr"/>
       <c r="M478" t="inlineStr"/>
       <c r="N478" t="inlineStr"/>
@@ -29465,6 +29467,350 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>477.1184210526316</v>
+      </c>
+      <c r="C484" t="n">
+        <v>412.9647619047619</v>
+      </c>
+      <c r="D484" t="n">
+        <v>410.63</v>
+      </c>
+      <c r="E484" t="n">
+        <v>408.7084210526315</v>
+      </c>
+      <c r="F484" t="n">
+        <v>406.8722222222222</v>
+      </c>
+      <c r="G484" t="n">
+        <v>406.5266666666666</v>
+      </c>
+      <c r="H484" t="n">
+        <v>409.8571428571428</v>
+      </c>
+      <c r="I484" t="n">
+        <v>409.0666666666667</v>
+      </c>
+      <c r="J484" t="n">
+        <v>400.79</v>
+      </c>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
+      <c r="M484" t="inlineStr"/>
+      <c r="N484" t="inlineStr"/>
+      <c r="O484" t="inlineStr"/>
+      <c r="P484" t="inlineStr"/>
+      <c r="Q484" t="inlineStr"/>
+      <c r="R484" t="inlineStr"/>
+      <c r="S484" t="inlineStr"/>
+      <c r="T484" t="inlineStr"/>
+      <c r="U484" t="inlineStr"/>
+      <c r="V484" t="inlineStr"/>
+      <c r="W484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>472.6436842105263</v>
+      </c>
+      <c r="C485" t="n">
+        <v>412.3257142857143</v>
+      </c>
+      <c r="D485" t="n">
+        <v>398.45</v>
+      </c>
+      <c r="E485" t="n">
+        <v>387.9636842105263</v>
+      </c>
+      <c r="F485" t="n">
+        <v>383.77</v>
+      </c>
+      <c r="G485" t="n">
+        <v>377.83</v>
+      </c>
+      <c r="H485" t="n">
+        <v>383.2185714285715</v>
+      </c>
+      <c r="I485" t="n">
+        <v>384.37</v>
+      </c>
+      <c r="J485" t="n">
+        <v>383.715</v>
+      </c>
+      <c r="K485" t="n">
+        <v>371.57</v>
+      </c>
+      <c r="L485" t="n">
+        <v>356.065</v>
+      </c>
+      <c r="M485" t="n">
+        <v>347.9005882352941</v>
+      </c>
+      <c r="N485" t="inlineStr"/>
+      <c r="O485" t="inlineStr"/>
+      <c r="P485" t="inlineStr"/>
+      <c r="Q485" t="inlineStr"/>
+      <c r="R485" t="inlineStr"/>
+      <c r="S485" t="inlineStr"/>
+      <c r="T485" t="inlineStr"/>
+      <c r="U485" t="inlineStr"/>
+      <c r="V485" t="inlineStr"/>
+      <c r="W485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>473.7842105263158</v>
+      </c>
+      <c r="C486" t="n">
+        <v>409.1461904761905</v>
+      </c>
+      <c r="D486" t="n">
+        <v>393.18</v>
+      </c>
+      <c r="E486" t="n">
+        <v>379.4842105263158</v>
+      </c>
+      <c r="F486" t="n">
+        <v>373.3622222222222</v>
+      </c>
+      <c r="G486" t="n">
+        <v>378.8666666666666</v>
+      </c>
+      <c r="H486" t="n">
+        <v>382.2742857142857</v>
+      </c>
+      <c r="I486" t="n">
+        <v>386.3566666666666</v>
+      </c>
+      <c r="J486" t="n">
+        <v>387.335</v>
+      </c>
+      <c r="K486" t="n">
+        <v>376.3022222222222</v>
+      </c>
+      <c r="L486" t="n">
+        <v>363.885</v>
+      </c>
+      <c r="M486" t="n">
+        <v>327.5358823529411</v>
+      </c>
+      <c r="N486" t="inlineStr"/>
+      <c r="O486" t="inlineStr"/>
+      <c r="P486" t="inlineStr"/>
+      <c r="Q486" t="inlineStr"/>
+      <c r="R486" t="inlineStr"/>
+      <c r="S486" t="inlineStr"/>
+      <c r="T486" t="inlineStr"/>
+      <c r="U486" t="inlineStr"/>
+      <c r="V486" t="inlineStr"/>
+      <c r="W486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>426.551052631579</v>
+      </c>
+      <c r="C487" t="n">
+        <v>402.917619047619</v>
+      </c>
+      <c r="D487" t="n">
+        <v>384.29</v>
+      </c>
+      <c r="E487" t="n">
+        <v>378.5010526315789</v>
+      </c>
+      <c r="F487" t="n">
+        <v>377.3122222222222</v>
+      </c>
+      <c r="G487" t="n">
+        <v>379.2666666666667</v>
+      </c>
+      <c r="H487" t="n">
+        <v>384.1014285714285</v>
+      </c>
+      <c r="I487" t="n">
+        <v>379.2966666666666</v>
+      </c>
+      <c r="J487" t="n">
+        <v>375.445</v>
+      </c>
+      <c r="K487" t="n">
+        <v>370.2122222222222</v>
+      </c>
+      <c r="L487" t="n">
+        <v>357.555</v>
+      </c>
+      <c r="M487" t="n">
+        <v>344.5576470588235</v>
+      </c>
+      <c r="N487" t="n">
+        <v>314.3814285714286</v>
+      </c>
+      <c r="O487" t="inlineStr"/>
+      <c r="P487" t="inlineStr"/>
+      <c r="Q487" t="inlineStr"/>
+      <c r="R487" t="inlineStr"/>
+      <c r="S487" t="inlineStr"/>
+      <c r="T487" t="inlineStr"/>
+      <c r="U487" t="inlineStr"/>
+      <c r="V487" t="inlineStr"/>
+      <c r="W487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>437.9568421052632</v>
+      </c>
+      <c r="C488" t="n">
+        <v>398.0933333333333</v>
+      </c>
+      <c r="D488" t="n">
+        <v>396.61</v>
+      </c>
+      <c r="E488" t="n">
+        <v>386.8968421052632</v>
+      </c>
+      <c r="F488" t="n">
+        <v>380.4355555555555</v>
+      </c>
+      <c r="G488" t="n">
+        <v>385.1966666666667</v>
+      </c>
+      <c r="H488" t="n">
+        <v>393.51</v>
+      </c>
+      <c r="I488" t="n">
+        <v>389.3166666666667</v>
+      </c>
+      <c r="J488" t="n">
+        <v>387.27</v>
+      </c>
+      <c r="K488" t="n">
+        <v>375.0455555555556</v>
+      </c>
+      <c r="L488" t="n">
+        <v>358.4</v>
+      </c>
+      <c r="M488" t="n">
+        <v>347.4505882352942</v>
+      </c>
+      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr"/>
+      <c r="P488" t="inlineStr"/>
+      <c r="Q488" t="inlineStr"/>
+      <c r="R488" t="inlineStr"/>
+      <c r="S488" t="inlineStr"/>
+      <c r="T488" t="inlineStr"/>
+      <c r="U488" t="inlineStr"/>
+      <c r="V488" t="inlineStr"/>
+      <c r="W488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>403.0715789473685</v>
+      </c>
+      <c r="C489" t="n">
+        <v>377.9085714285715</v>
+      </c>
+      <c r="D489" t="n">
+        <v>379.66</v>
+      </c>
+      <c r="E489" t="n">
+        <v>377.9415789473685</v>
+      </c>
+      <c r="F489" t="n">
+        <v>378.8033333333333</v>
+      </c>
+      <c r="G489" t="n">
+        <v>376.74</v>
+      </c>
+      <c r="H489" t="n">
+        <v>376.0628571428572</v>
+      </c>
+      <c r="I489" t="n">
+        <v>376.15</v>
+      </c>
+      <c r="J489" t="n">
+        <v>374.86</v>
+      </c>
+      <c r="K489" t="n">
+        <v>376.9233333333333</v>
+      </c>
+      <c r="L489" t="n">
+        <v>363.39</v>
+      </c>
+      <c r="M489" t="n">
+        <v>357.8276470588235</v>
+      </c>
+      <c r="N489" t="n">
+        <v>344.0228571428572</v>
+      </c>
+      <c r="O489" t="n">
+        <v>342.92</v>
+      </c>
+      <c r="P489" t="n">
+        <v>340.35</v>
+      </c>
+      <c r="Q489" t="inlineStr"/>
+      <c r="R489" t="inlineStr"/>
+      <c r="S489" t="inlineStr"/>
+      <c r="T489" t="inlineStr"/>
+      <c r="U489" t="inlineStr"/>
+      <c r="V489" t="inlineStr"/>
+      <c r="W489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29476,7 +29822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B504"/>
+  <dimension ref="A1:B510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34524,6 +34870,66 @@
       </c>
       <c r="B504" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -34697,28 +35103,28 @@
         <v>0.1148</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5389390957684277</v>
+        <v>-0.4495729491320705</v>
       </c>
       <c r="J2" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K2" t="n">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02029164983273501</v>
+        <v>0.01414806569951321</v>
       </c>
       <c r="M2" t="n">
-        <v>24.45261552016051</v>
+        <v>24.65911607458127</v>
       </c>
       <c r="N2" t="n">
-        <v>877.0274515209703</v>
+        <v>892.0711987337063</v>
       </c>
       <c r="O2" t="n">
-        <v>29.61464927229378</v>
+        <v>29.86756097731628</v>
       </c>
       <c r="P2" t="n">
-        <v>430.5905621491497</v>
+        <v>429.7431823287347</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34775,28 +35181,28 @@
         <v>0.1347</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01868202861636723</v>
+        <v>0.03464885483879052</v>
       </c>
       <c r="J3" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K3" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L3" t="n">
-        <v>8.786630177970434e-05</v>
+        <v>0.0002986617241129697</v>
       </c>
       <c r="M3" t="n">
-        <v>12.55449816348646</v>
+        <v>12.73597810169948</v>
       </c>
       <c r="N3" t="n">
-        <v>251.4683664133166</v>
+        <v>257.0733294285847</v>
       </c>
       <c r="O3" t="n">
-        <v>15.8577541415333</v>
+        <v>16.03350646080216</v>
       </c>
       <c r="P3" t="n">
-        <v>380.1999453269641</v>
+        <v>379.69629725332</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34847,28 +35253,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1918826592717874</v>
+        <v>0.2401093082746991</v>
       </c>
       <c r="J4" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K4" t="n">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009496945085190944</v>
+        <v>0.01470510202194386</v>
       </c>
       <c r="M4" t="n">
-        <v>12.38906500588995</v>
+        <v>12.49471178392709</v>
       </c>
       <c r="N4" t="n">
-        <v>243.7596365377674</v>
+        <v>247.5938536830435</v>
       </c>
       <c r="O4" t="n">
-        <v>15.61280360914616</v>
+        <v>15.73511530567995</v>
       </c>
       <c r="P4" t="n">
-        <v>368.4196470728098</v>
+        <v>367.9617873881083</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34919,28 +35325,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2262796533498581</v>
+        <v>0.2651466113220536</v>
       </c>
       <c r="J5" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K5" t="n">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0129428660576747</v>
+        <v>0.01772882931459774</v>
       </c>
       <c r="M5" t="n">
-        <v>12.70845730202117</v>
+        <v>12.75313571251719</v>
       </c>
       <c r="N5" t="n">
-        <v>247.0749068838996</v>
+        <v>248.9291900881993</v>
       </c>
       <c r="O5" t="n">
-        <v>15.71861657029331</v>
+        <v>15.77748998060843</v>
       </c>
       <c r="P5" t="n">
-        <v>364.3145799328154</v>
+        <v>363.9456547181405</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34997,28 +35403,28 @@
         <v>0.126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1988166560561327</v>
+        <v>0.2341863635116818</v>
       </c>
       <c r="J6" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K6" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01153974457988483</v>
+        <v>0.01599433674878192</v>
       </c>
       <c r="M6" t="n">
-        <v>11.91640776457305</v>
+        <v>11.94788934936013</v>
       </c>
       <c r="N6" t="n">
-        <v>210.3464892345338</v>
+        <v>211.8425830807894</v>
       </c>
       <c r="O6" t="n">
-        <v>14.50332683333496</v>
+        <v>14.55481305550811</v>
       </c>
       <c r="P6" t="n">
-        <v>364.3700963878404</v>
+        <v>364.0290039599748</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35075,28 +35481,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1378521875141499</v>
+        <v>0.1704277401678777</v>
       </c>
       <c r="J7" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K7" t="n">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005609251950874694</v>
+        <v>0.00860231127554878</v>
       </c>
       <c r="M7" t="n">
-        <v>11.32715479238853</v>
+        <v>11.35613844056017</v>
       </c>
       <c r="N7" t="n">
-        <v>207.4434378816176</v>
+        <v>208.2943761274794</v>
       </c>
       <c r="O7" t="n">
-        <v>14.40289685728595</v>
+        <v>14.43240714944944</v>
       </c>
       <c r="P7" t="n">
-        <v>367.8856603996859</v>
+        <v>367.5684968384693</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35153,28 +35559,28 @@
         <v>0.0893</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08265341601224749</v>
+        <v>0.1198926112438022</v>
       </c>
       <c r="J8" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K8" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001966050460368685</v>
+        <v>0.004140155265821455</v>
       </c>
       <c r="M8" t="n">
-        <v>11.46367612272435</v>
+        <v>11.51378231638187</v>
       </c>
       <c r="N8" t="n">
-        <v>214.0362962684313</v>
+        <v>215.6582005101058</v>
       </c>
       <c r="O8" t="n">
-        <v>14.62997936664407</v>
+        <v>14.68530559811766</v>
       </c>
       <c r="P8" t="n">
-        <v>371.8358974390314</v>
+        <v>371.4737572601174</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35231,28 +35637,28 @@
         <v>0.0872</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1647164952641726</v>
+        <v>0.1951876062194413</v>
       </c>
       <c r="J9" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K9" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007891470912993026</v>
+        <v>0.0111363185321276</v>
       </c>
       <c r="M9" t="n">
-        <v>11.08869300072528</v>
+        <v>11.09890190688384</v>
       </c>
       <c r="N9" t="n">
-        <v>206.4212896327026</v>
+        <v>206.9448912902046</v>
       </c>
       <c r="O9" t="n">
-        <v>14.3673689182363</v>
+        <v>14.3855792823996</v>
       </c>
       <c r="P9" t="n">
-        <v>371.6894222821429</v>
+        <v>371.3888426896472</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35309,28 +35715,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06572241691189233</v>
+        <v>0.0905692713915535</v>
       </c>
       <c r="J10" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K10" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001464274328289439</v>
+        <v>0.002815581914807463</v>
       </c>
       <c r="M10" t="n">
-        <v>10.04939864240242</v>
+        <v>10.03927415806988</v>
       </c>
       <c r="N10" t="n">
-        <v>175.8722791139896</v>
+        <v>175.4635015526611</v>
       </c>
       <c r="O10" t="n">
-        <v>13.26168462579282</v>
+        <v>13.24626368273941</v>
       </c>
       <c r="P10" t="n">
-        <v>374.2848873878898</v>
+        <v>374.0377563032624</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35387,28 +35793,28 @@
         <v>0.102</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2229844651698456</v>
+        <v>0.2141491847851919</v>
       </c>
       <c r="J11" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K11" t="n">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0152991109151166</v>
+        <v>0.01440248226094942</v>
       </c>
       <c r="M11" t="n">
-        <v>10.73985816854813</v>
+        <v>10.66534815899158</v>
       </c>
       <c r="N11" t="n">
-        <v>190.2247059148845</v>
+        <v>188.7910651811892</v>
       </c>
       <c r="O11" t="n">
-        <v>13.79219728378638</v>
+        <v>13.74012609771792</v>
       </c>
       <c r="P11" t="n">
-        <v>367.1222034436943</v>
+        <v>367.2089285038097</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35465,28 +35871,28 @@
         <v>0.0958</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1845036808154283</v>
+        <v>0.1632537298347564</v>
       </c>
       <c r="J12" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K12" t="n">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01170234066596643</v>
+        <v>0.00936288811738184</v>
       </c>
       <c r="M12" t="n">
-        <v>10.15775919118428</v>
+        <v>10.13963600876989</v>
       </c>
       <c r="N12" t="n">
-        <v>172.3575173713141</v>
+        <v>170.9800753100807</v>
       </c>
       <c r="O12" t="n">
-        <v>13.12850019504567</v>
+        <v>13.0759349688686</v>
       </c>
       <c r="P12" t="n">
-        <v>363.5716775735598</v>
+        <v>363.7804692437397</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35543,28 +35949,28 @@
         <v>0.0956</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2632360089206748</v>
+        <v>0.216189216426721</v>
       </c>
       <c r="J13" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K13" t="n">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0248131251778626</v>
+        <v>0.01666462103013377</v>
       </c>
       <c r="M13" t="n">
-        <v>10.31665218933513</v>
+        <v>10.46045361943338</v>
       </c>
       <c r="N13" t="n">
-        <v>167.4745859386729</v>
+        <v>171.5494907938404</v>
       </c>
       <c r="O13" t="n">
-        <v>12.94119723745345</v>
+        <v>13.09769028469678</v>
       </c>
       <c r="P13" t="n">
-        <v>357.1234876607761</v>
+        <v>357.5757682555567</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35621,28 +36027,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3306614818250407</v>
+        <v>0.2974868520602771</v>
       </c>
       <c r="J14" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K14" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03131216842905549</v>
+        <v>0.02493367293195281</v>
       </c>
       <c r="M14" t="n">
-        <v>11.95115520046553</v>
+        <v>12.0802167409173</v>
       </c>
       <c r="N14" t="n">
-        <v>213.1252543176745</v>
+        <v>219.1738780700709</v>
       </c>
       <c r="O14" t="n">
-        <v>14.59881003087835</v>
+        <v>14.80452221687923</v>
       </c>
       <c r="P14" t="n">
-        <v>351.3973303377664</v>
+        <v>351.7099755582696</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35699,28 +36105,28 @@
         <v>0.0883</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4120538759628692</v>
+        <v>0.4042554596799679</v>
       </c>
       <c r="J15" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K15" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04506758193194527</v>
+        <v>0.0435917258032803</v>
       </c>
       <c r="M15" t="n">
-        <v>11.79457808186066</v>
+        <v>11.80270974274538</v>
       </c>
       <c r="N15" t="n">
-        <v>218.6849404173685</v>
+        <v>218.5199760849811</v>
       </c>
       <c r="O15" t="n">
-        <v>14.78799987886694</v>
+        <v>14.78242118480532</v>
       </c>
       <c r="P15" t="n">
-        <v>345.3637989063159</v>
+        <v>345.440289174041</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35777,28 +36183,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.362804614372756</v>
+        <v>0.3566413752610421</v>
       </c>
       <c r="J16" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K16" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03542440591200879</v>
+        <v>0.03442225491598572</v>
       </c>
       <c r="M16" t="n">
-        <v>11.55478678392081</v>
+        <v>11.55312761270013</v>
       </c>
       <c r="N16" t="n">
-        <v>215.6948927585271</v>
+        <v>215.2683325750796</v>
       </c>
       <c r="O16" t="n">
-        <v>14.68655482945293</v>
+        <v>14.67202551030633</v>
       </c>
       <c r="P16" t="n">
-        <v>340.9427750681696</v>
+        <v>341.0041268080838</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35858,7 +36264,7 @@
         <v>0.1160966067719277</v>
       </c>
       <c r="J17" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K17" t="n">
         <v>252</v>
@@ -35936,7 +36342,7 @@
         <v>0.2244269794310636</v>
       </c>
       <c r="J18" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K18" t="n">
         <v>229</v>
@@ -36008,7 +36414,7 @@
         <v>0.1952661022743515</v>
       </c>
       <c r="J19" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K19" t="n">
         <v>200</v>
@@ -36080,7 +36486,7 @@
         <v>0.736006423831106</v>
       </c>
       <c r="J20" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K20" t="n">
         <v>198</v>
@@ -36152,7 +36558,7 @@
         <v>0.05702255727047541</v>
       </c>
       <c r="J21" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K21" t="n">
         <v>194</v>
@@ -36230,7 +36636,7 @@
         <v>0.7895189342187715</v>
       </c>
       <c r="J22" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K22" t="n">
         <v>215</v>
@@ -36286,7 +36692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W483"/>
+  <dimension ref="A1:W489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78026,7 +78432,11 @@
           <t>-41.09080284698988,172.10333501432427</t>
         </is>
       </c>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>-41.09011406574351,172.1035390129535</t>
+        </is>
+      </c>
       <c r="L478" t="inlineStr"/>
       <c r="M478" t="inlineStr"/>
       <c r="N478" t="inlineStr"/>
@@ -78329,6 +78739,496 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-41.096223391532426,172.10230532377332</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-41.09553572608424,172.1030459395066</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-41.09485856624317,172.1030506149928</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-41.09418146970784,172.10305037121208</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-41.09350438072109,172.10304911057221</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-41.09282753832084,172.10303010463267</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-41.09215131423569,172.10296733900145</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-41.091474382211985,172.10295362963697</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>-41.09081884824826,172.10303012218262</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
+      <c r="M484" t="inlineStr"/>
+      <c r="N484" t="inlineStr"/>
+      <c r="O484" t="inlineStr"/>
+      <c r="P484" t="inlineStr"/>
+      <c r="Q484" t="inlineStr"/>
+      <c r="R484" t="inlineStr"/>
+      <c r="S484" t="inlineStr"/>
+      <c r="T484" t="inlineStr"/>
+      <c r="U484" t="inlineStr"/>
+      <c r="V484" t="inlineStr"/>
+      <c r="W484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-41.09622263074107,172.10235859448565</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-41.09553561738523,172.10305354714177</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-41.09485649436723,172.10319561207868</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-41.094177940782046,172.10329732486122</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-41.09350045068561,172.10332412584452</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-41.09282265649045,172.10337171421537</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-41.09214678268218,172.10328444544737</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-41.09147018101932,172.10324761656568</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>-41.09080820472758,172.10323292832598</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>-41.090141614011124,172.10326506235702</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>-41.089454528402634,172.10331243968184</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>-41.08877464728541,172.10327297764016</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr"/>
+      <c r="O485" t="inlineStr"/>
+      <c r="P485" t="inlineStr"/>
+      <c r="Q485" t="inlineStr"/>
+      <c r="R485" t="inlineStr"/>
+      <c r="S485" t="inlineStr"/>
+      <c r="T485" t="inlineStr"/>
+      <c r="U485" t="inlineStr"/>
+      <c r="V485" t="inlineStr"/>
+      <c r="W485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-41.096222824654824,172.1023450167824</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-41.09553507655566,172.10309139824435</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-41.094855597858576,172.10325834891123</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-41.09417649817051,172.10339826790445</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-41.09349867995145,172.10344802291613</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-41.092822832864144,172.1033593735747</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-41.092146622031365,172.10329568625562</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-41.091470519002385,172.10322396746287</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>-41.09081046124618,172.1031899322408</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>-41.090147230132686,172.10320921265392</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>-41.08946467626053,172.10322030858072</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>-41.08874822003027,172.10351290121818</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr"/>
+      <c r="O486" t="inlineStr"/>
+      <c r="P486" t="inlineStr"/>
+      <c r="Q486" t="inlineStr"/>
+      <c r="R486" t="inlineStr"/>
+      <c r="S486" t="inlineStr"/>
+      <c r="T486" t="inlineStr"/>
+      <c r="U486" t="inlineStr"/>
+      <c r="V486" t="inlineStr"/>
+      <c r="W486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-41.09621479267243,172.10290731661135</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-41.09553401705418,172.10316554717562</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-41.09485408545435,172.10336418011207</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-41.09417633090028,172.1034099718087</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-41.093499352003015,172.10340100102172</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-41.09282290091796,172.1033546119127</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-41.09214693288119,172.10327393588685</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-41.09146931789288,172.10330800907255</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>-41.090803049581965,172.10333115417916</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>-41.09014000261834,172.10328108685343</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>-41.08945646195159,172.10329488529254</t>
+        </is>
+      </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>-41.088770309188966,172.1033123619882</t>
+        </is>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>-41.088061902369496,172.1035322331621</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr"/>
+      <c r="P487" t="inlineStr"/>
+      <c r="Q487" t="inlineStr"/>
+      <c r="R487" t="inlineStr"/>
+      <c r="S487" t="inlineStr"/>
+      <c r="T487" t="inlineStr"/>
+      <c r="U487" t="inlineStr"/>
+      <c r="V487" t="inlineStr"/>
+      <c r="W487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-41.09621673247451,172.10277153333163</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-41.09553319639372,172.10322297858306</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-41.09485618135861,172.10321751639984</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-41.09417775928522,172.1033100249761</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-41.0934998833922,172.10336381999593</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-41.09282390979252,172.10328402027284</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>-41.09214853348615,172.10316193594048</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>-41.09147102256546,172.10318873188652</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>-41.09081042072873,172.10319070426996</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>-41.09014573874452,172.10322404383916</t>
+        </is>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>-41.08945755849327,172.10328492995052</t>
+        </is>
+      </c>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>-41.08877406332636,172.10327827924633</t>
+        </is>
+      </c>
+      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr"/>
+      <c r="P488" t="inlineStr"/>
+      <c r="Q488" t="inlineStr"/>
+      <c r="R488" t="inlineStr"/>
+      <c r="S488" t="inlineStr"/>
+      <c r="T488" t="inlineStr"/>
+      <c r="U488" t="inlineStr"/>
+      <c r="V488" t="inlineStr"/>
+      <c r="W488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-41.096210798974184,172.1031868342867</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-41.095529762448116,172.10346327099228</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-41.09485329774075,172.10341929804784</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-41.09417623571333,172.1034166320069</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-41.09349960569513,172.10338325042176</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-41.092822471041444,172.10338468974422</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-41.09214556525707,172.103369627305</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>-41.09146878253441,172.103345466711</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>-41.09080268491613,172.10333810244032</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>-41.090147967254865,172.10320188229778</t>
+        </is>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>-41.08946403391111,172.10322614040953</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>-41.088787529436225,172.1031560234921</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>-41.08810033060619,172.10318301374366</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>-41.0874296248562,172.1030606224862</t>
+        </is>
+      </c>
+      <c r="P489" t="inlineStr">
+        <is>
+          <t>-41.08675690601729,172.10295661942723</t>
+        </is>
+      </c>
+      <c r="Q489" t="inlineStr"/>
+      <c r="R489" t="inlineStr"/>
+      <c r="S489" t="inlineStr"/>
+      <c r="T489" t="inlineStr"/>
+      <c r="U489" t="inlineStr"/>
+      <c r="V489" t="inlineStr"/>
+      <c r="W489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W489"/>
+  <dimension ref="A1:W491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29811,6 +29811,130 @@
         </is>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>410.7842105263158</v>
+      </c>
+      <c r="C490" t="n">
+        <v>388.0423809523809</v>
+      </c>
+      <c r="D490" t="n">
+        <v>387.97</v>
+      </c>
+      <c r="E490" t="n">
+        <v>388.0642105263158</v>
+      </c>
+      <c r="F490" t="n">
+        <v>379.4811111111111</v>
+      </c>
+      <c r="G490" t="n">
+        <v>380.1533333333334</v>
+      </c>
+      <c r="H490" t="n">
+        <v>372.5085714285714</v>
+      </c>
+      <c r="I490" t="n">
+        <v>375.4333333333333</v>
+      </c>
+      <c r="J490" t="n">
+        <v>387.675</v>
+      </c>
+      <c r="K490" t="n">
+        <v>378.2711111111111</v>
+      </c>
+      <c r="L490" t="n">
+        <v>370.545</v>
+      </c>
+      <c r="M490" t="n">
+        <v>362.6782352941176</v>
+      </c>
+      <c r="N490" t="n">
+        <v>352.0785714285714</v>
+      </c>
+      <c r="O490" t="n">
+        <v>345.2133333333334</v>
+      </c>
+      <c r="P490" t="n">
+        <v>337.1933333333333</v>
+      </c>
+      <c r="Q490" t="inlineStr"/>
+      <c r="R490" t="inlineStr"/>
+      <c r="S490" t="inlineStr"/>
+      <c r="T490" t="inlineStr"/>
+      <c r="U490" t="inlineStr"/>
+      <c r="V490" t="inlineStr"/>
+      <c r="W490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="n">
+        <v>346.6133333333333</v>
+      </c>
+      <c r="D491" t="n">
+        <v>360.04</v>
+      </c>
+      <c r="E491" t="n">
+        <v>364.0752631578948</v>
+      </c>
+      <c r="F491" t="n">
+        <v>368.8255555555555</v>
+      </c>
+      <c r="G491" t="n">
+        <v>380.7466666666666</v>
+      </c>
+      <c r="H491" t="n">
+        <v>374.31</v>
+      </c>
+      <c r="I491" t="n">
+        <v>367.0766666666667</v>
+      </c>
+      <c r="J491" t="n">
+        <v>368.645</v>
+      </c>
+      <c r="K491" t="n">
+        <v>367.5755555555555</v>
+      </c>
+      <c r="L491" t="n">
+        <v>370.065</v>
+      </c>
+      <c r="M491" t="n">
+        <v>367.6988235294118</v>
+      </c>
+      <c r="N491" t="n">
+        <v>365.47</v>
+      </c>
+      <c r="O491" t="n">
+        <v>347.1166666666667</v>
+      </c>
+      <c r="P491" t="n">
+        <v>321.0166666666667</v>
+      </c>
+      <c r="Q491" t="inlineStr"/>
+      <c r="R491" t="inlineStr"/>
+      <c r="S491" t="inlineStr"/>
+      <c r="T491" t="inlineStr"/>
+      <c r="U491" t="inlineStr"/>
+      <c r="V491" t="inlineStr"/>
+      <c r="W491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29822,7 +29946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B510"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34930,6 +35054,36 @@
       </c>
       <c r="B510" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -35103,28 +35257,28 @@
         <v>0.1148</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4495729491320705</v>
+        <v>-0.4529577769039023</v>
       </c>
       <c r="J2" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K2" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01414806569951321</v>
+        <v>0.01442552453929502</v>
       </c>
       <c r="M2" t="n">
-        <v>24.65911607458127</v>
+        <v>24.60896963442196</v>
       </c>
       <c r="N2" t="n">
-        <v>892.0711987337063</v>
+        <v>889.6786784943474</v>
       </c>
       <c r="O2" t="n">
-        <v>29.86756097731628</v>
+        <v>29.82748193351808</v>
       </c>
       <c r="P2" t="n">
-        <v>429.7431823287347</v>
+        <v>429.7754257570921</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35181,28 +35335,28 @@
         <v>0.1347</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03464885483879052</v>
+        <v>0.02415389569446617</v>
       </c>
       <c r="J3" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K3" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002986617241129697</v>
+        <v>0.0001446934304517589</v>
       </c>
       <c r="M3" t="n">
-        <v>12.73597810169948</v>
+        <v>12.76914395413782</v>
       </c>
       <c r="N3" t="n">
-        <v>257.0733294285847</v>
+        <v>258.7605641257111</v>
       </c>
       <c r="O3" t="n">
-        <v>16.03350646080216</v>
+        <v>16.08603630872786</v>
       </c>
       <c r="P3" t="n">
-        <v>379.69629725332</v>
+        <v>379.7963515698592</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35253,28 +35407,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.2401093082746991</v>
+        <v>0.2399066303557864</v>
       </c>
       <c r="J4" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K4" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01470510202194386</v>
+        <v>0.01474099903395432</v>
       </c>
       <c r="M4" t="n">
-        <v>12.49471178392709</v>
+        <v>12.50207041389384</v>
       </c>
       <c r="N4" t="n">
-        <v>247.5938536830435</v>
+        <v>247.3349052569183</v>
       </c>
       <c r="O4" t="n">
-        <v>15.73511530567995</v>
+        <v>15.72688479187529</v>
       </c>
       <c r="P4" t="n">
-        <v>367.9617873881083</v>
+        <v>367.9639465217514</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35325,28 +35479,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2651466113220536</v>
+        <v>0.2692237540285997</v>
       </c>
       <c r="J5" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K5" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01772882931459774</v>
+        <v>0.01835363839440962</v>
       </c>
       <c r="M5" t="n">
-        <v>12.75313571251719</v>
+        <v>12.7488733432763</v>
       </c>
       <c r="N5" t="n">
-        <v>248.9291900881993</v>
+        <v>248.5449398208407</v>
       </c>
       <c r="O5" t="n">
-        <v>15.77748998060843</v>
+        <v>15.76530811055847</v>
       </c>
       <c r="P5" t="n">
-        <v>363.9456547181405</v>
+        <v>363.9069026800191</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35403,28 +35557,28 @@
         <v>0.126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2341863635116818</v>
+        <v>0.2375705843707946</v>
       </c>
       <c r="J6" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K6" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01599433674878192</v>
+        <v>0.01657482947668576</v>
       </c>
       <c r="M6" t="n">
-        <v>11.94788934936013</v>
+        <v>11.91338969548409</v>
       </c>
       <c r="N6" t="n">
-        <v>211.8425830807894</v>
+        <v>210.9637458917805</v>
       </c>
       <c r="O6" t="n">
-        <v>14.55481305550811</v>
+        <v>14.52459107485579</v>
       </c>
       <c r="P6" t="n">
-        <v>364.0290039599748</v>
+        <v>363.9962578886794</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35481,28 +35635,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1704277401678777</v>
+        <v>0.1776689875075627</v>
       </c>
       <c r="J7" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K7" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00860231127554878</v>
+        <v>0.009405834486763909</v>
       </c>
       <c r="M7" t="n">
-        <v>11.35613844056017</v>
+        <v>11.34300434315175</v>
       </c>
       <c r="N7" t="n">
-        <v>208.2943761274794</v>
+        <v>207.5586103283759</v>
       </c>
       <c r="O7" t="n">
-        <v>14.43240714944944</v>
+        <v>14.40689454144702</v>
       </c>
       <c r="P7" t="n">
-        <v>367.5684968384693</v>
+        <v>367.4975489390108</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35559,28 +35713,28 @@
         <v>0.0893</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1198926112438022</v>
+        <v>0.1188599980034416</v>
       </c>
       <c r="J8" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K8" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004140155265821455</v>
+        <v>0.004105126244442592</v>
       </c>
       <c r="M8" t="n">
-        <v>11.51378231638187</v>
+        <v>11.45737495886354</v>
       </c>
       <c r="N8" t="n">
-        <v>215.6582005101058</v>
+        <v>214.4980829327983</v>
       </c>
       <c r="O8" t="n">
-        <v>14.68530559811766</v>
+        <v>14.64575306813543</v>
       </c>
       <c r="P8" t="n">
-        <v>371.4737572601174</v>
+        <v>371.4838466270064</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35637,28 +35791,28 @@
         <v>0.0872</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1951876062194413</v>
+        <v>0.1905667949324501</v>
       </c>
       <c r="J9" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K9" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0111363185321276</v>
+        <v>0.01070226530081408</v>
       </c>
       <c r="M9" t="n">
-        <v>11.09890190688384</v>
+        <v>11.06554672420908</v>
       </c>
       <c r="N9" t="n">
-        <v>206.9448912902046</v>
+        <v>206.0613205865515</v>
       </c>
       <c r="O9" t="n">
-        <v>14.3855792823996</v>
+        <v>14.35483613931387</v>
       </c>
       <c r="P9" t="n">
-        <v>371.3888426896472</v>
+        <v>371.4347949643015</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35715,28 +35869,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0905692713915535</v>
+        <v>0.09217121585622641</v>
       </c>
       <c r="J10" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K10" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002815581914807463</v>
+        <v>0.002934120175395849</v>
       </c>
       <c r="M10" t="n">
-        <v>10.03927415806988</v>
+        <v>10.03646191490331</v>
       </c>
       <c r="N10" t="n">
-        <v>175.4635015526611</v>
+        <v>175.0025953995451</v>
       </c>
       <c r="O10" t="n">
-        <v>13.24626368273941</v>
+        <v>13.22885465184137</v>
       </c>
       <c r="P10" t="n">
-        <v>374.0377563032624</v>
+        <v>374.0218966163172</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35793,28 +35947,28 @@
         <v>0.102</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2141491847851919</v>
+        <v>0.2142595177828548</v>
       </c>
       <c r="J11" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01440248226094942</v>
+        <v>0.01454111179690121</v>
       </c>
       <c r="M11" t="n">
-        <v>10.66534815899158</v>
+        <v>10.6351532277506</v>
       </c>
       <c r="N11" t="n">
-        <v>188.7910651811892</v>
+        <v>187.8814107612739</v>
       </c>
       <c r="O11" t="n">
-        <v>13.74012609771792</v>
+        <v>13.70698401404459</v>
       </c>
       <c r="P11" t="n">
-        <v>367.2089285038097</v>
+        <v>367.2079241333952</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35871,28 +36025,28 @@
         <v>0.0958</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1632537298347564</v>
+        <v>0.165503724037494</v>
       </c>
       <c r="J12" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K12" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00936288811738184</v>
+        <v>0.009716722025056135</v>
       </c>
       <c r="M12" t="n">
-        <v>10.13963600876989</v>
+        <v>10.0922503639657</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9800753100807</v>
+        <v>170.0016319614614</v>
       </c>
       <c r="O12" t="n">
-        <v>13.0759349688686</v>
+        <v>13.0384673931203</v>
       </c>
       <c r="P12" t="n">
-        <v>363.7804692437397</v>
+        <v>363.7582601198573</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35949,28 +36103,28 @@
         <v>0.0956</v>
       </c>
       <c r="I13" t="n">
-        <v>0.216189216426721</v>
+        <v>0.2181519320519091</v>
       </c>
       <c r="J13" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K13" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01666462103013377</v>
+        <v>0.01713092118573212</v>
       </c>
       <c r="M13" t="n">
-        <v>10.46045361943338</v>
+        <v>10.41203856203206</v>
       </c>
       <c r="N13" t="n">
-        <v>171.5494907938404</v>
+        <v>170.5886095834743</v>
       </c>
       <c r="O13" t="n">
-        <v>13.09769028469678</v>
+        <v>13.06095745278555</v>
       </c>
       <c r="P13" t="n">
-        <v>357.5757682555567</v>
+        <v>357.5567538882722</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36027,28 +36181,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2974868520602771</v>
+        <v>0.2967771729701223</v>
       </c>
       <c r="J14" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K14" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02493367293195281</v>
+        <v>0.02506276432843624</v>
       </c>
       <c r="M14" t="n">
-        <v>12.0802167409173</v>
+        <v>12.04580321825159</v>
       </c>
       <c r="N14" t="n">
-        <v>219.1738780700709</v>
+        <v>218.0584417087593</v>
       </c>
       <c r="O14" t="n">
-        <v>14.80452221687923</v>
+        <v>14.76680201359656</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7099755582696</v>
+        <v>351.7165577506921</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36105,28 +36259,28 @@
         <v>0.0883</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4042554596799679</v>
+        <v>0.3928195588819897</v>
       </c>
       <c r="J15" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K15" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0435917258032803</v>
+        <v>0.04162046323802171</v>
       </c>
       <c r="M15" t="n">
-        <v>11.80270974274538</v>
+        <v>11.7933022372168</v>
       </c>
       <c r="N15" t="n">
-        <v>218.5199760849811</v>
+        <v>217.6610879410548</v>
       </c>
       <c r="O15" t="n">
-        <v>14.78242118480532</v>
+        <v>14.75334158558849</v>
       </c>
       <c r="P15" t="n">
-        <v>345.440289174041</v>
+        <v>345.5526700544938</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -36183,28 +36337,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3566413752610421</v>
+        <v>0.330989604478807</v>
       </c>
       <c r="J16" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K16" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03442225491598572</v>
+        <v>0.02965159678545648</v>
       </c>
       <c r="M16" t="n">
-        <v>11.55312761270013</v>
+        <v>11.63756006303475</v>
       </c>
       <c r="N16" t="n">
-        <v>215.2683325750796</v>
+        <v>217.3901677984663</v>
       </c>
       <c r="O16" t="n">
-        <v>14.67202551030633</v>
+        <v>14.74415707317534</v>
       </c>
       <c r="P16" t="n">
-        <v>341.0041268080838</v>
+        <v>341.2602099468392</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36264,7 +36418,7 @@
         <v>0.1160966067719277</v>
       </c>
       <c r="J17" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K17" t="n">
         <v>252</v>
@@ -36342,7 +36496,7 @@
         <v>0.2244269794310636</v>
       </c>
       <c r="J18" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K18" t="n">
         <v>229</v>
@@ -36414,7 +36568,7 @@
         <v>0.1952661022743515</v>
       </c>
       <c r="J19" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K19" t="n">
         <v>200</v>
@@ -36486,7 +36640,7 @@
         <v>0.736006423831106</v>
       </c>
       <c r="J20" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K20" t="n">
         <v>198</v>
@@ -36558,7 +36712,7 @@
         <v>0.05702255727047541</v>
       </c>
       <c r="J21" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K21" t="n">
         <v>194</v>
@@ -36636,7 +36790,7 @@
         <v>0.7895189342187715</v>
       </c>
       <c r="J22" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K22" t="n">
         <v>215</v>
@@ -36692,7 +36846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W489"/>
+  <dimension ref="A1:W491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79229,6 +79383,188 @@
         </is>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-41.09621211091502,172.1030950172033</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-41.09553148653165,172.10334263159726</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-41.09485471152323,172.1033203714714</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-41.09417795788404,172.10329612815576</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-41.09349972100882,172.1033751819672</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-41.09282305176986,172.10334405689525</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-41.092144960531364,172.103411937638</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>-41.091468660602544,172.10335399784682</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>-41.090810673183576,172.10318589393432</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>-41.09014956676882,172.10318597581778</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>-41.08947331875127,172.10314184396432</t>
+        </is>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>-41.0887938239067,172.10309887700166</t>
+        </is>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>-41.08811077414638,172.1030881055701</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>-41.08743258240866,172.10303360093747</t>
+        </is>
+      </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>-41.08675285250241,172.10299381627368</t>
+        </is>
+      </c>
+      <c r="Q490" t="inlineStr"/>
+      <c r="R490" t="inlineStr"/>
+      <c r="S490" t="inlineStr"/>
+      <c r="T490" t="inlineStr"/>
+      <c r="U490" t="inlineStr"/>
+      <c r="V490" t="inlineStr"/>
+      <c r="W490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-41.09552443733418,172.10383582963593</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-41.09484995944775,172.10365286475545</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-41.09417387642218,172.10358170216426</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-41.093497908060954,172.10350202865231</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-41.092823152715326,172.10333699376326</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>-41.09214526702813,172.1033904933736</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>-41.091467238773674,172.10345347485696</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>-41.09079881070529,172.10341192028744</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>-41.090136873450646,172.10331220479722</t>
+        </is>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>-41.08947269587084,172.10314749907246</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>-41.08880033895135,172.1030397276703</t>
+        </is>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>-41.088128134807135,172.10293033476376</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>-41.08743503700042,172.10301117462134</t>
+        </is>
+      </c>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>-41.086732079654524,172.1031844353139</t>
+        </is>
+      </c>
+      <c r="Q491" t="inlineStr"/>
+      <c r="R491" t="inlineStr"/>
+      <c r="S491" t="inlineStr"/>
+      <c r="T491" t="inlineStr"/>
+      <c r="U491" t="inlineStr"/>
+      <c r="V491" t="inlineStr"/>
+      <c r="W491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W491"/>
+  <dimension ref="A1:W493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29862,7 +29862,9 @@
       <c r="P490" t="n">
         <v>337.1933333333333</v>
       </c>
-      <c r="Q490" t="inlineStr"/>
+      <c r="Q490" t="n">
+        <v>302.6682352941176</v>
+      </c>
       <c r="R490" t="inlineStr"/>
       <c r="S490" t="inlineStr"/>
       <c r="T490" t="inlineStr"/>
@@ -29930,6 +29932,138 @@
       <c r="U491" t="inlineStr"/>
       <c r="V491" t="inlineStr"/>
       <c r="W491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:38+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>392.6005263157895</v>
+      </c>
+      <c r="C492" t="n">
+        <v>373.4109523809524</v>
+      </c>
+      <c r="D492" t="n">
+        <v>362.21</v>
+      </c>
+      <c r="E492" t="n">
+        <v>359.9505263157895</v>
+      </c>
+      <c r="F492" t="n">
+        <v>370.8211111111111</v>
+      </c>
+      <c r="G492" t="n">
+        <v>362.3433333333334</v>
+      </c>
+      <c r="H492" t="n">
+        <v>357.8414285714285</v>
+      </c>
+      <c r="I492" t="n">
+        <v>350.5733333333333</v>
+      </c>
+      <c r="J492" t="n">
+        <v>349.895</v>
+      </c>
+      <c r="K492" t="n">
+        <v>340.5911111111111</v>
+      </c>
+      <c r="L492" t="n">
+        <v>342.835</v>
+      </c>
+      <c r="M492" t="n">
+        <v>342.33</v>
+      </c>
+      <c r="N492" t="n">
+        <v>326.9614285714285</v>
+      </c>
+      <c r="O492" t="n">
+        <v>320.7633333333333</v>
+      </c>
+      <c r="P492" t="n">
+        <v>307.8433333333334</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>303.52</v>
+      </c>
+      <c r="R492" t="inlineStr"/>
+      <c r="S492" t="inlineStr"/>
+      <c r="T492" t="inlineStr"/>
+      <c r="U492" t="inlineStr"/>
+      <c r="V492" t="inlineStr"/>
+      <c r="W492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>403.5142105263158</v>
+      </c>
+      <c r="C493" t="n">
+        <v>387.3219047619048</v>
+      </c>
+      <c r="D493" t="n">
+        <v>372.07</v>
+      </c>
+      <c r="E493" t="n">
+        <v>369.6042105263158</v>
+      </c>
+      <c r="F493" t="n">
+        <v>367.2522222222222</v>
+      </c>
+      <c r="G493" t="n">
+        <v>366.2566666666667</v>
+      </c>
+      <c r="H493" t="n">
+        <v>369.6628571428572</v>
+      </c>
+      <c r="I493" t="n">
+        <v>359.1766666666667</v>
+      </c>
+      <c r="J493" t="n">
+        <v>356.12</v>
+      </c>
+      <c r="K493" t="n">
+        <v>345.2722222222222</v>
+      </c>
+      <c r="L493" t="n">
+        <v>347.94</v>
+      </c>
+      <c r="M493" t="n">
+        <v>340.5435294117647</v>
+      </c>
+      <c r="N493" t="n">
+        <v>344.7728571428572</v>
+      </c>
+      <c r="O493" t="n">
+        <v>339.3966666666666</v>
+      </c>
+      <c r="P493" t="n">
+        <v>331.7466666666667</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>325.7635294117647</v>
+      </c>
+      <c r="R493" t="inlineStr"/>
+      <c r="S493" t="inlineStr"/>
+      <c r="T493" t="inlineStr"/>
+      <c r="U493" t="inlineStr"/>
+      <c r="V493" t="n">
+        <v>327.8828571428572</v>
+      </c>
+      <c r="W493" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -29946,7 +30080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B513"/>
+  <dimension ref="A1:B515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35084,6 +35218,26 @@
       </c>
       <c r="B513" t="n">
         <v>0.77</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -36846,7 +37000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W491"/>
+  <dimension ref="A1:W493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79464,7 +79618,11 @@
           <t>-41.08675285250241,172.10299381627368</t>
         </is>
       </c>
-      <c r="Q490" t="inlineStr"/>
+      <c r="Q490" t="inlineStr">
+        <is>
+          <t>-41.086039049512415,172.10326634190992</t>
+        </is>
+      </c>
       <c r="R490" t="inlineStr"/>
       <c r="S490" t="inlineStr"/>
       <c r="T490" t="inlineStr"/>
@@ -79565,6 +79723,204 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:38+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-41.09620901770082,172.1033114897268</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-41.09552899721946,172.1035168135447</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-41.094850328691024,172.103627031945</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-41.09417317457111,172.1036308046764</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-41.093498247597594,172.10347827300652</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-41.092820021502796,172.10355606989026</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>-41.09214246490121,172.10358653577939</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>-41.09146443059352,172.10364992904803</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>-41.09078712233235,172.10363462090518</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>-41.09010484811676,172.10363067508814</t>
+        </is>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>-41.08943735992725,172.10346830847797</t>
+        </is>
+      </c>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>-41.088767418389395,172.10333860666717</t>
+        </is>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>-41.08807821167338,172.1033840223946</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>-41.08740105061678,172.10332168666102</t>
+        </is>
+      </c>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t>-41.086715163225485,172.1033396642519</t>
+        </is>
+      </c>
+      <c r="Q492" t="inlineStr">
+        <is>
+          <t>-41.08604014330398,172.10325630518312</t>
+        </is>
+      </c>
+      <c r="R492" t="inlineStr"/>
+      <c r="S492" t="inlineStr"/>
+      <c r="T492" t="inlineStr"/>
+      <c r="U492" t="inlineStr"/>
+      <c r="V492" t="inlineStr"/>
+      <c r="W492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-41.096210874269076,172.10318156486085</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-41.0955313639599,172.10335120860998</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-41.094852006377785,172.10350965336616</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-41.094174817176025,172.10351588336903</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-41.09349764036046,172.10352075804778</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-41.09282068736698,172.10350948496597</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-41.09214447635071,172.10344581311324</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-41.09146589456443,172.1035475157456</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>-41.09079100291999,172.103560684308</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>-41.09011040375665,172.10357542865708</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>-41.08944398467395,172.10340816410286</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>-41.088765100096616,172.10335965369225</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>-41.08810130291996,172.10317417764074</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>-41.0874250810459,172.1031021366924</t>
+        </is>
+      </c>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>-41.086745858341715,172.103057997517</t>
+        </is>
+      </c>
+      <c r="Q493" t="inlineStr">
+        <is>
+          <t>-41.08606870696721,172.10299419955484</t>
+        </is>
+      </c>
+      <c r="R493" t="inlineStr"/>
+      <c r="S493" t="inlineStr"/>
+      <c r="T493" t="inlineStr"/>
+      <c r="U493" t="inlineStr"/>
+      <c r="V493" t="inlineStr">
+        <is>
+          <t>-41.082722278649534,172.10240970176721</t>
+        </is>
+      </c>
+      <c r="W493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -35411,28 +35411,28 @@
         <v>0.1148</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4529577769039023</v>
+        <v>-0.4713852963177539</v>
       </c>
       <c r="J2" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K2" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01442552453929502</v>
+        <v>0.0157136640302159</v>
       </c>
       <c r="M2" t="n">
-        <v>24.60896963442196</v>
+        <v>24.5773668614161</v>
       </c>
       <c r="N2" t="n">
-        <v>889.6786784943474</v>
+        <v>887.0132071771303</v>
       </c>
       <c r="O2" t="n">
-        <v>29.82748193351808</v>
+        <v>29.78276694964943</v>
       </c>
       <c r="P2" t="n">
-        <v>429.7754257570921</v>
+        <v>429.9519898188459</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35489,28 +35489,28 @@
         <v>0.1347</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02415389569446617</v>
+        <v>0.02411206139563724</v>
       </c>
       <c r="J3" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K3" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001446934304517589</v>
+        <v>0.000145244128023525</v>
       </c>
       <c r="M3" t="n">
-        <v>12.76914395413782</v>
+        <v>12.74089642401965</v>
       </c>
       <c r="N3" t="n">
-        <v>258.7605641257111</v>
+        <v>257.7392926153533</v>
       </c>
       <c r="O3" t="n">
-        <v>16.08603630872786</v>
+        <v>16.05426088661055</v>
       </c>
       <c r="P3" t="n">
-        <v>379.7963515698592</v>
+        <v>379.7967150980809</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35561,28 +35561,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.2399066303557864</v>
+        <v>0.2343794489718659</v>
       </c>
       <c r="J4" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K4" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01474099903395432</v>
+        <v>0.01417039784194762</v>
       </c>
       <c r="M4" t="n">
-        <v>12.50207041389384</v>
+        <v>12.47590021032843</v>
       </c>
       <c r="N4" t="n">
-        <v>247.3349052569183</v>
+        <v>246.4805956616533</v>
       </c>
       <c r="O4" t="n">
-        <v>15.72688479187529</v>
+        <v>15.699700495922</v>
       </c>
       <c r="P4" t="n">
-        <v>367.9639465217514</v>
+        <v>368.0169474852666</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35633,28 +35633,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2692237540285997</v>
+        <v>0.2644067584750336</v>
       </c>
       <c r="J5" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K5" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01835363839440962</v>
+        <v>0.01783473581068407</v>
       </c>
       <c r="M5" t="n">
-        <v>12.7488733432763</v>
+        <v>12.71685327883084</v>
       </c>
       <c r="N5" t="n">
-        <v>248.5449398208407</v>
+        <v>247.6243836900111</v>
       </c>
       <c r="O5" t="n">
-        <v>15.76530811055847</v>
+        <v>15.73608539917127</v>
       </c>
       <c r="P5" t="n">
-        <v>363.9069026800191</v>
+        <v>363.9530774074994</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35711,28 +35711,28 @@
         <v>0.126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2375705843707946</v>
+        <v>0.2365914794431899</v>
       </c>
       <c r="J6" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K6" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01657482947668576</v>
+        <v>0.01657850509475112</v>
       </c>
       <c r="M6" t="n">
-        <v>11.91338969548409</v>
+        <v>11.86044918582291</v>
       </c>
       <c r="N6" t="n">
-        <v>210.9637458917805</v>
+        <v>209.8857781677025</v>
       </c>
       <c r="O6" t="n">
-        <v>14.52459107485579</v>
+        <v>14.48743518251945</v>
       </c>
       <c r="P6" t="n">
-        <v>363.9962578886794</v>
+        <v>364.0058072850626</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35789,28 +35789,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1776689875075627</v>
+        <v>0.1709967913038121</v>
       </c>
       <c r="J7" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K7" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009405834486763909</v>
+        <v>0.008779300793951283</v>
       </c>
       <c r="M7" t="n">
-        <v>11.34300434315175</v>
+        <v>11.32163569998165</v>
       </c>
       <c r="N7" t="n">
-        <v>207.5586103283759</v>
+        <v>206.7992160047697</v>
       </c>
       <c r="O7" t="n">
-        <v>14.40689454144702</v>
+        <v>14.3805151508828</v>
       </c>
       <c r="P7" t="n">
-        <v>367.4975489390108</v>
+        <v>367.5631751407288</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35867,28 +35867,28 @@
         <v>0.0893</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1188599980034416</v>
+        <v>0.1094983135624538</v>
       </c>
       <c r="J8" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K8" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004105126244442592</v>
+        <v>0.003503354607766962</v>
       </c>
       <c r="M8" t="n">
-        <v>11.45737495886354</v>
+        <v>11.4505633321346</v>
       </c>
       <c r="N8" t="n">
-        <v>214.4980829327983</v>
+        <v>214.1532229497167</v>
       </c>
       <c r="O8" t="n">
-        <v>14.64575306813543</v>
+        <v>14.63397495384343</v>
       </c>
       <c r="P8" t="n">
-        <v>371.4838466270064</v>
+        <v>371.5758069820973</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35945,28 +35945,28 @@
         <v>0.0872</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1905667949324501</v>
+        <v>0.1717000893505159</v>
       </c>
       <c r="J9" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K9" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01070226530081408</v>
+        <v>0.008674255199192737</v>
       </c>
       <c r="M9" t="n">
-        <v>11.06554672420908</v>
+        <v>11.1156404312782</v>
       </c>
       <c r="N9" t="n">
-        <v>206.0613205865515</v>
+        <v>207.5193545447385</v>
       </c>
       <c r="O9" t="n">
-        <v>14.35483613931387</v>
+        <v>14.40553208127831</v>
       </c>
       <c r="P9" t="n">
-        <v>371.4347949643015</v>
+        <v>371.6228461981422</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36023,28 +36023,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09217121585622641</v>
+        <v>0.07067679369235591</v>
       </c>
       <c r="J10" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K10" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002934120175395849</v>
+        <v>0.001713016885371177</v>
       </c>
       <c r="M10" t="n">
-        <v>10.03646191490331</v>
+        <v>10.10879502695292</v>
       </c>
       <c r="N10" t="n">
-        <v>175.0025953995451</v>
+        <v>177.1044544178821</v>
       </c>
       <c r="O10" t="n">
-        <v>13.22885465184137</v>
+        <v>13.30805975406941</v>
       </c>
       <c r="P10" t="n">
-        <v>374.0218966163172</v>
+        <v>374.2379096786972</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36101,28 +36101,28 @@
         <v>0.102</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2142595177828548</v>
+        <v>0.1863232333437322</v>
       </c>
       <c r="J11" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K11" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01454111179690121</v>
+        <v>0.01085247985687932</v>
       </c>
       <c r="M11" t="n">
-        <v>10.6351532277506</v>
+        <v>10.74839607930601</v>
       </c>
       <c r="N11" t="n">
-        <v>187.8814107612739</v>
+        <v>191.8168495709251</v>
       </c>
       <c r="O11" t="n">
-        <v>13.70698401404459</v>
+        <v>13.84979601188859</v>
       </c>
       <c r="P11" t="n">
-        <v>367.2079241333952</v>
+        <v>367.4885546864414</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36179,28 +36179,28 @@
         <v>0.0958</v>
       </c>
       <c r="I12" t="n">
-        <v>0.165503724037494</v>
+        <v>0.1432280286507914</v>
       </c>
       <c r="J12" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K12" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009716722025056135</v>
+        <v>0.007240831179145424</v>
       </c>
       <c r="M12" t="n">
-        <v>10.0922503639657</v>
+        <v>10.17454269451783</v>
       </c>
       <c r="N12" t="n">
-        <v>170.0016319614614</v>
+        <v>172.0152867144685</v>
       </c>
       <c r="O12" t="n">
-        <v>13.0384673931203</v>
+        <v>13.11545983618068</v>
       </c>
       <c r="P12" t="n">
-        <v>363.7582601198573</v>
+        <v>363.9790139825155</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36257,28 +36257,28 @@
         <v>0.0956</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2181519320519091</v>
+        <v>0.1968176214150058</v>
       </c>
       <c r="J13" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K13" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01713092118573212</v>
+        <v>0.0139063158317676</v>
       </c>
       <c r="M13" t="n">
-        <v>10.41203856203206</v>
+        <v>10.48990000085227</v>
       </c>
       <c r="N13" t="n">
-        <v>170.5886095834743</v>
+        <v>172.3555792299051</v>
       </c>
       <c r="O13" t="n">
-        <v>13.06095745278555</v>
+        <v>13.12842638056462</v>
       </c>
       <c r="P13" t="n">
-        <v>357.5567538882722</v>
+        <v>357.7637384865721</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36335,28 +36335,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2967771729701223</v>
+        <v>0.2719340905566232</v>
       </c>
       <c r="J14" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K14" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02506276432843624</v>
+        <v>0.02098341268747805</v>
       </c>
       <c r="M14" t="n">
-        <v>12.04580321825159</v>
+        <v>12.12316373876746</v>
       </c>
       <c r="N14" t="n">
-        <v>218.0584417087593</v>
+        <v>220.6603154475729</v>
       </c>
       <c r="O14" t="n">
-        <v>14.76680201359656</v>
+        <v>14.85463952600577</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7165577506921</v>
+        <v>351.9524999340928</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36413,28 +36413,28 @@
         <v>0.0883</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3928195588819897</v>
+        <v>0.3631917894404043</v>
       </c>
       <c r="J15" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K15" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04162046323802171</v>
+        <v>0.03540539535289389</v>
       </c>
       <c r="M15" t="n">
-        <v>11.7933022372168</v>
+        <v>11.8990858825588</v>
       </c>
       <c r="N15" t="n">
-        <v>217.6610879410548</v>
+        <v>221.252073048756</v>
       </c>
       <c r="O15" t="n">
-        <v>14.75334158558849</v>
+        <v>14.8745444652519</v>
       </c>
       <c r="P15" t="n">
-        <v>345.5526700544938</v>
+        <v>345.8449357103322</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -36491,28 +36491,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.330989604478807</v>
+        <v>0.2950684955783097</v>
       </c>
       <c r="J16" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K16" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02965159678545648</v>
+        <v>0.02320688851155395</v>
       </c>
       <c r="M16" t="n">
-        <v>11.63756006303475</v>
+        <v>11.79423592496613</v>
       </c>
       <c r="N16" t="n">
-        <v>217.3901677984663</v>
+        <v>223.2933113939719</v>
       </c>
       <c r="O16" t="n">
-        <v>14.74415707317534</v>
+        <v>14.9430020877323</v>
       </c>
       <c r="P16" t="n">
-        <v>341.2602099468392</v>
+        <v>341.6198569399061</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36569,28 +36569,28 @@
         <v>0.1112</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1160966067719277</v>
+        <v>0.05092442097012449</v>
       </c>
       <c r="J17" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K17" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00327397498669646</v>
+        <v>0.0006077914977914434</v>
       </c>
       <c r="M17" t="n">
-        <v>11.86629565955186</v>
+        <v>12.16910302700122</v>
       </c>
       <c r="N17" t="n">
-        <v>244.3249445270379</v>
+        <v>255.8284513917297</v>
       </c>
       <c r="O17" t="n">
-        <v>15.63089711203544</v>
+        <v>15.994638207591</v>
       </c>
       <c r="P17" t="n">
-        <v>341.4298557109265</v>
+        <v>342.091052325405</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -36650,7 +36650,7 @@
         <v>0.2244269794310636</v>
       </c>
       <c r="J18" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K18" t="n">
         <v>229</v>
@@ -36722,7 +36722,7 @@
         <v>0.1952661022743515</v>
       </c>
       <c r="J19" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K19" t="n">
         <v>200</v>
@@ -36794,7 +36794,7 @@
         <v>0.736006423831106</v>
       </c>
       <c r="J20" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K20" t="n">
         <v>198</v>
@@ -36866,7 +36866,7 @@
         <v>0.05702255727047541</v>
       </c>
       <c r="J21" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K21" t="n">
         <v>194</v>
@@ -36941,28 +36941,28 @@
         <v>0.0843</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7895189342187715</v>
+        <v>0.7805123453977939</v>
       </c>
       <c r="J22" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K22" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01811686903235454</v>
+        <v>0.01786017944591356</v>
       </c>
       <c r="M22" t="n">
-        <v>25.39836991978432</v>
+        <v>25.349528166948</v>
       </c>
       <c r="N22" t="n">
-        <v>2118.531655742127</v>
+        <v>2109.308661695018</v>
       </c>
       <c r="O22" t="n">
-        <v>46.0275097712458</v>
+        <v>45.92721047151697</v>
       </c>
       <c r="P22" t="n">
-        <v>318.5669342310405</v>
+        <v>318.6524209634278</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">

--- a/data/nzd0340/nzd0340.xlsx
+++ b/data/nzd0340/nzd0340.xlsx
@@ -35402,13 +35402,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.095</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.083</v>
+        <v>0.0349</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1148</v>
+        <v>0.043</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4713859524820047</v>
@@ -35480,13 +35480,13 @@
         <v>0.9499964779685275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.105</v>
+        <v>0.095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0835</v>
+        <v>0.0791</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1347</v>
+        <v>0.1263</v>
       </c>
       <c r="I3" t="n">
         <v>0.02412137552099799</v>
@@ -35557,9 +35557,15 @@
       <c r="E4" t="n">
         <v>0.8999929559369589</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0722</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1263</v>
+      </c>
       <c r="I4" t="n">
         <v>0.2343794489718661</v>
       </c>
@@ -35629,9 +35635,15 @@
       <c r="E5" t="n">
         <v>0.8499894339054385</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I5" t="n">
         <v>0.2644093255462845</v>
       </c>
@@ -35702,13 +35714,13 @@
         <v>0.799985911873918</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09</v>
+        <v>0.145</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0731</v>
+        <v>0.1023</v>
       </c>
       <c r="H6" t="n">
-        <v>0.126</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.2365816922540561</v>
@@ -35780,13 +35792,13 @@
         <v>0.7499823898423974</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.065</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0902</v>
+        <v>0.1333</v>
       </c>
       <c r="I7" t="n">
         <v>0.1709557331879567</v>
@@ -35858,13 +35870,13 @@
         <v>0.6999788678108769</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0606</v>
+        <v>0.0988</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0893</v>
+        <v>0.1867</v>
       </c>
       <c r="I8" t="n">
         <v>0.1094678599543201</v>
@@ -35936,13 +35948,13 @@
         <v>0.6499753457793563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06759999999999999</v>
+        <v>0.0827</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0872</v>
+        <v>0.1147</v>
       </c>
       <c r="I9" t="n">
         <v>0.1716574823013201</v>
@@ -36014,13 +36026,13 @@
         <v>0.5999718237478359</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0699</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.0815</v>
       </c>
       <c r="I10" t="n">
         <v>0.07064838734060525</v>
@@ -36092,13 +36104,13 @@
         <v>0.5500311671159086</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09</v>
+        <v>0.115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0791</v>
+        <v>0.0806</v>
       </c>
       <c r="H11" t="n">
-        <v>0.102</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>0.1863118425513232</v>
@@ -36170,13 +36182,13 @@
         <v>0.5000276450850122</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08</v>
+        <v>0.135</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0727</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0958</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
         <v>0.1431932010502504</v>
@@ -36248,13 +36260,13 @@
         <v>0.4500241230533742</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0741</v>
+        <v>0.0495</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0956</v>
+        <v>0.0721</v>
       </c>
       <c r="I13" t="n">
         <v>0.1967967169920623</v>
@@ -36326,13 +36338,13 @@
         <v>0.4000206010217362</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0625</v>
+        <v>0.0449</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>0.2719003723187729</v>
@@ -36404,13 +36416,13 @@
         <v>0.3500170877890205</v>
       </c>
       <c r="F15" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G15" t="n">
         <v>0.0634</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0883</v>
+        <v>0.1212</v>
       </c>
       <c r="I15" t="n">
         <v>0.3631377917102804</v>
@@ -36482,13 +36494,13 @@
         <v>0.3000135657577736</v>
       </c>
       <c r="F16" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0655</v>
+        <v>0.0696</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1625</v>
       </c>
       <c r="I16" t="n">
         <v>0.2950116166540296</v>
@@ -36560,13 +36572,13 @@
         <v>0.2500100437262482</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0711</v>
+        <v>0.0723</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1112</v>
+        <v>0.1267</v>
       </c>
       <c r="I17" t="n">
         <v>0.05089452162266016</v>
@@ -36638,13 +36650,13 @@
         <v>0.2000065216947229</v>
       </c>
       <c r="F18" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.054</v>
+        <v>0.0435</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.0895</v>
       </c>
       <c r="I18" t="n">
         <v>0.2244596972564217</v>
@@ -36715,9 +36727,15 @@
       <c r="E19" t="n">
         <v>0.1500029996630156</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.06809999999999999</v>
+      </c>
       <c r="I19" t="n">
         <v>0.1952803179445776</v>
       </c>
@@ -36787,9 +36805,15 @@
       <c r="E20" t="n">
         <v>0.1000070440636459</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0603</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1097</v>
+      </c>
       <c r="I20" t="n">
         <v>0.7359648042114607</v>
       </c>
@@ -36859,9 +36883,15 @@
       <c r="E21" t="n">
         <v>0.0500035220316259</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0483</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.09379999999999999</v>
+      </c>
       <c r="I21" t="n">
         <v>0.05704985786097729</v>
       </c>
@@ -36932,13 +36962,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0615</v>
+        <v>0.0386</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0843</v>
+        <v>0.0525</v>
       </c>
       <c r="I22" t="n">
         <v>0.780500867292411</v>
